--- a/outputs/PCIE_ES2.xlsx
+++ b/outputs/PCIE_ES2.xlsx
@@ -26,7 +26,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -130,13 +130,6 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="6" tint="0.7999816888943144"/>
-      <sz val="20"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="12"/>
@@ -151,10 +144,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="0"/>
+      <sz val="20"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
       <color rgb="00FF0000"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill/>
     </fill>
@@ -279,18 +282,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981048"/>
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f0f5ff"/>
+        <bgColor rgb="00f0f5ff"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -394,6 +403,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -442,7 +464,7 @@
     <xf borderId="1" fillId="5" fontId="5" numFmtId="0"/>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="87">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -528,22 +550,56 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="11" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="11" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="20" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="7" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="3" fillId="7" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="7" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="4" fillId="7" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="10" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="11" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="11" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="8" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -561,46 +617,42 @@
     <xf applyAlignment="1" borderId="4" fillId="8" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="7" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="7" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf applyAlignment="1" borderId="3" fillId="22" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="20" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf applyAlignment="1" borderId="4" fillId="22" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf applyAlignment="1" borderId="3" fillId="21" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="4" fillId="21" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="21" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="21" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="21" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="21" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="22" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="2" fillId="21" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="21" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="21" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="21" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="23" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="23" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="2" fillId="9" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -609,9 +661,23 @@
     <xf applyAlignment="1" borderId="2" fillId="11" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="2" fillId="21" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="21" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="17" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="17" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="24" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="2" fillId="24" fontId="18" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="24" fontId="18" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="24" fontId="11" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="24" fontId="11" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="18" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="18" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -12284,7 +12350,7 @@
         <scaling>
           <orientation val="minMax"/>
           <max val="0.9"/>
-          <min val="0.44"/>
+          <min val="0.42"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -12968,7 +13034,7 @@
         <scaling>
           <orientation val="minMax"/>
           <max val="0.9"/>
-          <min val="0.44"/>
+          <min val="0.42"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -13652,7 +13718,7 @@
         <scaling>
           <orientation val="minMax"/>
           <max val="0.9"/>
-          <min val="0.44"/>
+          <min val="0.42"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -14336,7 +14402,7 @@
         <scaling>
           <orientation val="minMax"/>
           <max val="0.9"/>
-          <min val="0.44"/>
+          <min val="0.42"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -15020,7 +15086,7 @@
         <scaling>
           <orientation val="minMax"/>
           <max val="0.9"/>
-          <min val="0.44"/>
+          <min val="0.42"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -15704,7 +15770,7 @@
         <scaling>
           <orientation val="minMax"/>
           <max val="0.9"/>
-          <min val="0.44"/>
+          <min val="0.42"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -16979,7 +17045,7 @@
         <scaling>
           <orientation val="minMax"/>
           <max val="0.9"/>
-          <min val="0.44"/>
+          <min val="0.42"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -17663,7 +17729,7 @@
         <scaling>
           <orientation val="minMax"/>
           <max val="0.9"/>
-          <min val="0.44"/>
+          <min val="0.42"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -24419,7 +24485,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>11</col>
+      <col>12</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -24441,7 +24507,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>11</col>
+      <col>12</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
@@ -24512,7 +24578,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>11</col>
+      <col>12</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -24534,7 +24600,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>11</col>
+      <col>12</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
@@ -24605,7 +24671,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>11</col>
+      <col>12</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -24627,7 +24693,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>11</col>
+      <col>12</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
@@ -24698,7 +24764,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>11</col>
+      <col>12</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -24720,7 +24786,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>11</col>
+      <col>12</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
@@ -24840,7 +24906,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>11</col>
+      <col>12</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -24862,7 +24928,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>11</col>
+      <col>12</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
@@ -24933,7 +24999,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>11</col>
+      <col>12</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -24955,7 +25021,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>11</col>
+      <col>12</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
@@ -25026,7 +25092,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>11</col>
+      <col>12</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
@@ -25048,7 +25114,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>11</col>
+      <col>12</col>
       <colOff>0</colOff>
       <row>19</row>
       <rowOff>0</rowOff>
@@ -25375,13 +25441,13 @@
   <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="49" width="19"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="49" width="12.33203125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="37" width="19"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="37" width="12.33203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -25415,22 +25481,22 @@
           <t>D1MP</t>
         </is>
       </c>
-      <c r="H1" s="45" t="inlineStr">
+      <c r="H1" s="33" t="inlineStr">
         <is>
           <t>D2MP</t>
         </is>
       </c>
-      <c r="I1" s="45" t="inlineStr">
+      <c r="I1" s="33" t="inlineStr">
         <is>
           <t>D1LP</t>
         </is>
       </c>
-      <c r="J1" s="45" t="inlineStr">
+      <c r="J1" s="33" t="inlineStr">
         <is>
           <t>D2LP</t>
         </is>
       </c>
-      <c r="K1" s="45" t="inlineStr">
+      <c r="K1" s="33" t="inlineStr">
         <is>
           <t>D3HP</t>
         </is>
@@ -25476,13 +25542,13 @@
       <c r="G2" s="24" t="n">
         <v>19.43</v>
       </c>
-      <c r="H2" s="45" t="n">
+      <c r="H2" s="33" t="n">
         <v>18.284</v>
       </c>
-      <c r="I2" s="45" t="n">
+      <c r="I2" s="33" t="n">
         <v>23.344</v>
       </c>
-      <c r="J2" s="45" t="n">
+      <c r="J2" s="33" t="n">
         <v>22.335</v>
       </c>
       <c r="K2" s="24" t="n">
@@ -25564,9 +25630,9 @@
         </is>
       </c>
       <c r="G4" s="24" t="n"/>
-      <c r="H4" s="45" t="n"/>
-      <c r="I4" s="45" t="n"/>
-      <c r="J4" s="45" t="n"/>
+      <c r="H4" s="33" t="n"/>
+      <c r="I4" s="33" t="n"/>
+      <c r="J4" s="33" t="n"/>
       <c r="K4" s="24" t="n"/>
       <c r="W4" s="24" t="n">
         <v>7.2797</v>
@@ -25601,9 +25667,9 @@
         </is>
       </c>
       <c r="G5" s="24" t="n"/>
-      <c r="H5" s="45" t="n"/>
-      <c r="I5" s="45" t="n"/>
-      <c r="J5" s="45" t="n"/>
+      <c r="H5" s="33" t="n"/>
+      <c r="I5" s="33" t="n"/>
+      <c r="J5" s="33" t="n"/>
       <c r="K5" s="24" t="n"/>
       <c r="W5" s="24" t="n">
         <v>7.2548</v>
@@ -25640,13 +25706,13 @@
       <c r="G6" s="24" t="n">
         <v>4.564</v>
       </c>
-      <c r="H6" s="45" t="n">
+      <c r="H6" s="33" t="n">
         <v>4.341</v>
       </c>
-      <c r="I6" s="45" t="n">
+      <c r="I6" s="33" t="n">
         <v>4.564</v>
       </c>
-      <c r="J6" s="45" t="n">
+      <c r="J6" s="33" t="n">
         <v>4.378</v>
       </c>
       <c r="K6" s="24" t="n"/>
@@ -25961,15 +26027,15 @@
       <c r="Y19" s="24" t="n"/>
     </row>
     <row r="20">
-      <c r="F20" s="48" t="inlineStr">
+      <c r="F20" s="36" t="inlineStr">
         <is>
           <t>D1LP</t>
         </is>
       </c>
-      <c r="G20" s="47" t="n">
+      <c r="G20" s="35" t="n">
         <v>8.67</v>
       </c>
-      <c r="H20" s="48" t="n">
+      <c r="H20" s="36" t="n">
         <v>0</v>
       </c>
       <c r="W20" s="24" t="n">
@@ -25979,11 +26045,11 @@
       <c r="Y20" s="24" t="n"/>
     </row>
     <row r="21">
-      <c r="F21" s="48" t="n"/>
-      <c r="G21" s="47" t="n">
+      <c r="F21" s="36" t="n"/>
+      <c r="G21" s="35" t="n">
         <v>8.67</v>
       </c>
-      <c r="H21" s="48" t="n">
+      <c r="H21" s="36" t="n">
         <v>1</v>
       </c>
       <c r="W21" s="24" t="n">
@@ -25997,15 +26063,15 @@
       </c>
     </row>
     <row r="22">
-      <c r="F22" s="48" t="inlineStr">
+      <c r="F22" s="36" t="inlineStr">
         <is>
           <t>D2LP</t>
         </is>
       </c>
-      <c r="G22" s="47" t="n">
+      <c r="G22" s="35" t="n">
         <v>8.266999999999999</v>
       </c>
-      <c r="H22" s="48" t="n"/>
+      <c r="H22" s="36" t="n"/>
       <c r="W22" s="24" t="n">
         <v>6.1017</v>
       </c>
@@ -26017,11 +26083,11 @@
       </c>
     </row>
     <row r="23">
-      <c r="F23" s="48" t="n"/>
-      <c r="G23" s="47" t="n">
+      <c r="F23" s="36" t="n"/>
+      <c r="G23" s="35" t="n">
         <v>8.266999999999999</v>
       </c>
-      <c r="H23" s="48" t="n"/>
+      <c r="H23" s="36" t="n"/>
       <c r="W23" s="24" t="n">
         <v>6.0512</v>
       </c>
@@ -26029,73 +26095,73 @@
       <c r="Y23" s="24" t="n"/>
     </row>
     <row r="24">
-      <c r="F24" s="48" t="inlineStr">
+      <c r="F24" s="36" t="inlineStr">
         <is>
           <t>D1MP</t>
         </is>
       </c>
-      <c r="G24" s="47" t="n">
+      <c r="G24" s="35" t="n">
         <v>6.976</v>
       </c>
-      <c r="H24" s="48" t="n"/>
+      <c r="H24" s="36" t="n"/>
       <c r="W24" s="24" t="n"/>
       <c r="X24" s="24" t="n"/>
       <c r="Y24" s="24" t="n"/>
     </row>
     <row r="25">
-      <c r="F25" s="48" t="n"/>
-      <c r="G25" s="47" t="n">
+      <c r="F25" s="36" t="n"/>
+      <c r="G25" s="35" t="n">
         <v>6.976</v>
       </c>
-      <c r="H25" s="48" t="n"/>
+      <c r="H25" s="36" t="n"/>
       <c r="W25" s="24" t="n"/>
       <c r="X25" s="24" t="n"/>
       <c r="Y25" s="24" t="n"/>
     </row>
     <row r="26">
-      <c r="F26" s="48" t="inlineStr">
+      <c r="F26" s="36" t="inlineStr">
         <is>
           <t>D2MP</t>
         </is>
       </c>
-      <c r="G26" s="47" t="n">
+      <c r="G26" s="35" t="n">
         <v>6.52</v>
       </c>
-      <c r="H26" s="48" t="n"/>
+      <c r="H26" s="36" t="n"/>
       <c r="W26" s="24" t="n"/>
       <c r="X26" s="24" t="n"/>
       <c r="Y26" s="24" t="n"/>
     </row>
     <row r="27">
-      <c r="F27" s="48" t="n"/>
-      <c r="G27" s="47" t="n">
+      <c r="F27" s="36" t="n"/>
+      <c r="G27" s="35" t="n">
         <v>6.52</v>
       </c>
-      <c r="H27" s="48" t="n"/>
+      <c r="H27" s="36" t="n"/>
       <c r="W27" s="24" t="n"/>
       <c r="X27" s="24" t="n"/>
       <c r="Y27" s="24" t="n"/>
     </row>
     <row r="28">
-      <c r="F28" s="48" t="inlineStr">
+      <c r="F28" s="36" t="inlineStr">
         <is>
           <t>D3HP</t>
         </is>
       </c>
-      <c r="G28" s="48" t="n">
+      <c r="G28" s="36" t="n">
         <v>5.817</v>
       </c>
-      <c r="H28" s="48" t="n"/>
+      <c r="H28" s="36" t="n"/>
       <c r="W28" s="24" t="n"/>
       <c r="X28" s="24" t="n"/>
       <c r="Y28" s="24" t="n"/>
     </row>
     <row r="29">
-      <c r="F29" s="48" t="n"/>
-      <c r="G29" s="48" t="n">
+      <c r="F29" s="36" t="n"/>
+      <c r="G29" s="36" t="n">
         <v>5.817</v>
       </c>
-      <c r="H29" s="48" t="n"/>
+      <c r="H29" s="36" t="n"/>
       <c r="W29" s="24" t="n"/>
       <c r="X29" s="24" t="n"/>
       <c r="Y29" s="24" t="n"/>
@@ -26171,7 +26237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="Y5:AB40"/>
+  <dimension ref="A2:AB40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26179,6 +26245,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="2">
+      <c r="A2" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+      <c r="L2" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
       <c r="Y5" t="n">
         <v>0.5735899532761083</v>
@@ -26339,6 +26417,16 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+      <c r="L20" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
       <c r="Y20" t="n">
         <v>0.5435899532761083</v>
       </c>
@@ -26419,8 +26507,14 @@
     <row r="39"/>
     <row r="40"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A20" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L20" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -26430,7 +26524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="Y5:AB40"/>
+  <dimension ref="A2:AB40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26438,6 +26532,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="2">
+      <c r="A2" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+      <c r="L2" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
       <c r="Y5" t="n">
         <v>0.7107187398129375</v>
@@ -26582,6 +26688,16 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+      <c r="L20" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
       <c r="Y20" t="n">
         <v>0.6807187398129375</v>
       </c>
@@ -26655,8 +26771,14 @@
     <row r="39"/>
     <row r="40"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A20" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L20" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -26695,225 +26817,225 @@
       <c r="Y1" s="1" t="n"/>
       <c r="AA1" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="14.4" r="2" s="49">
+    <row customHeight="1" ht="14.4" r="2" s="37">
       <c r="E2" s="1" t="n"/>
       <c r="F2" s="1" t="n"/>
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="n"/>
       <c r="I2" s="1" t="n"/>
       <c r="J2" s="1" t="n"/>
-      <c r="K2" s="44" t="inlineStr">
+      <c r="K2" s="49" t="inlineStr">
         <is>
           <t>PCIEA Reset</t>
         </is>
       </c>
-      <c r="L2" s="64" t="n"/>
-      <c r="M2" s="64" t="n"/>
-      <c r="N2" s="65" t="n"/>
-      <c r="O2" s="44" t="inlineStr">
+      <c r="L2" s="72" t="n"/>
+      <c r="M2" s="72" t="n"/>
+      <c r="N2" s="73" t="n"/>
+      <c r="O2" s="49" t="inlineStr">
         <is>
           <t>PCIEA SPEED CHANGE</t>
         </is>
       </c>
-      <c r="P2" s="64" t="n"/>
-      <c r="Q2" s="64" t="n"/>
-      <c r="R2" s="65" t="n"/>
-      <c r="S2" s="44" t="inlineStr">
+      <c r="P2" s="72" t="n"/>
+      <c r="Q2" s="72" t="n"/>
+      <c r="R2" s="73" t="n"/>
+      <c r="S2" s="49" t="inlineStr">
         <is>
           <t>PCIEB Reset</t>
         </is>
       </c>
-      <c r="T2" s="64" t="n"/>
-      <c r="U2" s="64" t="n"/>
-      <c r="V2" s="65" t="n"/>
-      <c r="W2" s="44" t="inlineStr">
+      <c r="T2" s="72" t="n"/>
+      <c r="U2" s="72" t="n"/>
+      <c r="V2" s="73" t="n"/>
+      <c r="W2" s="49" t="inlineStr">
         <is>
           <t>PCIEB SPEED CHANGE</t>
         </is>
       </c>
-      <c r="X2" s="64" t="n"/>
-      <c r="Y2" s="64" t="n"/>
-      <c r="Z2" s="65" t="n"/>
-      <c r="AA2" s="44" t="inlineStr">
+      <c r="X2" s="72" t="n"/>
+      <c r="Y2" s="72" t="n"/>
+      <c r="Z2" s="73" t="n"/>
+      <c r="AA2" s="49" t="inlineStr">
         <is>
           <t>PCIEA MCAP</t>
         </is>
       </c>
-      <c r="AB2" s="64" t="n"/>
-      <c r="AC2" s="64" t="n"/>
-      <c r="AD2" s="65" t="n"/>
-      <c r="AE2" s="44" t="inlineStr">
+      <c r="AB2" s="72" t="n"/>
+      <c r="AC2" s="72" t="n"/>
+      <c r="AD2" s="73" t="n"/>
+      <c r="AE2" s="49" t="inlineStr">
         <is>
           <t>PCIEA_Bridge</t>
         </is>
       </c>
-      <c r="AF2" s="65" t="n"/>
-      <c r="AG2" s="44" t="inlineStr">
+      <c r="AF2" s="73" t="n"/>
+      <c r="AG2" s="49" t="inlineStr">
         <is>
           <t>PCIEA_XDMA</t>
         </is>
       </c>
-      <c r="AH2" s="65" t="n"/>
-      <c r="AI2" s="44" t="inlineStr">
+      <c r="AH2" s="73" t="n"/>
+      <c r="AI2" s="49" t="inlineStr">
         <is>
           <t>PCIEB_BMD</t>
         </is>
       </c>
-      <c r="AJ2" s="64" t="n"/>
-      <c r="AK2" s="64" t="n"/>
-      <c r="AL2" s="65" t="n"/>
-      <c r="AM2" s="44" t="inlineStr">
+      <c r="AJ2" s="72" t="n"/>
+      <c r="AK2" s="72" t="n"/>
+      <c r="AL2" s="73" t="n"/>
+      <c r="AM2" s="49" t="inlineStr">
         <is>
           <t>PCIEA_EDR25G</t>
         </is>
       </c>
-      <c r="AN2" s="64" t="n"/>
-      <c r="AO2" s="64" t="n"/>
-      <c r="AP2" s="65" t="n"/>
-      <c r="AQ2" s="44" t="inlineStr">
+      <c r="AN2" s="72" t="n"/>
+      <c r="AO2" s="72" t="n"/>
+      <c r="AP2" s="73" t="n"/>
+      <c r="AQ2" s="49" t="inlineStr">
         <is>
           <t>PCIEA_EDR20G</t>
         </is>
       </c>
-      <c r="AR2" s="64" t="n"/>
-      <c r="AS2" s="64" t="n"/>
-      <c r="AT2" s="65" t="n"/>
-      <c r="AU2" s="44" t="n"/>
-      <c r="AV2" s="65" t="n"/>
-      <c r="AW2" s="44" t="n"/>
-      <c r="AX2" s="65" t="n"/>
+      <c r="AR2" s="72" t="n"/>
+      <c r="AS2" s="72" t="n"/>
+      <c r="AT2" s="73" t="n"/>
+      <c r="AU2" s="49" t="n"/>
+      <c r="AV2" s="73" t="n"/>
+      <c r="AW2" s="49" t="n"/>
+      <c r="AX2" s="73" t="n"/>
     </row>
     <row r="3">
-      <c r="E3" s="39" t="inlineStr">
+      <c r="E3" s="55" t="inlineStr">
         <is>
           <t>TILO - 0.854VCCINT</t>
         </is>
       </c>
-      <c r="F3" s="65" t="n"/>
-      <c r="G3" s="66" t="inlineStr">
+      <c r="F3" s="73" t="n"/>
+      <c r="G3" s="74" t="inlineStr">
         <is>
           <t>TILO - 0.775VCCINT</t>
         </is>
       </c>
-      <c r="H3" s="65" t="n"/>
-      <c r="I3" s="39" t="inlineStr">
+      <c r="H3" s="73" t="n"/>
+      <c r="I3" s="55" t="inlineStr">
         <is>
           <t>TILO - 0.676VCCINT</t>
         </is>
       </c>
-      <c r="J3" s="65" t="n"/>
-      <c r="K3" s="38" t="inlineStr">
+      <c r="J3" s="73" t="n"/>
+      <c r="K3" s="52" t="inlineStr">
         <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="L3" s="65" t="n"/>
-      <c r="M3" s="67" t="inlineStr">
+      <c r="L3" s="73" t="n"/>
+      <c r="M3" s="75" t="inlineStr">
         <is>
           <t>EP</t>
         </is>
       </c>
-      <c r="N3" s="65" t="n"/>
-      <c r="O3" s="38" t="inlineStr">
+      <c r="N3" s="73" t="n"/>
+      <c r="O3" s="52" t="inlineStr">
         <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="P3" s="65" t="n"/>
-      <c r="Q3" s="67" t="inlineStr">
+      <c r="P3" s="73" t="n"/>
+      <c r="Q3" s="75" t="inlineStr">
         <is>
           <t>EP</t>
         </is>
       </c>
-      <c r="R3" s="65" t="n"/>
-      <c r="S3" s="38" t="inlineStr">
+      <c r="R3" s="73" t="n"/>
+      <c r="S3" s="52" t="inlineStr">
         <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="T3" s="65" t="n"/>
-      <c r="U3" s="67" t="inlineStr">
+      <c r="T3" s="73" t="n"/>
+      <c r="U3" s="75" t="inlineStr">
         <is>
           <t>EP</t>
         </is>
       </c>
-      <c r="V3" s="65" t="n"/>
-      <c r="W3" s="38" t="inlineStr">
+      <c r="V3" s="73" t="n"/>
+      <c r="W3" s="52" t="inlineStr">
         <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="X3" s="65" t="n"/>
-      <c r="Y3" s="67" t="inlineStr">
+      <c r="X3" s="73" t="n"/>
+      <c r="Y3" s="75" t="inlineStr">
         <is>
           <t>EP</t>
         </is>
       </c>
-      <c r="Z3" s="65" t="n"/>
-      <c r="AA3" s="38" t="inlineStr">
+      <c r="Z3" s="73" t="n"/>
+      <c r="AA3" s="52" t="inlineStr">
         <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="AB3" s="65" t="n"/>
-      <c r="AC3" s="67" t="inlineStr">
+      <c r="AB3" s="73" t="n"/>
+      <c r="AC3" s="75" t="inlineStr">
         <is>
           <t>EP</t>
         </is>
       </c>
-      <c r="AD3" s="65" t="n"/>
-      <c r="AE3" s="38" t="inlineStr">
+      <c r="AD3" s="73" t="n"/>
+      <c r="AE3" s="52" t="inlineStr">
         <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="AF3" s="65" t="n"/>
-      <c r="AG3" s="67" t="inlineStr">
+      <c r="AF3" s="73" t="n"/>
+      <c r="AG3" s="75" t="inlineStr">
         <is>
           <t>EP</t>
         </is>
       </c>
-      <c r="AH3" s="65" t="n"/>
-      <c r="AI3" s="38" t="inlineStr">
+      <c r="AH3" s="73" t="n"/>
+      <c r="AI3" s="52" t="inlineStr">
         <is>
           <t>EP Gen3x16</t>
         </is>
       </c>
-      <c r="AJ3" s="65" t="n"/>
-      <c r="AK3" s="67" t="inlineStr">
+      <c r="AJ3" s="73" t="n"/>
+      <c r="AK3" s="75" t="inlineStr">
         <is>
           <t>EP Gen4x8</t>
         </is>
       </c>
-      <c r="AL3" s="65" t="n"/>
-      <c r="AM3" s="38" t="inlineStr">
+      <c r="AL3" s="73" t="n"/>
+      <c r="AM3" s="52" t="inlineStr">
         <is>
           <t>RP</t>
         </is>
       </c>
-      <c r="AN3" s="65" t="n"/>
-      <c r="AO3" s="67" t="inlineStr">
+      <c r="AN3" s="73" t="n"/>
+      <c r="AO3" s="75" t="inlineStr">
         <is>
           <t>EP</t>
         </is>
       </c>
-      <c r="AP3" s="65" t="n"/>
-      <c r="AQ3" s="38" t="inlineStr">
+      <c r="AP3" s="73" t="n"/>
+      <c r="AQ3" s="52" t="inlineStr">
         <is>
           <t>RP</t>
         </is>
       </c>
-      <c r="AR3" s="65" t="n"/>
-      <c r="AS3" s="67" t="inlineStr">
+      <c r="AR3" s="73" t="n"/>
+      <c r="AS3" s="75" t="inlineStr">
         <is>
           <t>EP</t>
         </is>
       </c>
-      <c r="AT3" s="65" t="n"/>
-      <c r="AU3" s="67" t="n"/>
-      <c r="AV3" s="65" t="n"/>
-      <c r="AW3" s="67" t="n"/>
-      <c r="AX3" s="65" t="n"/>
+      <c r="AT3" s="73" t="n"/>
+      <c r="AU3" s="75" t="n"/>
+      <c r="AV3" s="73" t="n"/>
+      <c r="AW3" s="75" t="n"/>
+      <c r="AX3" s="73" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n"/>
@@ -28292,7 +28414,7 @@
       <c r="AW13" s="9" t="n"/>
       <c r="AX13" s="9" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="14" s="49" thickBot="1">
+    <row customHeight="1" ht="15" r="14" s="37" thickBot="1">
       <c r="B14" s="6" t="n">
         <v>10</v>
       </c>
@@ -28403,7 +28525,7 @@
       <c r="AW14" s="9" t="n"/>
       <c r="AX14" s="9" t="n"/>
     </row>
-    <row customHeight="1" ht="15.6" r="15" s="49" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="15.6" r="15" s="37" thickBot="1" thickTop="1">
       <c r="B15" s="6" t="n">
         <v>11</v>
       </c>
@@ -28534,7 +28656,7 @@
       <c r="AW15" s="9" t="n"/>
       <c r="AX15" s="13" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="16" s="49" thickTop="1">
+    <row customHeight="1" ht="15" r="16" s="37" thickTop="1">
       <c r="B16" s="6" t="n">
         <v>12</v>
       </c>
@@ -30549,7 +30671,7 @@
       <c r="AW40" s="9" t="n"/>
       <c r="AX40" s="9" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="41" s="49" thickBot="1">
+    <row customHeight="1" ht="15" r="41" s="37" thickBot="1">
       <c r="E41" s="1" t="n"/>
       <c r="F41" s="1" t="n"/>
       <c r="G41" s="1" t="n"/>
@@ -30673,31 +30795,9 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="42" s="49" thickTop="1"/>
+    <row customHeight="1" ht="15" r="42" s="37" thickTop="1"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
     <mergeCell ref="AU3:AV3"/>
     <mergeCell ref="AW3:AX3"/>
     <mergeCell ref="AA2:AD2"/>
@@ -30711,6 +30811,28 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AU2:AV2"/>
     <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="AE2:AF2"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
@@ -30732,1745 +30854,1695 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:K99"/>
+  <dimension ref="B2:K123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B6" xSplit="1" ySplit="5"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1"/>
+      <selection activeCell="A6" pane="bottomLeft" sqref="A6"/>
+      <selection activeCell="E16" pane="bottomRight" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="49" width="26.77734375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="49" width="13.21875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="49" width="10.6640625"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="49" width="15.44140625"/>
-    <col customWidth="1" max="6" min="6" style="49" width="8.77734375"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="49" width="14.77734375"/>
-    <col customWidth="1" max="8" min="8" style="49" width="8.77734375"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="49" width="14.77734375"/>
-    <col customWidth="1" max="10" min="10" style="49" width="8.77734375"/>
+    <col customWidth="1" max="2" min="2" style="37" width="26.77734375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="37" width="13.21875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="37" width="10.6640625"/>
+    <col customWidth="1" max="10" min="5" style="37" width="12.77734375"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="25.8" r="2" s="49">
-      <c r="B2" s="52" t="inlineStr">
+    <row customHeight="1" ht="25.8" r="2" s="37">
+      <c r="B2" s="61" t="inlineStr">
         <is>
-          <t>Versal VC1902 ES2 Final Report</t>
+          <t>Versal VC1902 ES2 PCIE Final Report</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="54" t="inlineStr">
+      <c r="B4" s="76" t="inlineStr">
         <is>
           <t>Pattern Name</t>
         </is>
       </c>
-      <c r="C4" s="53" t="inlineStr">
+      <c r="C4" s="77" t="inlineStr">
         <is>
           <t>Temperature</t>
         </is>
       </c>
-      <c r="D4" s="53" t="inlineStr">
+      <c r="D4" s="77" t="inlineStr">
         <is>
           <t>Vmin Spec</t>
         </is>
       </c>
-      <c r="E4" s="55" t="inlineStr">
+      <c r="E4" s="70" t="inlineStr">
         <is>
           <t>Dash-1</t>
         </is>
       </c>
-      <c r="F4" s="65" t="n"/>
-      <c r="G4" s="50" t="inlineStr">
+      <c r="F4" s="73" t="n"/>
+      <c r="G4" s="71" t="inlineStr">
         <is>
           <t>Dash-2</t>
         </is>
       </c>
-      <c r="H4" s="65" t="n"/>
-      <c r="I4" s="55" t="inlineStr">
+      <c r="H4" s="73" t="n"/>
+      <c r="I4" s="70" t="inlineStr">
         <is>
           <t>Dash-3</t>
         </is>
       </c>
-      <c r="J4" s="65" t="n"/>
+      <c r="J4" s="73" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="68" t="n"/>
-      <c r="C5" s="68" t="n"/>
-      <c r="D5" s="68" t="n"/>
-      <c r="E5" s="56" t="inlineStr">
+      <c r="B5" s="78" t="n"/>
+      <c r="C5" s="78" t="n"/>
+      <c r="D5" s="78" t="n"/>
+      <c r="E5" s="70" t="inlineStr">
         <is>
-          <t>Voltage Diff (mv)</t>
+          <t>Margin (mv)</t>
         </is>
       </c>
-      <c r="F5" s="56" t="inlineStr">
+      <c r="F5" s="70" t="inlineStr">
         <is>
-          <t>Margin</t>
+          <t>Margin (%)</t>
         </is>
       </c>
-      <c r="G5" s="51" t="inlineStr">
+      <c r="G5" s="71" t="inlineStr">
         <is>
-          <t>Voltage Diff (mv)</t>
+          <t>Margin (mv)</t>
         </is>
       </c>
-      <c r="H5" s="51" t="inlineStr">
+      <c r="H5" s="71" t="inlineStr">
         <is>
-          <t>Margin</t>
+          <t>Margin  (%)</t>
         </is>
       </c>
-      <c r="I5" s="56" t="inlineStr">
+      <c r="I5" s="70" t="inlineStr">
         <is>
-          <t>Voltage Diff (mv)</t>
+          <t>Margin (mv)</t>
         </is>
       </c>
-      <c r="J5" s="56" t="inlineStr">
+      <c r="J5" s="70" t="inlineStr">
         <is>
-          <t>Margin</t>
+          <t>Margin (%)</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="59" t="inlineStr">
+      <c r="B6" s="45" t="inlineStr">
         <is>
           <t>PCIEA Reset RC</t>
         </is>
       </c>
-      <c r="C6" s="59" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D6" s="59" t="inlineStr">
+      <c r="C6" s="44" t="n">
+        <v>110</v>
+      </c>
+      <c r="D6" s="44" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E6" s="62" t="n">
+      <c r="E6" s="42" t="n">
         <v>2.805139066879736</v>
       </c>
-      <c r="F6" s="63" t="n">
+      <c r="F6" s="43" t="n">
         <v>0.004149614004259964</v>
       </c>
-      <c r="G6" s="62" t="n">
+      <c r="G6" s="42" t="n">
         <v>5.444943831116267</v>
       </c>
-      <c r="H6" s="63" t="n">
+      <c r="H6" s="43" t="n">
         <v>0.008054650637745957</v>
       </c>
-      <c r="I6" s="62" t="n"/>
-      <c r="J6" s="63" t="n"/>
+      <c r="I6" s="42" t="n"/>
+      <c r="J6" s="43" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="59" t="inlineStr">
-        <is>
-          <t>PCIEA Reset RC</t>
-        </is>
-      </c>
-      <c r="C7" s="59" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="D7" s="59" t="inlineStr">
+      <c r="B7" s="78" t="n"/>
+      <c r="C7" s="79" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D7" s="79" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E7" s="69" t="n">
+      <c r="E7" s="80" t="n">
         <v>-13.28808233433987</v>
       </c>
-      <c r="F7" s="70" t="n">
+      <c r="F7" s="81" t="n">
         <v>-0.01965692653008856</v>
       </c>
-      <c r="G7" s="69" t="n">
+      <c r="G7" s="80" t="n">
         <v>-0.1466572636549257</v>
       </c>
-      <c r="H7" s="70" t="n">
+      <c r="H7" s="81" t="n">
         <v>-0.0002169486148741504</v>
       </c>
-      <c r="I7" s="62" t="n"/>
-      <c r="J7" s="63" t="n"/>
+      <c r="I7" s="82" t="n"/>
+      <c r="J7" s="83" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="59" t="inlineStr">
+      <c r="B8" s="45" t="inlineStr">
         <is>
           <t>PCIEA Reset EP</t>
         </is>
       </c>
-      <c r="C8" s="59" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D8" s="59" t="inlineStr">
+      <c r="C8" s="44" t="n">
+        <v>110</v>
+      </c>
+      <c r="D8" s="44" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E8" s="69" t="n">
+      <c r="E8" s="84" t="n">
         <v>-0.8650995545205209</v>
       </c>
-      <c r="F8" s="70" t="n">
+      <c r="F8" s="85" t="n">
         <v>-0.001279733068817338</v>
       </c>
-      <c r="G8" s="62" t="n">
+      <c r="G8" s="42" t="n">
         <v>1.616403884382889</v>
       </c>
-      <c r="H8" s="63" t="n">
+      <c r="H8" s="43" t="n">
         <v>0.002391130006483563</v>
       </c>
-      <c r="I8" s="62" t="n"/>
-      <c r="J8" s="63" t="n"/>
+      <c r="I8" s="42" t="n"/>
+      <c r="J8" s="43" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="59" t="inlineStr">
-        <is>
-          <t>PCIEA Reset EP</t>
-        </is>
-      </c>
-      <c r="C9" s="59" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="D9" s="59" t="inlineStr">
+      <c r="B9" s="78" t="n"/>
+      <c r="C9" s="79" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D9" s="79" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E9" s="62" t="n">
+      <c r="E9" s="82" t="n">
         <v>6.817997329459979</v>
       </c>
-      <c r="F9" s="63" t="n">
+      <c r="F9" s="83" t="n">
         <v>0.01008579486606506</v>
       </c>
-      <c r="G9" s="62" t="n">
+      <c r="G9" s="82" t="n">
         <v>18.85055675106273</v>
       </c>
-      <c r="H9" s="63" t="n">
+      <c r="H9" s="83" t="n">
         <v>0.02788543898086203</v>
       </c>
-      <c r="I9" s="62" t="n"/>
-      <c r="J9" s="63" t="n"/>
+      <c r="I9" s="82" t="n"/>
+      <c r="J9" s="83" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="59" t="inlineStr">
+      <c r="B10" s="45" t="inlineStr">
         <is>
           <t>PCIEA SPEED CHANGE RC</t>
         </is>
       </c>
-      <c r="C10" s="59" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D10" s="59" t="inlineStr">
+      <c r="C10" s="44" t="n">
+        <v>110</v>
+      </c>
+      <c r="D10" s="44" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E10" s="62" t="n">
+      <c r="E10" s="42" t="n">
         <v>2.805139066879736</v>
       </c>
-      <c r="F10" s="63" t="n">
+      <c r="F10" s="43" t="n">
         <v>0.004149614004259964</v>
       </c>
-      <c r="G10" s="62" t="n">
+      <c r="G10" s="42" t="n">
         <v>5.444943831116267</v>
       </c>
-      <c r="H10" s="63" t="n">
+      <c r="H10" s="43" t="n">
         <v>0.008054650637745957</v>
       </c>
-      <c r="I10" s="62" t="n"/>
-      <c r="J10" s="63" t="n"/>
+      <c r="I10" s="42" t="n"/>
+      <c r="J10" s="43" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="59" t="inlineStr">
-        <is>
-          <t>PCIEA SPEED CHANGE RC</t>
-        </is>
-      </c>
-      <c r="C11" s="59" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="D11" s="59" t="inlineStr">
+      <c r="B11" s="78" t="n"/>
+      <c r="C11" s="79" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D11" s="79" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E11" s="69" t="n">
+      <c r="E11" s="80" t="n">
         <v>-13.28808233433987</v>
       </c>
-      <c r="F11" s="70" t="n">
+      <c r="F11" s="81" t="n">
         <v>-0.01965692653008856</v>
       </c>
-      <c r="G11" s="69" t="n">
+      <c r="G11" s="80" t="n">
         <v>-0.1466572636549257</v>
       </c>
-      <c r="H11" s="70" t="n">
+      <c r="H11" s="81" t="n">
         <v>-0.0002169486148741504</v>
       </c>
-      <c r="I11" s="62" t="n"/>
-      <c r="J11" s="63" t="n"/>
+      <c r="I11" s="82" t="n"/>
+      <c r="J11" s="83" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="59" t="inlineStr">
+      <c r="B12" s="45" t="inlineStr">
         <is>
           <t>PCIEA SPEED CHANGE EP</t>
         </is>
       </c>
-      <c r="C12" s="59" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D12" s="59" t="inlineStr">
+      <c r="C12" s="44" t="n">
+        <v>110</v>
+      </c>
+      <c r="D12" s="44" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E12" s="69" t="n">
+      <c r="E12" s="84" t="n">
         <v>-0.8650995545205209</v>
       </c>
-      <c r="F12" s="70" t="n">
+      <c r="F12" s="85" t="n">
         <v>-0.001279733068817338</v>
       </c>
-      <c r="G12" s="62" t="n">
+      <c r="G12" s="42" t="n">
         <v>1.616403884382889</v>
       </c>
-      <c r="H12" s="63" t="n">
+      <c r="H12" s="43" t="n">
         <v>0.002391130006483563</v>
       </c>
-      <c r="I12" s="62" t="n"/>
-      <c r="J12" s="63" t="n"/>
+      <c r="I12" s="42" t="n"/>
+      <c r="J12" s="43" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="59" t="inlineStr">
-        <is>
-          <t>PCIEA SPEED CHANGE EP</t>
-        </is>
-      </c>
-      <c r="C13" s="59" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="D13" s="59" t="inlineStr">
+      <c r="B13" s="78" t="n"/>
+      <c r="C13" s="79" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D13" s="79" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E13" s="62" t="n">
+      <c r="E13" s="82" t="n">
         <v>6.817997329459979</v>
       </c>
-      <c r="F13" s="63" t="n">
+      <c r="F13" s="83" t="n">
         <v>0.01008579486606506</v>
       </c>
-      <c r="G13" s="62" t="n">
+      <c r="G13" s="82" t="n">
         <v>18.85055675106273</v>
       </c>
-      <c r="H13" s="63" t="n">
+      <c r="H13" s="83" t="n">
         <v>0.02788543898086203</v>
       </c>
-      <c r="I13" s="62" t="n"/>
-      <c r="J13" s="63" t="n"/>
+      <c r="I13" s="82" t="n"/>
+      <c r="J13" s="83" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="59" t="inlineStr">
+      <c r="B14" s="45" t="inlineStr">
         <is>
           <t>PCIEB Reset RC</t>
         </is>
       </c>
-      <c r="C14" s="59" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D14" s="59" t="inlineStr">
+      <c r="C14" s="44" t="n">
+        <v>110</v>
+      </c>
+      <c r="D14" s="44" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E14" s="69" t="n">
+      <c r="E14" s="84" t="n">
         <v>-62.20125982797531</v>
       </c>
-      <c r="F14" s="70" t="n">
+      <c r="F14" s="85" t="n">
         <v>-0.09201369797037767</v>
       </c>
-      <c r="G14" s="69" t="n">
+      <c r="G14" s="84" t="n">
         <v>-43.86867065502009</v>
       </c>
-      <c r="H14" s="70" t="n">
+      <c r="H14" s="85" t="n">
         <v>-0.06489448321748534</v>
       </c>
-      <c r="I14" s="62" t="n"/>
-      <c r="J14" s="63" t="n"/>
+      <c r="I14" s="42" t="n"/>
+      <c r="J14" s="43" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="59" t="inlineStr">
-        <is>
-          <t>PCIEB Reset RC</t>
-        </is>
-      </c>
-      <c r="C15" s="59" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="D15" s="59" t="inlineStr">
+      <c r="B15" s="78" t="n"/>
+      <c r="C15" s="79" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D15" s="79" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E15" s="69" t="n">
+      <c r="E15" s="80" t="n">
         <v>-35.50269857761889</v>
       </c>
-      <c r="F15" s="70" t="n">
+      <c r="F15" s="81" t="n">
         <v>-0.05251878487813446</v>
       </c>
-      <c r="G15" s="69" t="n">
+      <c r="G15" s="80" t="n">
         <v>-18.9978858841604</v>
       </c>
-      <c r="H15" s="70" t="n">
+      <c r="H15" s="81" t="n">
         <v>-0.02810338148544438</v>
       </c>
-      <c r="I15" s="62" t="n"/>
-      <c r="J15" s="63" t="n"/>
+      <c r="I15" s="82" t="n"/>
+      <c r="J15" s="83" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="59" t="inlineStr">
+      <c r="B16" s="45" t="inlineStr">
         <is>
           <t>PCIEB Reset EP</t>
         </is>
       </c>
-      <c r="C16" s="59" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D16" s="59" t="inlineStr">
+      <c r="C16" s="44" t="n">
+        <v>110</v>
+      </c>
+      <c r="D16" s="44" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E16" s="62" t="n">
+      <c r="E16" s="42" t="n">
         <v>54.55460304444338</v>
       </c>
-      <c r="F16" s="63" t="n">
+      <c r="F16" s="43" t="n">
         <v>0.08070207550953161</v>
       </c>
-      <c r="G16" s="62" t="n">
+      <c r="G16" s="42" t="n">
         <v>69.22775620279032</v>
       </c>
-      <c r="H16" s="63" t="n">
+      <c r="H16" s="43" t="n">
         <v>0.1024079233769087</v>
       </c>
-      <c r="I16" s="62" t="n"/>
-      <c r="J16" s="63" t="n"/>
+      <c r="I16" s="42" t="n"/>
+      <c r="J16" s="43" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="59" t="inlineStr">
-        <is>
-          <t>PCIEB Reset EP</t>
-        </is>
-      </c>
-      <c r="C17" s="59" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="D17" s="59" t="inlineStr">
+      <c r="B17" s="78" t="n"/>
+      <c r="C17" s="79" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D17" s="79" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E17" s="69" t="n">
+      <c r="E17" s="80" t="n">
         <v>-9.882437317600745</v>
       </c>
-      <c r="F17" s="70" t="n">
+      <c r="F17" s="81" t="n">
         <v>-0.014618990114794</v>
       </c>
-      <c r="G17" s="62" t="n">
+      <c r="G17" s="82" t="n">
         <v>4.331748329893026</v>
       </c>
-      <c r="H17" s="63" t="n">
+      <c r="H17" s="83" t="n">
         <v>0.006407911730610985</v>
       </c>
-      <c r="I17" s="62" t="n"/>
-      <c r="J17" s="63" t="n"/>
+      <c r="I17" s="82" t="n"/>
+      <c r="J17" s="83" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="59" t="inlineStr">
+      <c r="B18" s="45" t="inlineStr">
         <is>
           <t>PCIEB SPEED CHANGE RC</t>
         </is>
       </c>
-      <c r="C18" s="59" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D18" s="59" t="inlineStr">
+      <c r="C18" s="44" t="n">
+        <v>110</v>
+      </c>
+      <c r="D18" s="44" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E18" s="69" t="n">
+      <c r="E18" s="84" t="n">
         <v>-62.20125982797531</v>
       </c>
-      <c r="F18" s="70" t="n">
+      <c r="F18" s="85" t="n">
         <v>-0.09201369797037767</v>
       </c>
-      <c r="G18" s="69" t="n">
+      <c r="G18" s="84" t="n">
         <v>-43.86867065502009</v>
       </c>
-      <c r="H18" s="70" t="n">
+      <c r="H18" s="85" t="n">
         <v>-0.06489448321748534</v>
       </c>
-      <c r="I18" s="62" t="n"/>
-      <c r="J18" s="63" t="n"/>
+      <c r="I18" s="42" t="n"/>
+      <c r="J18" s="43" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="59" t="inlineStr">
-        <is>
-          <t>PCIEB SPEED CHANGE RC</t>
-        </is>
-      </c>
-      <c r="C19" s="59" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="D19" s="59" t="inlineStr">
+      <c r="B19" s="78" t="n"/>
+      <c r="C19" s="79" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D19" s="79" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E19" s="69" t="n">
+      <c r="E19" s="80" t="n">
         <v>-118.9649449860479</v>
       </c>
-      <c r="F19" s="70" t="n">
+      <c r="F19" s="81" t="n">
         <v>-0.175983646429065</v>
       </c>
-      <c r="G19" s="69" t="n">
+      <c r="G19" s="80" t="n">
         <v>-97.6002259388391</v>
       </c>
-      <c r="H19" s="70" t="n">
+      <c r="H19" s="81" t="n">
         <v>-0.144379032453904</v>
       </c>
-      <c r="I19" s="62" t="n"/>
-      <c r="J19" s="63" t="n"/>
+      <c r="I19" s="82" t="n"/>
+      <c r="J19" s="83" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="59" t="inlineStr">
+      <c r="B20" s="45" t="inlineStr">
         <is>
           <t>PCIEB SPEED CHANGE EP</t>
         </is>
       </c>
-      <c r="C20" s="59" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D20" s="59" t="inlineStr">
+      <c r="C20" s="44" t="n">
+        <v>110</v>
+      </c>
+      <c r="D20" s="44" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E20" s="62" t="n">
+      <c r="E20" s="42" t="n">
         <v>45.98159283384218</v>
       </c>
-      <c r="F20" s="63" t="n">
+      <c r="F20" s="43" t="n">
         <v>0.06802010774237008</v>
       </c>
-      <c r="G20" s="62" t="n">
+      <c r="G20" s="42" t="n">
         <v>60.8371859081569</v>
       </c>
-      <c r="H20" s="63" t="n">
+      <c r="H20" s="43" t="n">
         <v>0.08999583714224393</v>
       </c>
-      <c r="I20" s="62" t="n"/>
-      <c r="J20" s="63" t="n"/>
+      <c r="I20" s="42" t="n"/>
+      <c r="J20" s="43" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="59" t="inlineStr">
-        <is>
-          <t>PCIEB SPEED CHANGE EP</t>
-        </is>
-      </c>
-      <c r="C21" s="59" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="D21" s="59" t="inlineStr">
+      <c r="B21" s="78" t="n"/>
+      <c r="C21" s="79" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D21" s="79" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E21" s="69" t="n">
+      <c r="E21" s="80" t="n">
         <v>-15.21196718433182</v>
       </c>
-      <c r="F21" s="70" t="n">
+      <c r="F21" s="81" t="n">
         <v>-0.02250291003599382</v>
       </c>
-      <c r="G21" s="69" t="n">
+      <c r="G21" s="80" t="n">
         <v>-0.9062421031647006</v>
       </c>
-      <c r="H21" s="70" t="n">
+      <c r="H21" s="81" t="n">
         <v>-0.001340594827166717</v>
       </c>
-      <c r="I21" s="62" t="n"/>
-      <c r="J21" s="63" t="n"/>
+      <c r="I21" s="82" t="n"/>
+      <c r="J21" s="83" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="59" t="inlineStr">
+      <c r="B22" s="45" t="inlineStr">
         <is>
           <t>PCIEA MCAP RC</t>
         </is>
       </c>
-      <c r="C22" s="59" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D22" s="59" t="inlineStr">
+      <c r="C22" s="44" t="n">
+        <v>110</v>
+      </c>
+      <c r="D22" s="44" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E22" s="69" t="n">
+      <c r="E22" s="84" t="n">
         <v>-6.0289033301969</v>
       </c>
-      <c r="F22" s="70" t="n">
+      <c r="F22" s="85" t="n">
         <v>-0.00891849605058713</v>
       </c>
-      <c r="G22" s="69" t="n">
+      <c r="G22" s="84" t="n">
         <v>-3.060062741891523</v>
       </c>
-      <c r="H22" s="70" t="n">
+      <c r="H22" s="85" t="n">
         <v>-0.004526720032383909</v>
       </c>
-      <c r="I22" s="62" t="n"/>
-      <c r="J22" s="63" t="n"/>
+      <c r="I22" s="42" t="n"/>
+      <c r="J22" s="43" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="59" t="inlineStr">
-        <is>
-          <t>PCIEA MCAP RC</t>
-        </is>
-      </c>
-      <c r="C23" s="59" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="D23" s="59" t="inlineStr">
+      <c r="B23" s="78" t="n"/>
+      <c r="C23" s="79" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D23" s="79" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E23" s="62" t="n">
+      <c r="E23" s="82" t="n">
         <v>4.403009718587203</v>
       </c>
-      <c r="F23" s="63" t="n">
+      <c r="F23" s="83" t="n">
         <v>0.006513327986075744</v>
       </c>
-      <c r="G23" s="62" t="n">
+      <c r="G23" s="82" t="n">
         <v>15.33809700888078</v>
       </c>
-      <c r="H23" s="63" t="n">
+      <c r="H23" s="83" t="n">
         <v>0.02268949261668754</v>
       </c>
-      <c r="I23" s="62" t="n"/>
-      <c r="J23" s="63" t="n"/>
+      <c r="I23" s="82" t="n"/>
+      <c r="J23" s="83" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="59" t="inlineStr">
+      <c r="B24" s="45" t="inlineStr">
         <is>
           <t>PCIEA_Bridge RC</t>
         </is>
       </c>
-      <c r="C24" s="59" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D24" s="59" t="inlineStr">
+      <c r="C24" s="44" t="n">
+        <v>110</v>
+      </c>
+      <c r="D24" s="44" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="E24" s="62" t="n"/>
-      <c r="F24" s="63" t="n"/>
-      <c r="G24" s="62" t="n"/>
-      <c r="H24" s="63" t="n"/>
-      <c r="I24" s="62" t="n">
+      <c r="E24" s="42" t="n"/>
+      <c r="F24" s="43" t="n"/>
+      <c r="G24" s="42" t="n"/>
+      <c r="H24" s="43" t="n"/>
+      <c r="I24" s="42" t="n">
         <v>127.2134348899894</v>
       </c>
-      <c r="J24" s="63" t="n">
+      <c r="J24" s="43" t="n">
         <v>0.1489618675526808</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="59" t="inlineStr">
-        <is>
-          <t>PCIEA_Bridge RC</t>
-        </is>
-      </c>
-      <c r="C25" s="59" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="D25" s="59" t="inlineStr">
+      <c r="B25" s="78" t="n"/>
+      <c r="C25" s="79" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D25" s="79" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="E25" s="62" t="n"/>
-      <c r="F25" s="63" t="n"/>
-      <c r="G25" s="62" t="n"/>
-      <c r="H25" s="63" t="n"/>
-      <c r="I25" s="62" t="n">
+      <c r="E25" s="82" t="n"/>
+      <c r="F25" s="83" t="n"/>
+      <c r="G25" s="82" t="n"/>
+      <c r="H25" s="83" t="n"/>
+      <c r="I25" s="82" t="n">
         <v>24.97680174665928</v>
       </c>
-      <c r="J25" s="63" t="n">
+      <c r="J25" s="83" t="n">
         <v>0.02924684045276263</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="59" t="inlineStr">
+      <c r="B26" s="45" t="inlineStr">
         <is>
           <t>PCIEA_Bridge EP</t>
         </is>
       </c>
-      <c r="C26" s="59" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D26" s="59" t="inlineStr">
+      <c r="C26" s="44" t="n">
+        <v>110</v>
+      </c>
+      <c r="D26" s="44" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="E26" s="62" t="n"/>
-      <c r="F26" s="63" t="n"/>
-      <c r="G26" s="62" t="n"/>
-      <c r="H26" s="63" t="n"/>
-      <c r="I26" s="62" t="n">
+      <c r="E26" s="42" t="n"/>
+      <c r="F26" s="43" t="n"/>
+      <c r="G26" s="42" t="n"/>
+      <c r="H26" s="43" t="n"/>
+      <c r="I26" s="42" t="n">
         <v>120.3743107560622</v>
       </c>
-      <c r="J26" s="63" t="n">
+      <c r="J26" s="43" t="n">
         <v>0.1409535254754827</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="59" t="inlineStr">
-        <is>
-          <t>PCIEA_Bridge EP</t>
-        </is>
-      </c>
-      <c r="C27" s="59" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="D27" s="59" t="inlineStr">
+      <c r="B27" s="78" t="n"/>
+      <c r="C27" s="79" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D27" s="79" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="E27" s="62" t="n"/>
-      <c r="F27" s="63" t="n"/>
-      <c r="G27" s="62" t="n"/>
-      <c r="H27" s="63" t="n"/>
-      <c r="I27" s="62" t="n">
+      <c r="E27" s="82" t="n"/>
+      <c r="F27" s="83" t="n"/>
+      <c r="G27" s="82" t="n"/>
+      <c r="H27" s="83" t="n"/>
+      <c r="I27" s="82" t="n">
         <v>14.81803795764414</v>
       </c>
-      <c r="J27" s="63" t="n">
+      <c r="J27" s="83" t="n">
         <v>0.01735133250309618</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="59" t="inlineStr">
+      <c r="B28" s="45" t="inlineStr">
         <is>
           <t>PCIEA_XDMA EP Gen3x16</t>
         </is>
       </c>
-      <c r="C28" s="59" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D28" s="59" t="inlineStr">
+      <c r="C28" s="44" t="n">
+        <v>110</v>
+      </c>
+      <c r="D28" s="44" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="E28" s="62" t="n"/>
-      <c r="F28" s="63" t="n"/>
-      <c r="G28" s="62" t="n"/>
-      <c r="H28" s="63" t="n"/>
-      <c r="I28" s="62" t="n">
+      <c r="E28" s="42" t="n"/>
+      <c r="F28" s="43" t="n"/>
+      <c r="G28" s="42" t="n"/>
+      <c r="H28" s="43" t="n"/>
+      <c r="I28" s="42" t="n">
         <v>234.5861377594333</v>
       </c>
-      <c r="J28" s="63" t="n">
+      <c r="J28" s="43" t="n">
         <v>0.2746910278213504</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="59" t="inlineStr">
-        <is>
-          <t>PCIEA_XDMA EP Gen3x16</t>
-        </is>
-      </c>
-      <c r="C29" s="59" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="D29" s="59" t="inlineStr">
+      <c r="B29" s="78" t="n"/>
+      <c r="C29" s="79" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D29" s="79" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="E29" s="62" t="n"/>
-      <c r="F29" s="63" t="n"/>
-      <c r="G29" s="62" t="n"/>
-      <c r="H29" s="63" t="n"/>
-      <c r="I29" s="62" t="n">
+      <c r="E29" s="82" t="n"/>
+      <c r="F29" s="83" t="n"/>
+      <c r="G29" s="82" t="n"/>
+      <c r="H29" s="83" t="n"/>
+      <c r="I29" s="82" t="n">
         <v>187.5506455627229</v>
       </c>
-      <c r="J29" s="63" t="n">
+      <c r="J29" s="83" t="n">
         <v>0.2196143390664203</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="59" t="inlineStr">
+      <c r="B30" s="45" t="inlineStr">
         <is>
           <t>PCIEA_XDMA EP Gen4x8</t>
         </is>
       </c>
-      <c r="C30" s="59" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D30" s="59" t="inlineStr">
+      <c r="C30" s="44" t="n">
+        <v>110</v>
+      </c>
+      <c r="D30" s="44" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="E30" s="62" t="n"/>
-      <c r="F30" s="63" t="n"/>
-      <c r="G30" s="62" t="n"/>
-      <c r="H30" s="63" t="n"/>
-      <c r="I30" s="62" t="n">
+      <c r="E30" s="42" t="n"/>
+      <c r="F30" s="43" t="n"/>
+      <c r="G30" s="42" t="n"/>
+      <c r="H30" s="43" t="n"/>
+      <c r="I30" s="42" t="n">
         <v>232.4869178327621</v>
       </c>
-      <c r="J30" s="63" t="n">
+      <c r="J30" s="43" t="n">
         <v>0.2722329248627191</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="59" t="inlineStr">
-        <is>
-          <t>PCIEA_XDMA EP Gen4x8</t>
-        </is>
-      </c>
-      <c r="C31" s="59" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="D31" s="59" t="inlineStr">
+      <c r="B31" s="78" t="n"/>
+      <c r="C31" s="79" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D31" s="79" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="E31" s="62" t="n"/>
-      <c r="F31" s="63" t="n"/>
-      <c r="G31" s="62" t="n"/>
-      <c r="H31" s="63" t="n"/>
-      <c r="I31" s="62" t="n">
+      <c r="E31" s="82" t="n"/>
+      <c r="F31" s="83" t="n"/>
+      <c r="G31" s="82" t="n"/>
+      <c r="H31" s="83" t="n"/>
+      <c r="I31" s="82" t="n">
         <v>175.9263981730731</v>
       </c>
-      <c r="J31" s="63" t="n">
+      <c r="J31" s="83" t="n">
         <v>0.206002808165191</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="59" t="inlineStr">
+      <c r="B32" s="45" t="inlineStr">
         <is>
           <t>PCIEB_BMD RP</t>
         </is>
       </c>
-      <c r="C32" s="59" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D32" s="59" t="inlineStr">
+      <c r="C32" s="44" t="n">
+        <v>110</v>
+      </c>
+      <c r="D32" s="44" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E32" s="69" t="n">
+      <c r="E32" s="84" t="n">
         <v>-124.2271001223475</v>
       </c>
-      <c r="F32" s="70" t="n">
+      <c r="F32" s="85" t="n">
         <v>-0.1837678995892714</v>
       </c>
-      <c r="G32" s="69" t="n">
+      <c r="G32" s="84" t="n">
         <v>-106.4677665007687</v>
       </c>
-      <c r="H32" s="70" t="n">
+      <c r="H32" s="85" t="n">
         <v>-0.1574966960070543</v>
       </c>
-      <c r="I32" s="62" t="n"/>
-      <c r="J32" s="63" t="n"/>
+      <c r="I32" s="42" t="n"/>
+      <c r="J32" s="43" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="59" t="inlineStr">
-        <is>
-          <t>PCIEB_BMD RP</t>
-        </is>
-      </c>
-      <c r="C33" s="59" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="D33" s="59" t="inlineStr">
+      <c r="B33" s="78" t="n"/>
+      <c r="C33" s="79" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D33" s="79" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E33" s="69" t="n">
+      <c r="E33" s="80" t="n">
         <v>-194.1500766938916</v>
       </c>
-      <c r="F33" s="70" t="n">
+      <c r="F33" s="81" t="n">
         <v>-0.2872042554643367</v>
       </c>
-      <c r="G33" s="69" t="n">
+      <c r="G33" s="80" t="n">
         <v>-183.6180900585213</v>
       </c>
-      <c r="H33" s="70" t="n">
+      <c r="H33" s="81" t="n">
         <v>-0.2716243935776941</v>
       </c>
-      <c r="I33" s="62" t="n"/>
-      <c r="J33" s="63" t="n"/>
+      <c r="I33" s="82" t="n"/>
+      <c r="J33" s="83" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="59" t="inlineStr">
+      <c r="B34" s="45" t="inlineStr">
         <is>
           <t>PCIEB_BMD EP</t>
         </is>
       </c>
-      <c r="C34" s="59" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D34" s="59" t="inlineStr">
+      <c r="C34" s="44" t="n">
+        <v>110</v>
+      </c>
+      <c r="D34" s="44" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E34" s="69" t="n">
+      <c r="E34" s="84" t="n">
         <v>-97.71651263847947</v>
       </c>
-      <c r="F34" s="70" t="n">
+      <c r="F34" s="85" t="n">
         <v>-0.1445510541989341</v>
       </c>
-      <c r="G34" s="69" t="n">
+      <c r="G34" s="84" t="n">
         <v>-81.91957253442183</v>
       </c>
-      <c r="H34" s="70" t="n">
+      <c r="H34" s="85" t="n">
         <v>-0.1211827996071329</v>
       </c>
-      <c r="I34" s="62" t="n"/>
-      <c r="J34" s="63" t="n"/>
+      <c r="I34" s="42" t="n"/>
+      <c r="J34" s="43" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" s="59" t="inlineStr">
-        <is>
-          <t>PCIEB_BMD EP</t>
-        </is>
-      </c>
-      <c r="C35" s="59" t="inlineStr">
-        <is>
-          <t>-40</t>
-        </is>
-      </c>
-      <c r="D35" s="59" t="inlineStr">
+      <c r="B35" s="78" t="n"/>
+      <c r="C35" s="79" t="n">
+        <v>-40</v>
+      </c>
+      <c r="D35" s="79" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E35" s="69" t="n">
+      <c r="E35" s="80" t="n">
         <v>-173.4097266096892</v>
       </c>
-      <c r="F35" s="70" t="n">
+      <c r="F35" s="81" t="n">
         <v>-0.2565232642155166</v>
       </c>
-      <c r="G35" s="69" t="n">
+      <c r="G35" s="80" t="n">
         <v>-161.5442516408498</v>
       </c>
-      <c r="H35" s="70" t="n">
+      <c r="H35" s="81" t="n">
         <v>-0.2389707864509613</v>
       </c>
-      <c r="I35" s="62" t="n"/>
-      <c r="J35" s="63" t="n"/>
+      <c r="I35" s="82" t="n"/>
+      <c r="J35" s="83" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="59" t="n"/>
-      <c r="C36" s="59" t="n"/>
-      <c r="D36" s="59" t="n"/>
-      <c r="E36" s="62" t="n"/>
-      <c r="F36" s="63" t="n"/>
-      <c r="G36" s="62" t="n"/>
-      <c r="H36" s="63" t="n"/>
-      <c r="I36" s="62" t="n"/>
-      <c r="J36" s="63" t="n"/>
+      <c r="B36" s="45" t="n"/>
+      <c r="C36" s="44" t="n"/>
+      <c r="D36" s="44" t="n"/>
+      <c r="E36" s="42" t="n"/>
+      <c r="F36" s="43" t="n"/>
+      <c r="G36" s="42" t="n"/>
+      <c r="H36" s="43" t="n"/>
+      <c r="I36" s="42" t="n"/>
+      <c r="J36" s="43" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="59" t="n"/>
-      <c r="C37" s="59" t="n"/>
-      <c r="D37" s="59" t="n"/>
-      <c r="E37" s="62" t="n"/>
-      <c r="F37" s="63" t="n"/>
-      <c r="G37" s="62" t="n"/>
-      <c r="H37" s="63" t="n"/>
-      <c r="I37" s="62" t="n"/>
-      <c r="J37" s="63" t="n"/>
+      <c r="B37" s="45" t="n"/>
+      <c r="C37" s="44" t="n"/>
+      <c r="D37" s="44" t="n"/>
+      <c r="E37" s="42" t="n"/>
+      <c r="F37" s="43" t="n"/>
+      <c r="G37" s="42" t="n"/>
+      <c r="H37" s="43" t="n"/>
+      <c r="I37" s="42" t="n"/>
+      <c r="J37" s="43" t="n"/>
     </row>
     <row r="38">
-      <c r="B38" s="59" t="n"/>
-      <c r="C38" s="59" t="n"/>
-      <c r="D38" s="59" t="n"/>
-      <c r="E38" s="62" t="n"/>
-      <c r="F38" s="63" t="n"/>
-      <c r="G38" s="62" t="n"/>
-      <c r="H38" s="63" t="n"/>
-      <c r="I38" s="62" t="n"/>
-      <c r="J38" s="63" t="n"/>
+      <c r="B38" s="45" t="n"/>
+      <c r="C38" s="44" t="n"/>
+      <c r="D38" s="44" t="n"/>
+      <c r="E38" s="42" t="n"/>
+      <c r="F38" s="43" t="n"/>
+      <c r="G38" s="42" t="n"/>
+      <c r="H38" s="43" t="n"/>
+      <c r="I38" s="42" t="n"/>
+      <c r="J38" s="43" t="n"/>
     </row>
     <row r="39">
-      <c r="B39" s="59" t="n"/>
-      <c r="C39" s="59" t="n"/>
-      <c r="D39" s="59" t="n"/>
-      <c r="E39" s="62" t="n"/>
-      <c r="F39" s="63" t="n"/>
-      <c r="G39" s="62" t="n"/>
-      <c r="H39" s="63" t="n"/>
-      <c r="I39" s="62" t="n"/>
-      <c r="J39" s="63" t="n"/>
+      <c r="B39" s="45" t="n"/>
+      <c r="C39" s="44" t="n"/>
+      <c r="D39" s="44" t="n"/>
+      <c r="E39" s="42" t="n"/>
+      <c r="F39" s="43" t="n"/>
+      <c r="G39" s="42" t="n"/>
+      <c r="H39" s="43" t="n"/>
+      <c r="I39" s="42" t="n"/>
+      <c r="J39" s="43" t="n"/>
     </row>
     <row r="40">
-      <c r="B40" s="59" t="n"/>
-      <c r="C40" s="59" t="n"/>
-      <c r="D40" s="59" t="n"/>
-      <c r="E40" s="62" t="n"/>
-      <c r="F40" s="63" t="n"/>
-      <c r="G40" s="62" t="n"/>
-      <c r="H40" s="63" t="n"/>
-      <c r="I40" s="62" t="n"/>
-      <c r="J40" s="63" t="n"/>
+      <c r="B40" s="45" t="n"/>
+      <c r="C40" s="44" t="n"/>
+      <c r="D40" s="44" t="n"/>
+      <c r="E40" s="42" t="n"/>
+      <c r="F40" s="43" t="n"/>
+      <c r="G40" s="42" t="n"/>
+      <c r="H40" s="43" t="n"/>
+      <c r="I40" s="42" t="n"/>
+      <c r="J40" s="43" t="n"/>
     </row>
     <row r="41">
-      <c r="B41" s="59" t="n"/>
-      <c r="C41" s="59" t="n"/>
-      <c r="D41" s="59" t="n"/>
-      <c r="E41" s="62" t="n"/>
-      <c r="F41" s="63" t="n"/>
-      <c r="G41" s="62" t="n"/>
-      <c r="H41" s="63" t="n"/>
-      <c r="I41" s="62" t="n"/>
-      <c r="J41" s="63" t="n"/>
+      <c r="B41" s="45" t="n"/>
+      <c r="C41" s="44" t="n"/>
+      <c r="D41" s="44" t="n"/>
+      <c r="E41" s="42" t="n"/>
+      <c r="F41" s="43" t="n"/>
+      <c r="G41" s="42" t="n"/>
+      <c r="H41" s="43" t="n"/>
+      <c r="I41" s="42" t="n"/>
+      <c r="J41" s="43" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="59" t="n"/>
-      <c r="C42" s="59" t="n"/>
-      <c r="D42" s="59" t="n"/>
-      <c r="E42" s="62" t="n"/>
-      <c r="F42" s="63" t="n"/>
-      <c r="G42" s="62" t="n"/>
-      <c r="H42" s="63" t="n"/>
-      <c r="I42" s="62" t="n"/>
-      <c r="J42" s="63" t="n"/>
+      <c r="B42" s="45" t="n"/>
+      <c r="C42" s="44" t="n"/>
+      <c r="D42" s="44" t="n"/>
+      <c r="E42" s="42" t="n"/>
+      <c r="F42" s="43" t="n"/>
+      <c r="G42" s="42" t="n"/>
+      <c r="H42" s="43" t="n"/>
+      <c r="I42" s="42" t="n"/>
+      <c r="J42" s="43" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="59" t="n"/>
-      <c r="C43" s="59" t="n"/>
-      <c r="D43" s="59" t="n"/>
-      <c r="E43" s="62" t="n"/>
-      <c r="F43" s="63" t="n"/>
-      <c r="G43" s="62" t="n"/>
-      <c r="H43" s="63" t="n"/>
-      <c r="I43" s="62" t="n"/>
-      <c r="J43" s="63" t="n"/>
+      <c r="B43" s="45" t="n"/>
+      <c r="C43" s="44" t="n"/>
+      <c r="D43" s="44" t="n"/>
+      <c r="E43" s="42" t="n"/>
+      <c r="F43" s="43" t="n"/>
+      <c r="G43" s="42" t="n"/>
+      <c r="H43" s="43" t="n"/>
+      <c r="I43" s="42" t="n"/>
+      <c r="J43" s="43" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="59" t="n"/>
-      <c r="C44" s="59" t="n"/>
-      <c r="D44" s="59" t="n"/>
-      <c r="E44" s="62" t="n"/>
-      <c r="F44" s="63" t="n"/>
-      <c r="G44" s="62" t="n"/>
-      <c r="H44" s="63" t="n"/>
-      <c r="I44" s="62" t="n"/>
-      <c r="J44" s="63" t="n"/>
+      <c r="B44" s="45" t="n"/>
+      <c r="C44" s="44" t="n"/>
+      <c r="D44" s="44" t="n"/>
+      <c r="E44" s="42" t="n"/>
+      <c r="F44" s="43" t="n"/>
+      <c r="G44" s="42" t="n"/>
+      <c r="H44" s="43" t="n"/>
+      <c r="I44" s="42" t="n"/>
+      <c r="J44" s="43" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="59" t="n"/>
-      <c r="C45" s="59" t="n"/>
-      <c r="D45" s="59" t="n"/>
-      <c r="E45" s="62" t="n"/>
-      <c r="F45" s="63" t="n"/>
-      <c r="G45" s="62" t="n"/>
-      <c r="H45" s="63" t="n"/>
-      <c r="I45" s="62" t="n"/>
-      <c r="J45" s="63" t="n"/>
+      <c r="B45" s="45" t="n"/>
+      <c r="C45" s="44" t="n"/>
+      <c r="D45" s="44" t="n"/>
+      <c r="E45" s="42" t="n"/>
+      <c r="F45" s="43" t="n"/>
+      <c r="G45" s="42" t="n"/>
+      <c r="H45" s="43" t="n"/>
+      <c r="I45" s="42" t="n"/>
+      <c r="J45" s="43" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="59" t="n"/>
-      <c r="C46" s="59" t="n"/>
-      <c r="D46" s="59" t="n"/>
-      <c r="E46" s="62" t="n"/>
-      <c r="F46" s="63" t="n"/>
-      <c r="G46" s="62" t="n"/>
-      <c r="H46" s="63" t="n"/>
-      <c r="I46" s="62" t="n"/>
-      <c r="J46" s="63" t="n"/>
+      <c r="B46" s="45" t="n"/>
+      <c r="C46" s="44" t="n"/>
+      <c r="D46" s="44" t="n"/>
+      <c r="E46" s="42" t="n"/>
+      <c r="F46" s="43" t="n"/>
+      <c r="G46" s="42" t="n"/>
+      <c r="H46" s="43" t="n"/>
+      <c r="I46" s="42" t="n"/>
+      <c r="J46" s="43" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="59" t="n"/>
-      <c r="C47" s="59" t="n"/>
-      <c r="D47" s="59" t="n"/>
-      <c r="E47" s="62" t="n"/>
-      <c r="F47" s="63" t="n"/>
-      <c r="G47" s="62" t="n"/>
-      <c r="H47" s="63" t="n"/>
-      <c r="I47" s="62" t="n"/>
-      <c r="J47" s="63" t="n"/>
+      <c r="B47" s="45" t="n"/>
+      <c r="C47" s="44" t="n"/>
+      <c r="D47" s="44" t="n"/>
+      <c r="E47" s="42" t="n"/>
+      <c r="F47" s="43" t="n"/>
+      <c r="G47" s="42" t="n"/>
+      <c r="H47" s="43" t="n"/>
+      <c r="I47" s="42" t="n"/>
+      <c r="J47" s="43" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="59" t="n"/>
-      <c r="C48" s="59" t="n"/>
-      <c r="D48" s="59" t="n"/>
-      <c r="E48" s="62" t="n"/>
-      <c r="F48" s="63" t="n"/>
-      <c r="G48" s="62" t="n"/>
-      <c r="H48" s="63" t="n"/>
-      <c r="I48" s="62" t="n"/>
-      <c r="J48" s="63" t="n"/>
+      <c r="B48" s="45" t="n"/>
+      <c r="C48" s="44" t="n"/>
+      <c r="D48" s="44" t="n"/>
+      <c r="E48" s="42" t="n"/>
+      <c r="F48" s="43" t="n"/>
+      <c r="G48" s="42" t="n"/>
+      <c r="H48" s="43" t="n"/>
+      <c r="I48" s="42" t="n"/>
+      <c r="J48" s="43" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="59" t="n"/>
-      <c r="C49" s="59" t="n"/>
-      <c r="D49" s="59" t="n"/>
-      <c r="E49" s="62" t="n"/>
-      <c r="F49" s="63" t="n"/>
-      <c r="G49" s="62" t="n"/>
-      <c r="H49" s="63" t="n"/>
-      <c r="I49" s="62" t="n"/>
-      <c r="J49" s="63" t="n"/>
+      <c r="B49" s="45" t="n"/>
+      <c r="C49" s="44" t="n"/>
+      <c r="D49" s="44" t="n"/>
+      <c r="E49" s="42" t="n"/>
+      <c r="F49" s="43" t="n"/>
+      <c r="G49" s="42" t="n"/>
+      <c r="H49" s="43" t="n"/>
+      <c r="I49" s="42" t="n"/>
+      <c r="J49" s="43" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="59" t="n"/>
-      <c r="C50" s="59" t="n"/>
-      <c r="D50" s="59" t="n"/>
-      <c r="E50" s="62" t="n"/>
-      <c r="F50" s="63" t="n"/>
-      <c r="G50" s="62" t="n"/>
-      <c r="H50" s="63" t="n"/>
-      <c r="I50" s="62" t="n"/>
-      <c r="J50" s="63" t="n"/>
+      <c r="B50" s="45" t="n"/>
+      <c r="C50" s="44" t="n"/>
+      <c r="D50" s="44" t="n"/>
+      <c r="E50" s="42" t="n"/>
+      <c r="F50" s="43" t="n"/>
+      <c r="G50" s="42" t="n"/>
+      <c r="H50" s="43" t="n"/>
+      <c r="I50" s="42" t="n"/>
+      <c r="J50" s="43" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="59" t="n"/>
-      <c r="C51" s="59" t="n"/>
-      <c r="D51" s="59" t="n"/>
-      <c r="E51" s="62" t="n"/>
-      <c r="F51" s="63" t="n"/>
-      <c r="G51" s="62" t="n"/>
-      <c r="H51" s="63" t="n"/>
-      <c r="I51" s="62" t="n"/>
-      <c r="J51" s="63" t="n"/>
+      <c r="B51" s="45" t="n"/>
+      <c r="C51" s="44" t="n"/>
+      <c r="D51" s="44" t="n"/>
+      <c r="E51" s="42" t="n"/>
+      <c r="F51" s="43" t="n"/>
+      <c r="G51" s="42" t="n"/>
+      <c r="H51" s="43" t="n"/>
+      <c r="I51" s="42" t="n"/>
+      <c r="J51" s="43" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="59" t="n"/>
-      <c r="C52" s="59" t="n"/>
-      <c r="D52" s="59" t="n"/>
-      <c r="E52" s="62" t="n"/>
-      <c r="F52" s="63" t="n"/>
-      <c r="G52" s="62" t="n"/>
-      <c r="H52" s="63" t="n"/>
-      <c r="I52" s="62" t="n"/>
-      <c r="J52" s="63" t="n"/>
+      <c r="B52" s="45" t="n"/>
+      <c r="C52" s="44" t="n"/>
+      <c r="D52" s="44" t="n"/>
+      <c r="E52" s="42" t="n"/>
+      <c r="F52" s="43" t="n"/>
+      <c r="G52" s="42" t="n"/>
+      <c r="H52" s="43" t="n"/>
+      <c r="I52" s="42" t="n"/>
+      <c r="J52" s="43" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="59" t="n"/>
-      <c r="C53" s="59" t="n"/>
-      <c r="D53" s="59" t="n"/>
-      <c r="E53" s="62" t="n"/>
-      <c r="F53" s="63" t="n"/>
-      <c r="G53" s="62" t="n"/>
-      <c r="H53" s="63" t="n"/>
-      <c r="I53" s="62" t="n"/>
-      <c r="J53" s="63" t="n"/>
+      <c r="B53" s="45" t="n"/>
+      <c r="C53" s="44" t="n"/>
+      <c r="D53" s="44" t="n"/>
+      <c r="E53" s="42" t="n"/>
+      <c r="F53" s="43" t="n"/>
+      <c r="G53" s="42" t="n"/>
+      <c r="H53" s="43" t="n"/>
+      <c r="I53" s="42" t="n"/>
+      <c r="J53" s="43" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="59" t="n"/>
-      <c r="C54" s="59" t="n"/>
-      <c r="D54" s="59" t="n"/>
-      <c r="E54" s="62" t="n"/>
-      <c r="F54" s="63" t="n"/>
-      <c r="G54" s="62" t="n"/>
-      <c r="H54" s="63" t="n"/>
-      <c r="I54" s="62" t="n"/>
-      <c r="J54" s="63" t="n"/>
+      <c r="B54" s="45" t="n"/>
+      <c r="C54" s="44" t="n"/>
+      <c r="D54" s="44" t="n"/>
+      <c r="E54" s="42" t="n"/>
+      <c r="F54" s="43" t="n"/>
+      <c r="G54" s="42" t="n"/>
+      <c r="H54" s="43" t="n"/>
+      <c r="I54" s="42" t="n"/>
+      <c r="J54" s="43" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="59" t="n"/>
-      <c r="C55" s="59" t="n"/>
-      <c r="D55" s="59" t="n"/>
-      <c r="E55" s="62" t="n"/>
-      <c r="F55" s="63" t="n"/>
-      <c r="G55" s="62" t="n"/>
-      <c r="H55" s="63" t="n"/>
-      <c r="I55" s="62" t="n"/>
-      <c r="J55" s="63" t="n"/>
+      <c r="B55" s="45" t="n"/>
+      <c r="C55" s="44" t="n"/>
+      <c r="D55" s="44" t="n"/>
+      <c r="E55" s="42" t="n"/>
+      <c r="F55" s="43" t="n"/>
+      <c r="G55" s="42" t="n"/>
+      <c r="H55" s="43" t="n"/>
+      <c r="I55" s="42" t="n"/>
+      <c r="J55" s="43" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="59" t="n"/>
-      <c r="C56" s="59" t="n"/>
-      <c r="D56" s="59" t="n"/>
-      <c r="E56" s="62" t="n"/>
-      <c r="F56" s="63" t="n"/>
-      <c r="G56" s="62" t="n"/>
-      <c r="H56" s="63" t="n"/>
-      <c r="I56" s="62" t="n"/>
-      <c r="J56" s="63" t="n"/>
+      <c r="B56" s="45" t="n"/>
+      <c r="C56" s="44" t="n"/>
+      <c r="D56" s="44" t="n"/>
+      <c r="E56" s="42" t="n"/>
+      <c r="F56" s="43" t="n"/>
+      <c r="G56" s="42" t="n"/>
+      <c r="H56" s="43" t="n"/>
+      <c r="I56" s="42" t="n"/>
+      <c r="J56" s="43" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="59" t="n"/>
-      <c r="C57" s="59" t="n"/>
-      <c r="D57" s="59" t="n"/>
-      <c r="E57" s="62" t="n"/>
-      <c r="F57" s="63" t="n"/>
-      <c r="G57" s="62" t="n"/>
-      <c r="H57" s="63" t="n"/>
-      <c r="I57" s="62" t="n"/>
-      <c r="J57" s="63" t="n"/>
+      <c r="B57" s="45" t="n"/>
+      <c r="C57" s="44" t="n"/>
+      <c r="D57" s="44" t="n"/>
+      <c r="E57" s="42" t="n"/>
+      <c r="F57" s="43" t="n"/>
+      <c r="G57" s="42" t="n"/>
+      <c r="H57" s="43" t="n"/>
+      <c r="I57" s="42" t="n"/>
+      <c r="J57" s="43" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="59" t="n"/>
-      <c r="C58" s="59" t="n"/>
-      <c r="D58" s="59" t="n"/>
-      <c r="E58" s="62" t="n"/>
-      <c r="F58" s="63" t="n"/>
-      <c r="G58" s="62" t="n"/>
-      <c r="H58" s="63" t="n"/>
-      <c r="I58" s="62" t="n"/>
-      <c r="J58" s="63" t="n"/>
+      <c r="B58" s="45" t="n"/>
+      <c r="C58" s="44" t="n"/>
+      <c r="D58" s="44" t="n"/>
+      <c r="E58" s="42" t="n"/>
+      <c r="F58" s="43" t="n"/>
+      <c r="G58" s="42" t="n"/>
+      <c r="H58" s="43" t="n"/>
+      <c r="I58" s="42" t="n"/>
+      <c r="J58" s="43" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="59" t="n"/>
-      <c r="C59" s="59" t="n"/>
-      <c r="D59" s="59" t="n"/>
-      <c r="E59" s="62" t="n"/>
-      <c r="F59" s="63" t="n"/>
-      <c r="G59" s="62" t="n"/>
-      <c r="H59" s="63" t="n"/>
-      <c r="I59" s="62" t="n"/>
-      <c r="J59" s="63" t="n"/>
+      <c r="B59" s="45" t="n"/>
+      <c r="C59" s="44" t="n"/>
+      <c r="D59" s="44" t="n"/>
+      <c r="E59" s="42" t="n"/>
+      <c r="F59" s="43" t="n"/>
+      <c r="G59" s="42" t="n"/>
+      <c r="H59" s="43" t="n"/>
+      <c r="I59" s="42" t="n"/>
+      <c r="J59" s="43" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="24" t="n"/>
-      <c r="C60" s="24" t="n"/>
-      <c r="D60" s="24" t="n"/>
-      <c r="E60" s="57" t="n"/>
-      <c r="F60" s="58" t="n"/>
-      <c r="G60" s="57" t="n"/>
-      <c r="H60" s="58" t="n"/>
-      <c r="I60" s="57" t="n"/>
-      <c r="J60" s="58" t="n"/>
+      <c r="B60" s="46" t="n"/>
+      <c r="C60" s="33" t="n"/>
+      <c r="D60" s="33" t="n"/>
+      <c r="E60" s="38" t="n"/>
+      <c r="F60" s="39" t="n"/>
+      <c r="G60" s="38" t="n"/>
+      <c r="H60" s="39" t="n"/>
+      <c r="I60" s="38" t="n"/>
+      <c r="J60" s="39" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="24" t="n"/>
-      <c r="C61" s="24" t="n"/>
-      <c r="D61" s="24" t="n"/>
-      <c r="E61" s="57" t="n"/>
-      <c r="F61" s="58" t="n"/>
-      <c r="G61" s="57" t="n"/>
-      <c r="H61" s="58" t="n"/>
-      <c r="I61" s="57" t="n"/>
-      <c r="J61" s="58" t="n"/>
+      <c r="B61" s="46" t="n"/>
+      <c r="C61" s="33" t="n"/>
+      <c r="D61" s="33" t="n"/>
+      <c r="E61" s="38" t="n"/>
+      <c r="F61" s="39" t="n"/>
+      <c r="G61" s="38" t="n"/>
+      <c r="H61" s="39" t="n"/>
+      <c r="I61" s="38" t="n"/>
+      <c r="J61" s="39" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="24" t="n"/>
-      <c r="C62" s="24" t="n"/>
-      <c r="D62" s="24" t="n"/>
-      <c r="E62" s="57" t="n"/>
-      <c r="F62" s="58" t="n"/>
-      <c r="G62" s="57" t="n"/>
-      <c r="H62" s="58" t="n"/>
-      <c r="I62" s="57" t="n"/>
-      <c r="J62" s="58" t="n"/>
+      <c r="B62" s="46" t="n"/>
+      <c r="C62" s="33" t="n"/>
+      <c r="D62" s="33" t="n"/>
+      <c r="E62" s="38" t="n"/>
+      <c r="F62" s="39" t="n"/>
+      <c r="G62" s="38" t="n"/>
+      <c r="H62" s="39" t="n"/>
+      <c r="I62" s="38" t="n"/>
+      <c r="J62" s="39" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="24" t="n"/>
-      <c r="C63" s="24" t="n"/>
-      <c r="D63" s="24" t="n"/>
-      <c r="E63" s="57" t="n"/>
-      <c r="F63" s="58" t="n"/>
-      <c r="G63" s="57" t="n"/>
-      <c r="H63" s="58" t="n"/>
-      <c r="I63" s="57" t="n"/>
-      <c r="J63" s="58" t="n"/>
+      <c r="B63" s="46" t="n"/>
+      <c r="C63" s="33" t="n"/>
+      <c r="D63" s="33" t="n"/>
+      <c r="E63" s="38" t="n"/>
+      <c r="F63" s="39" t="n"/>
+      <c r="G63" s="38" t="n"/>
+      <c r="H63" s="39" t="n"/>
+      <c r="I63" s="38" t="n"/>
+      <c r="J63" s="39" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="24" t="n"/>
-      <c r="C64" s="24" t="n"/>
-      <c r="D64" s="24" t="n"/>
-      <c r="E64" s="57" t="n"/>
-      <c r="F64" s="58" t="n"/>
-      <c r="G64" s="57" t="n"/>
-      <c r="H64" s="58" t="n"/>
-      <c r="I64" s="57" t="n"/>
-      <c r="J64" s="58" t="n"/>
+      <c r="B64" s="46" t="n"/>
+      <c r="C64" s="33" t="n"/>
+      <c r="D64" s="33" t="n"/>
+      <c r="E64" s="38" t="n"/>
+      <c r="F64" s="39" t="n"/>
+      <c r="G64" s="38" t="n"/>
+      <c r="H64" s="39" t="n"/>
+      <c r="I64" s="38" t="n"/>
+      <c r="J64" s="39" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="24" t="n"/>
-      <c r="C65" s="24" t="n"/>
-      <c r="D65" s="24" t="n"/>
-      <c r="E65" s="57" t="n"/>
-      <c r="F65" s="58" t="n"/>
-      <c r="G65" s="57" t="n"/>
-      <c r="H65" s="58" t="n"/>
-      <c r="I65" s="57" t="n"/>
-      <c r="J65" s="58" t="n"/>
+      <c r="B65" s="46" t="n"/>
+      <c r="C65" s="33" t="n"/>
+      <c r="D65" s="33" t="n"/>
+      <c r="E65" s="38" t="n"/>
+      <c r="F65" s="39" t="n"/>
+      <c r="G65" s="38" t="n"/>
+      <c r="H65" s="39" t="n"/>
+      <c r="I65" s="38" t="n"/>
+      <c r="J65" s="39" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="24" t="n"/>
-      <c r="C66" s="24" t="n"/>
-      <c r="D66" s="24" t="n"/>
-      <c r="E66" s="57" t="n"/>
-      <c r="F66" s="58" t="n"/>
-      <c r="G66" s="57" t="n"/>
-      <c r="H66" s="58" t="n"/>
-      <c r="I66" s="57" t="n"/>
-      <c r="J66" s="58" t="n"/>
+      <c r="B66" s="46" t="n"/>
+      <c r="C66" s="33" t="n"/>
+      <c r="D66" s="33" t="n"/>
+      <c r="E66" s="38" t="n"/>
+      <c r="F66" s="39" t="n"/>
+      <c r="G66" s="38" t="n"/>
+      <c r="H66" s="39" t="n"/>
+      <c r="I66" s="38" t="n"/>
+      <c r="J66" s="39" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="24" t="n"/>
-      <c r="C67" s="24" t="n"/>
-      <c r="D67" s="24" t="n"/>
-      <c r="E67" s="57" t="n"/>
-      <c r="F67" s="58" t="n"/>
-      <c r="G67" s="57" t="n"/>
-      <c r="H67" s="58" t="n"/>
-      <c r="I67" s="57" t="n"/>
-      <c r="J67" s="58" t="n"/>
+      <c r="B67" s="46" t="n"/>
+      <c r="C67" s="33" t="n"/>
+      <c r="D67" s="33" t="n"/>
+      <c r="E67" s="38" t="n"/>
+      <c r="F67" s="39" t="n"/>
+      <c r="G67" s="38" t="n"/>
+      <c r="H67" s="39" t="n"/>
+      <c r="I67" s="38" t="n"/>
+      <c r="J67" s="39" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="24" t="n"/>
-      <c r="C68" s="24" t="n"/>
-      <c r="D68" s="24" t="n"/>
-      <c r="E68" s="57" t="n"/>
-      <c r="F68" s="58" t="n"/>
-      <c r="G68" s="57" t="n"/>
-      <c r="H68" s="58" t="n"/>
-      <c r="I68" s="57" t="n"/>
-      <c r="J68" s="58" t="n"/>
+      <c r="B68" s="46" t="n"/>
+      <c r="C68" s="33" t="n"/>
+      <c r="D68" s="33" t="n"/>
+      <c r="E68" s="38" t="n"/>
+      <c r="F68" s="39" t="n"/>
+      <c r="G68" s="38" t="n"/>
+      <c r="H68" s="39" t="n"/>
+      <c r="I68" s="38" t="n"/>
+      <c r="J68" s="39" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" s="24" t="n"/>
-      <c r="C69" s="24" t="n"/>
-      <c r="D69" s="24" t="n"/>
-      <c r="E69" s="57" t="n"/>
-      <c r="F69" s="58" t="n"/>
-      <c r="G69" s="57" t="n"/>
-      <c r="H69" s="58" t="n"/>
-      <c r="I69" s="57" t="n"/>
-      <c r="J69" s="58" t="n"/>
+      <c r="B69" s="46" t="n"/>
+      <c r="C69" s="33" t="n"/>
+      <c r="D69" s="33" t="n"/>
+      <c r="E69" s="38" t="n"/>
+      <c r="F69" s="39" t="n"/>
+      <c r="G69" s="38" t="n"/>
+      <c r="H69" s="39" t="n"/>
+      <c r="I69" s="38" t="n"/>
+      <c r="J69" s="39" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" s="24" t="n"/>
-      <c r="C70" s="24" t="n"/>
-      <c r="D70" s="24" t="n"/>
-      <c r="E70" s="57" t="n"/>
-      <c r="F70" s="58" t="n"/>
-      <c r="G70" s="57" t="n"/>
-      <c r="H70" s="58" t="n"/>
-      <c r="I70" s="57" t="n"/>
-      <c r="J70" s="58" t="n"/>
+      <c r="B70" s="46" t="n"/>
+      <c r="C70" s="33" t="n"/>
+      <c r="D70" s="33" t="n"/>
+      <c r="E70" s="38" t="n"/>
+      <c r="F70" s="39" t="n"/>
+      <c r="G70" s="38" t="n"/>
+      <c r="H70" s="39" t="n"/>
+      <c r="I70" s="38" t="n"/>
+      <c r="J70" s="39" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" s="24" t="n"/>
-      <c r="C71" s="24" t="n"/>
-      <c r="D71" s="24" t="n"/>
-      <c r="E71" s="57" t="n"/>
-      <c r="F71" s="58" t="n"/>
-      <c r="G71" s="57" t="n"/>
-      <c r="H71" s="58" t="n"/>
-      <c r="I71" s="57" t="n"/>
-      <c r="J71" s="58" t="n"/>
+      <c r="B71" s="46" t="n"/>
+      <c r="C71" s="33" t="n"/>
+      <c r="D71" s="33" t="n"/>
+      <c r="E71" s="38" t="n"/>
+      <c r="F71" s="39" t="n"/>
+      <c r="G71" s="38" t="n"/>
+      <c r="H71" s="39" t="n"/>
+      <c r="I71" s="38" t="n"/>
+      <c r="J71" s="39" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" s="24" t="n"/>
-      <c r="C72" s="24" t="n"/>
-      <c r="D72" s="24" t="n"/>
-      <c r="E72" s="57" t="n"/>
-      <c r="F72" s="58" t="n"/>
-      <c r="G72" s="57" t="n"/>
-      <c r="H72" s="58" t="n"/>
-      <c r="I72" s="57" t="n"/>
-      <c r="J72" s="58" t="n"/>
+      <c r="B72" s="46" t="n"/>
+      <c r="C72" s="33" t="n"/>
+      <c r="D72" s="33" t="n"/>
+      <c r="E72" s="38" t="n"/>
+      <c r="F72" s="39" t="n"/>
+      <c r="G72" s="38" t="n"/>
+      <c r="H72" s="39" t="n"/>
+      <c r="I72" s="38" t="n"/>
+      <c r="J72" s="39" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" s="24" t="n"/>
-      <c r="C73" s="24" t="n"/>
-      <c r="D73" s="24" t="n"/>
-      <c r="E73" s="57" t="n"/>
-      <c r="F73" s="58" t="n"/>
-      <c r="G73" s="57" t="n"/>
-      <c r="H73" s="58" t="n"/>
-      <c r="I73" s="57" t="n"/>
-      <c r="J73" s="58" t="n"/>
+      <c r="B73" s="46" t="n"/>
+      <c r="C73" s="33" t="n"/>
+      <c r="D73" s="33" t="n"/>
+      <c r="E73" s="38" t="n"/>
+      <c r="F73" s="39" t="n"/>
+      <c r="G73" s="38" t="n"/>
+      <c r="H73" s="39" t="n"/>
+      <c r="I73" s="38" t="n"/>
+      <c r="J73" s="39" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" s="24" t="n"/>
-      <c r="C74" s="24" t="n"/>
-      <c r="D74" s="24" t="n"/>
-      <c r="E74" s="57" t="n"/>
-      <c r="F74" s="58" t="n"/>
-      <c r="G74" s="57" t="n"/>
-      <c r="H74" s="58" t="n"/>
-      <c r="I74" s="57" t="n"/>
-      <c r="J74" s="58" t="n"/>
+      <c r="B74" s="46" t="n"/>
+      <c r="C74" s="33" t="n"/>
+      <c r="D74" s="33" t="n"/>
+      <c r="E74" s="38" t="n"/>
+      <c r="F74" s="39" t="n"/>
+      <c r="G74" s="38" t="n"/>
+      <c r="H74" s="39" t="n"/>
+      <c r="I74" s="38" t="n"/>
+      <c r="J74" s="39" t="n"/>
     </row>
     <row r="75">
-      <c r="B75" s="24" t="n"/>
-      <c r="C75" s="24" t="n"/>
-      <c r="D75" s="24" t="n"/>
-      <c r="E75" s="57" t="n"/>
-      <c r="F75" s="58" t="n"/>
-      <c r="G75" s="57" t="n"/>
-      <c r="H75" s="58" t="n"/>
-      <c r="I75" s="57" t="n"/>
-      <c r="J75" s="58" t="n"/>
+      <c r="B75" s="46" t="n"/>
+      <c r="C75" s="33" t="n"/>
+      <c r="D75" s="33" t="n"/>
+      <c r="E75" s="38" t="n"/>
+      <c r="F75" s="39" t="n"/>
+      <c r="G75" s="38" t="n"/>
+      <c r="H75" s="39" t="n"/>
+      <c r="I75" s="38" t="n"/>
+      <c r="J75" s="39" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="24" t="n"/>
-      <c r="C76" s="24" t="n"/>
-      <c r="D76" s="24" t="n"/>
-      <c r="E76" s="57" t="n"/>
-      <c r="F76" s="58" t="n"/>
-      <c r="G76" s="57" t="n"/>
-      <c r="H76" s="58" t="n"/>
-      <c r="I76" s="57" t="n"/>
-      <c r="J76" s="58" t="n"/>
+      <c r="B76" s="46" t="n"/>
+      <c r="C76" s="33" t="n"/>
+      <c r="D76" s="33" t="n"/>
+      <c r="E76" s="38" t="n"/>
+      <c r="F76" s="39" t="n"/>
+      <c r="G76" s="38" t="n"/>
+      <c r="H76" s="39" t="n"/>
+      <c r="I76" s="38" t="n"/>
+      <c r="J76" s="39" t="n"/>
     </row>
     <row r="77">
-      <c r="B77" s="24" t="n"/>
-      <c r="C77" s="24" t="n"/>
-      <c r="D77" s="24" t="n"/>
-      <c r="E77" s="57" t="n"/>
-      <c r="F77" s="58" t="n"/>
-      <c r="G77" s="57" t="n"/>
-      <c r="H77" s="58" t="n"/>
-      <c r="I77" s="57" t="n"/>
-      <c r="J77" s="58" t="n"/>
+      <c r="B77" s="46" t="n"/>
+      <c r="C77" s="33" t="n"/>
+      <c r="D77" s="33" t="n"/>
+      <c r="E77" s="38" t="n"/>
+      <c r="F77" s="39" t="n"/>
+      <c r="G77" s="38" t="n"/>
+      <c r="H77" s="39" t="n"/>
+      <c r="I77" s="38" t="n"/>
+      <c r="J77" s="39" t="n"/>
     </row>
     <row r="78">
-      <c r="B78" s="24" t="n"/>
-      <c r="C78" s="24" t="n"/>
-      <c r="D78" s="24" t="n"/>
-      <c r="E78" s="57" t="n"/>
-      <c r="F78" s="58" t="n"/>
-      <c r="G78" s="57" t="n"/>
-      <c r="H78" s="58" t="n"/>
-      <c r="I78" s="57" t="n"/>
-      <c r="J78" s="58" t="n"/>
+      <c r="B78" s="46" t="n"/>
+      <c r="C78" s="33" t="n"/>
+      <c r="D78" s="33" t="n"/>
+      <c r="E78" s="38" t="n"/>
+      <c r="F78" s="39" t="n"/>
+      <c r="G78" s="38" t="n"/>
+      <c r="H78" s="39" t="n"/>
+      <c r="I78" s="38" t="n"/>
+      <c r="J78" s="39" t="n"/>
     </row>
     <row r="79">
-      <c r="B79" s="24" t="n"/>
-      <c r="C79" s="24" t="n"/>
-      <c r="D79" s="24" t="n"/>
-      <c r="E79" s="57" t="n"/>
-      <c r="F79" s="58" t="n"/>
-      <c r="G79" s="57" t="n"/>
-      <c r="H79" s="58" t="n"/>
-      <c r="I79" s="57" t="n"/>
-      <c r="J79" s="58" t="n"/>
+      <c r="B79" s="46" t="n"/>
+      <c r="C79" s="33" t="n"/>
+      <c r="D79" s="33" t="n"/>
+      <c r="E79" s="38" t="n"/>
+      <c r="F79" s="39" t="n"/>
+      <c r="G79" s="38" t="n"/>
+      <c r="H79" s="39" t="n"/>
+      <c r="I79" s="38" t="n"/>
+      <c r="J79" s="39" t="n"/>
     </row>
     <row r="80">
-      <c r="B80" s="24" t="n"/>
-      <c r="C80" s="24" t="n"/>
-      <c r="D80" s="24" t="n"/>
-      <c r="E80" s="57" t="n"/>
-      <c r="F80" s="58" t="n"/>
-      <c r="G80" s="57" t="n"/>
-      <c r="H80" s="58" t="n"/>
-      <c r="I80" s="57" t="n"/>
-      <c r="J80" s="58" t="n"/>
+      <c r="B80" s="46" t="n"/>
+      <c r="C80" s="33" t="n"/>
+      <c r="D80" s="33" t="n"/>
+      <c r="E80" s="38" t="n"/>
+      <c r="F80" s="39" t="n"/>
+      <c r="G80" s="38" t="n"/>
+      <c r="H80" s="39" t="n"/>
+      <c r="I80" s="38" t="n"/>
+      <c r="J80" s="39" t="n"/>
     </row>
     <row r="81">
-      <c r="B81" s="24" t="n"/>
-      <c r="C81" s="24" t="n"/>
-      <c r="D81" s="24" t="n"/>
-      <c r="E81" s="57" t="n"/>
-      <c r="F81" s="58" t="n"/>
-      <c r="G81" s="57" t="n"/>
-      <c r="H81" s="58" t="n"/>
-      <c r="I81" s="57" t="n"/>
-      <c r="J81" s="58" t="n"/>
+      <c r="B81" s="46" t="n"/>
+      <c r="C81" s="33" t="n"/>
+      <c r="D81" s="33" t="n"/>
+      <c r="E81" s="38" t="n"/>
+      <c r="F81" s="39" t="n"/>
+      <c r="G81" s="38" t="n"/>
+      <c r="H81" s="39" t="n"/>
+      <c r="I81" s="38" t="n"/>
+      <c r="J81" s="39" t="n"/>
     </row>
     <row r="82">
-      <c r="B82" s="24" t="n"/>
-      <c r="C82" s="24" t="n"/>
-      <c r="D82" s="24" t="n"/>
-      <c r="E82" s="57" t="n"/>
-      <c r="F82" s="58" t="n"/>
-      <c r="G82" s="57" t="n"/>
-      <c r="H82" s="58" t="n"/>
-      <c r="I82" s="57" t="n"/>
-      <c r="J82" s="58" t="n"/>
+      <c r="B82" s="46" t="n"/>
+      <c r="C82" s="33" t="n"/>
+      <c r="D82" s="33" t="n"/>
+      <c r="E82" s="38" t="n"/>
+      <c r="F82" s="39" t="n"/>
+      <c r="G82" s="38" t="n"/>
+      <c r="H82" s="39" t="n"/>
+      <c r="I82" s="38" t="n"/>
+      <c r="J82" s="39" t="n"/>
     </row>
     <row r="83">
-      <c r="B83" s="24" t="n"/>
-      <c r="C83" s="24" t="n"/>
-      <c r="D83" s="24" t="n"/>
-      <c r="E83" s="57" t="n"/>
-      <c r="F83" s="58" t="n"/>
-      <c r="G83" s="57" t="n"/>
-      <c r="H83" s="58" t="n"/>
-      <c r="I83" s="57" t="n"/>
-      <c r="J83" s="58" t="n"/>
+      <c r="B83" s="46" t="n"/>
+      <c r="C83" s="33" t="n"/>
+      <c r="D83" s="33" t="n"/>
+      <c r="E83" s="38" t="n"/>
+      <c r="F83" s="39" t="n"/>
+      <c r="G83" s="38" t="n"/>
+      <c r="H83" s="39" t="n"/>
+      <c r="I83" s="38" t="n"/>
+      <c r="J83" s="39" t="n"/>
     </row>
     <row r="84">
-      <c r="B84" s="24" t="n"/>
-      <c r="C84" s="24" t="n"/>
-      <c r="D84" s="24" t="n"/>
-      <c r="E84" s="57" t="n"/>
-      <c r="F84" s="58" t="n"/>
-      <c r="G84" s="57" t="n"/>
-      <c r="H84" s="58" t="n"/>
-      <c r="I84" s="57" t="n"/>
-      <c r="J84" s="58" t="n"/>
+      <c r="B84" s="46" t="n"/>
+      <c r="C84" s="33" t="n"/>
+      <c r="D84" s="33" t="n"/>
+      <c r="E84" s="38" t="n"/>
+      <c r="F84" s="39" t="n"/>
+      <c r="G84" s="38" t="n"/>
+      <c r="H84" s="39" t="n"/>
+      <c r="I84" s="38" t="n"/>
+      <c r="J84" s="39" t="n"/>
     </row>
     <row r="85">
-      <c r="B85" s="24" t="n"/>
-      <c r="C85" s="24" t="n"/>
-      <c r="D85" s="24" t="n"/>
-      <c r="E85" s="57" t="n"/>
-      <c r="F85" s="58" t="n"/>
-      <c r="G85" s="57" t="n"/>
-      <c r="H85" s="58" t="n"/>
-      <c r="I85" s="57" t="n"/>
-      <c r="J85" s="58" t="n"/>
+      <c r="B85" s="46" t="n"/>
+      <c r="C85" s="33" t="n"/>
+      <c r="D85" s="33" t="n"/>
+      <c r="E85" s="38" t="n"/>
+      <c r="F85" s="39" t="n"/>
+      <c r="G85" s="38" t="n"/>
+      <c r="H85" s="39" t="n"/>
+      <c r="I85" s="38" t="n"/>
+      <c r="J85" s="39" t="n"/>
     </row>
     <row r="86">
-      <c r="B86" s="24" t="n"/>
-      <c r="C86" s="24" t="n"/>
-      <c r="D86" s="24" t="n"/>
-      <c r="E86" s="57" t="n"/>
-      <c r="F86" s="58" t="n"/>
-      <c r="G86" s="57" t="n"/>
-      <c r="H86" s="58" t="n"/>
-      <c r="I86" s="57" t="n"/>
-      <c r="J86" s="58" t="n"/>
+      <c r="B86" s="46" t="n"/>
+      <c r="C86" s="33" t="n"/>
+      <c r="D86" s="33" t="n"/>
+      <c r="E86" s="38" t="n"/>
+      <c r="F86" s="39" t="n"/>
+      <c r="G86" s="38" t="n"/>
+      <c r="H86" s="39" t="n"/>
+      <c r="I86" s="38" t="n"/>
+      <c r="J86" s="39" t="n"/>
     </row>
     <row r="87">
-      <c r="B87" s="24" t="n"/>
-      <c r="C87" s="24" t="n"/>
-      <c r="D87" s="24" t="n"/>
-      <c r="E87" s="57" t="n"/>
-      <c r="F87" s="58" t="n"/>
-      <c r="G87" s="57" t="n"/>
-      <c r="H87" s="58" t="n"/>
-      <c r="I87" s="57" t="n"/>
-      <c r="J87" s="58" t="n"/>
+      <c r="B87" s="46" t="n"/>
+      <c r="C87" s="33" t="n"/>
+      <c r="D87" s="33" t="n"/>
+      <c r="E87" s="38" t="n"/>
+      <c r="F87" s="39" t="n"/>
+      <c r="G87" s="38" t="n"/>
+      <c r="H87" s="39" t="n"/>
+      <c r="I87" s="38" t="n"/>
+      <c r="J87" s="39" t="n"/>
     </row>
     <row r="88">
-      <c r="B88" s="24" t="n"/>
-      <c r="C88" s="24" t="n"/>
-      <c r="D88" s="24" t="n"/>
-      <c r="E88" s="57" t="n"/>
-      <c r="F88" s="58" t="n"/>
-      <c r="G88" s="57" t="n"/>
-      <c r="H88" s="58" t="n"/>
-      <c r="I88" s="57" t="n"/>
-      <c r="J88" s="58" t="n"/>
+      <c r="B88" s="46" t="n"/>
+      <c r="C88" s="33" t="n"/>
+      <c r="D88" s="33" t="n"/>
+      <c r="E88" s="38" t="n"/>
+      <c r="F88" s="39" t="n"/>
+      <c r="G88" s="38" t="n"/>
+      <c r="H88" s="39" t="n"/>
+      <c r="I88" s="38" t="n"/>
+      <c r="J88" s="39" t="n"/>
     </row>
     <row r="89">
-      <c r="B89" s="24" t="n"/>
-      <c r="C89" s="24" t="n"/>
-      <c r="D89" s="24" t="n"/>
-      <c r="E89" s="57" t="n"/>
-      <c r="F89" s="58" t="n"/>
-      <c r="G89" s="57" t="n"/>
-      <c r="H89" s="58" t="n"/>
-      <c r="I89" s="57" t="n"/>
-      <c r="J89" s="58" t="n"/>
+      <c r="B89" s="46" t="n"/>
+      <c r="C89" s="33" t="n"/>
+      <c r="D89" s="33" t="n"/>
+      <c r="E89" s="38" t="n"/>
+      <c r="F89" s="39" t="n"/>
+      <c r="G89" s="38" t="n"/>
+      <c r="H89" s="39" t="n"/>
+      <c r="I89" s="38" t="n"/>
+      <c r="J89" s="39" t="n"/>
     </row>
     <row r="90">
-      <c r="B90" s="24" t="n"/>
-      <c r="C90" s="24" t="n"/>
-      <c r="D90" s="24" t="n"/>
-      <c r="E90" s="57" t="n"/>
-      <c r="F90" s="58" t="n"/>
-      <c r="G90" s="57" t="n"/>
-      <c r="H90" s="58" t="n"/>
-      <c r="I90" s="57" t="n"/>
-      <c r="J90" s="58" t="n"/>
+      <c r="B90" s="46" t="n"/>
+      <c r="C90" s="33" t="n"/>
+      <c r="D90" s="33" t="n"/>
+      <c r="E90" s="38" t="n"/>
+      <c r="F90" s="39" t="n"/>
+      <c r="G90" s="38" t="n"/>
+      <c r="H90" s="39" t="n"/>
+      <c r="I90" s="38" t="n"/>
+      <c r="J90" s="39" t="n"/>
     </row>
     <row r="91">
-      <c r="B91" s="24" t="n"/>
-      <c r="C91" s="24" t="n"/>
-      <c r="D91" s="24" t="n"/>
-      <c r="E91" s="57" t="n"/>
-      <c r="F91" s="58" t="n"/>
-      <c r="G91" s="57" t="n"/>
-      <c r="H91" s="58" t="n"/>
-      <c r="I91" s="57" t="n"/>
-      <c r="J91" s="58" t="n"/>
+      <c r="B91" s="46" t="n"/>
+      <c r="C91" s="33" t="n"/>
+      <c r="D91" s="33" t="n"/>
+      <c r="E91" s="38" t="n"/>
+      <c r="F91" s="39" t="n"/>
+      <c r="G91" s="38" t="n"/>
+      <c r="H91" s="39" t="n"/>
+      <c r="I91" s="38" t="n"/>
+      <c r="J91" s="39" t="n"/>
     </row>
     <row r="92">
-      <c r="B92" s="24" t="n"/>
-      <c r="C92" s="24" t="n"/>
-      <c r="D92" s="24" t="n"/>
-      <c r="E92" s="57" t="n"/>
-      <c r="F92" s="58" t="n"/>
-      <c r="G92" s="57" t="n"/>
-      <c r="H92" s="58" t="n"/>
-      <c r="I92" s="57" t="n"/>
-      <c r="J92" s="58" t="n"/>
+      <c r="B92" s="46" t="n"/>
+      <c r="C92" s="33" t="n"/>
+      <c r="D92" s="33" t="n"/>
+      <c r="E92" s="38" t="n"/>
+      <c r="F92" s="39" t="n"/>
+      <c r="G92" s="38" t="n"/>
+      <c r="H92" s="39" t="n"/>
+      <c r="I92" s="38" t="n"/>
+      <c r="J92" s="39" t="n"/>
     </row>
     <row r="93">
-      <c r="B93" s="24" t="n"/>
-      <c r="C93" s="24" t="n"/>
-      <c r="D93" s="24" t="n"/>
-      <c r="E93" s="57" t="n"/>
-      <c r="F93" s="58" t="n"/>
-      <c r="G93" s="57" t="n"/>
-      <c r="H93" s="58" t="n"/>
-      <c r="I93" s="57" t="n"/>
-      <c r="J93" s="58" t="n"/>
+      <c r="B93" s="46" t="n"/>
+      <c r="C93" s="33" t="n"/>
+      <c r="D93" s="33" t="n"/>
+      <c r="E93" s="38" t="n"/>
+      <c r="F93" s="39" t="n"/>
+      <c r="G93" s="38" t="n"/>
+      <c r="H93" s="39" t="n"/>
+      <c r="I93" s="38" t="n"/>
+      <c r="J93" s="39" t="n"/>
     </row>
     <row r="94">
-      <c r="B94" s="24" t="n"/>
-      <c r="C94" s="24" t="n"/>
-      <c r="D94" s="24" t="n"/>
-      <c r="E94" s="57" t="n"/>
-      <c r="F94" s="58" t="n"/>
-      <c r="G94" s="57" t="n"/>
-      <c r="H94" s="58" t="n"/>
-      <c r="I94" s="57" t="n"/>
-      <c r="J94" s="58" t="n"/>
+      <c r="B94" s="46" t="n"/>
+      <c r="C94" s="33" t="n"/>
+      <c r="D94" s="33" t="n"/>
+      <c r="E94" s="38" t="n"/>
+      <c r="F94" s="39" t="n"/>
+      <c r="G94" s="38" t="n"/>
+      <c r="H94" s="39" t="n"/>
+      <c r="I94" s="38" t="n"/>
+      <c r="J94" s="39" t="n"/>
     </row>
     <row r="95">
-      <c r="B95" s="24" t="n"/>
-      <c r="C95" s="24" t="n"/>
-      <c r="D95" s="24" t="n"/>
-      <c r="E95" s="57" t="n"/>
-      <c r="F95" s="58" t="n"/>
-      <c r="G95" s="57" t="n"/>
-      <c r="H95" s="58" t="n"/>
-      <c r="I95" s="57" t="n"/>
-      <c r="J95" s="58" t="n"/>
+      <c r="B95" s="46" t="n"/>
+      <c r="C95" s="33" t="n"/>
+      <c r="D95" s="33" t="n"/>
+      <c r="E95" s="38" t="n"/>
+      <c r="F95" s="39" t="n"/>
+      <c r="G95" s="38" t="n"/>
+      <c r="H95" s="39" t="n"/>
+      <c r="I95" s="38" t="n"/>
+      <c r="J95" s="39" t="n"/>
     </row>
     <row r="96">
-      <c r="B96" s="24" t="n"/>
-      <c r="C96" s="24" t="n"/>
-      <c r="D96" s="24" t="n"/>
-      <c r="E96" s="57" t="n"/>
-      <c r="F96" s="58" t="n"/>
-      <c r="G96" s="57" t="n"/>
-      <c r="H96" s="58" t="n"/>
-      <c r="I96" s="57" t="n"/>
-      <c r="J96" s="58" t="n"/>
+      <c r="B96" s="46" t="n"/>
+      <c r="C96" s="33" t="n"/>
+      <c r="D96" s="33" t="n"/>
+      <c r="E96" s="38" t="n"/>
+      <c r="F96" s="39" t="n"/>
+      <c r="G96" s="38" t="n"/>
+      <c r="H96" s="39" t="n"/>
+      <c r="I96" s="38" t="n"/>
+      <c r="J96" s="39" t="n"/>
     </row>
     <row r="97">
-      <c r="B97" s="24" t="n"/>
-      <c r="C97" s="24" t="n"/>
-      <c r="D97" s="24" t="n"/>
-      <c r="E97" s="57" t="n"/>
-      <c r="F97" s="58" t="n"/>
-      <c r="G97" s="57" t="n"/>
-      <c r="H97" s="58" t="n"/>
-      <c r="I97" s="57" t="n"/>
-      <c r="J97" s="58" t="n"/>
+      <c r="B97" s="46" t="n"/>
+      <c r="C97" s="33" t="n"/>
+      <c r="D97" s="33" t="n"/>
+      <c r="E97" s="38" t="n"/>
+      <c r="F97" s="39" t="n"/>
+      <c r="G97" s="38" t="n"/>
+      <c r="H97" s="39" t="n"/>
+      <c r="I97" s="38" t="n"/>
+      <c r="J97" s="39" t="n"/>
     </row>
     <row r="98">
-      <c r="B98" s="24" t="n"/>
-      <c r="C98" s="24" t="n"/>
-      <c r="D98" s="24" t="n"/>
-      <c r="E98" s="57" t="n"/>
-      <c r="F98" s="58" t="n"/>
-      <c r="G98" s="57" t="n"/>
-      <c r="H98" s="58" t="n"/>
-      <c r="I98" s="57" t="n"/>
-      <c r="J98" s="58" t="n"/>
+      <c r="B98" s="46" t="n"/>
+      <c r="C98" s="33" t="n"/>
+      <c r="D98" s="33" t="n"/>
+      <c r="E98" s="38" t="n"/>
+      <c r="F98" s="39" t="n"/>
+      <c r="G98" s="38" t="n"/>
+      <c r="H98" s="39" t="n"/>
+      <c r="I98" s="38" t="n"/>
+      <c r="J98" s="39" t="n"/>
     </row>
     <row r="99">
-      <c r="B99" s="24" t="n"/>
-      <c r="C99" s="24" t="n"/>
-      <c r="D99" s="24" t="n"/>
-      <c r="E99" s="57" t="n"/>
-      <c r="F99" s="58" t="n"/>
-      <c r="G99" s="57" t="n"/>
-      <c r="H99" s="58" t="n"/>
-      <c r="I99" s="57" t="n"/>
-      <c r="J99" s="58" t="n"/>
+      <c r="B99" s="46" t="n"/>
+      <c r="C99" s="33" t="n"/>
+      <c r="D99" s="33" t="n"/>
+      <c r="E99" s="38" t="n"/>
+      <c r="F99" s="39" t="n"/>
+      <c r="G99" s="38" t="n"/>
+      <c r="H99" s="39" t="n"/>
+      <c r="I99" s="38" t="n"/>
+      <c r="J99" s="39" t="n"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="47" t="n"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="47" t="n"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="47" t="n"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="47" t="n"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="47" t="n"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="47" t="n"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="47" t="n"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="47" t="n"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="47" t="n"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="47" t="n"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="47" t="n"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="47" t="n"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="47" t="n"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="47" t="n"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="47" t="n"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="48" t="n"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="48" t="n"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="48" t="n"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="48" t="n"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="48" t="n"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="1" t="n"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="1" t="n"/>
+    </row>
+    <row r="122">
+      <c r="B122" s="1" t="n"/>
+    </row>
+    <row r="123">
+      <c r="B123" s="1" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="22">
+    <mergeCell ref="B2:J2"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B9" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B8" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B10" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId15"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
@@ -32483,7 +32555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="Y5:AB40"/>
+  <dimension ref="A2:AB40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32491,6 +32563,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="2">
+      <c r="A2" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+      <c r="L2" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
       <c r="Y5" t="n">
         <v>0.64221675064907</v>
@@ -32693,6 +32777,16 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+      <c r="L20" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
       <c r="Y20" t="n">
         <v>0.63221675064907</v>
       </c>
@@ -32753,8 +32847,14 @@
     <row r="39"/>
     <row r="40"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A20" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L20" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -32764,7 +32864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="Y5:AB40"/>
+  <dimension ref="A2:AB40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32772,6 +32872,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="2">
+      <c r="A2" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+      <c r="L2" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
       <c r="Y5" t="n">
         <v>0.64221675064907</v>
@@ -32974,6 +33086,16 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+      <c r="L20" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
       <c r="Y20" t="n">
         <v>0.63221675064907</v>
       </c>
@@ -33034,8 +33156,14 @@
     <row r="39"/>
     <row r="40"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A20" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L20" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -33045,7 +33173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="Y5:AB40"/>
+  <dimension ref="A2:AB40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33053,6 +33181,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="2">
+      <c r="A2" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+      <c r="L2" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
       <c r="Y5" t="n">
         <v>0.6583039923048963</v>
@@ -33255,6 +33395,16 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+      <c r="L20" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
       <c r="Y20" t="n">
         <v>0.6383039923048963</v>
       </c>
@@ -33319,8 +33469,14 @@
     <row r="39"/>
     <row r="40"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A20" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L20" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -33330,7 +33486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="Y5:AB40"/>
+  <dimension ref="A2:AB40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33338,6 +33494,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="2">
+      <c r="A2" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+      <c r="L2" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
       <c r="Y5" t="n">
         <v>0.6583039923048963</v>
@@ -33543,6 +33711,16 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+      <c r="L20" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
       <c r="Y20" t="n">
         <v>0.6383039923048963</v>
       </c>
@@ -33607,8 +33785,14 @@
     <row r="39"/>
     <row r="40"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A20" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L20" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -33618,7 +33802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="Y5:Z40"/>
+  <dimension ref="A2:Z40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33626,6 +33810,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="2">
+      <c r="A2" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
       <c r="Y5" t="n">
         <v>0.6433731782447654</v>
@@ -33744,6 +33935,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
       <c r="Y20" t="n">
         <v>0.6333731782447654</v>
       </c>
@@ -33786,8 +33982,12 @@
     <row r="39"/>
     <row r="40"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A20" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -33797,7 +33997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="Y5:AB40"/>
+  <dimension ref="A2:AB40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33805,6 +34005,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="2">
+      <c r="A2" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+      <c r="L2" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
       <c r="Y5" t="n">
         <v>0.7026006120315973</v>
@@ -33951,6 +34163,16 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
+      <c r="L20" s="86" t="inlineStr">
+        <is>
+          <t>Report</t>
+        </is>
+      </c>
       <c r="Y20" t="n">
         <v>0.6426006120315972</v>
       </c>
@@ -34035,7 +34257,13 @@
     <row r="39"/>
     <row r="40"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A20" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="L20" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
 </worksheet>
 </file>
--- a/outputs/PCIE_ES2.xlsx
+++ b/outputs/PCIE_ES2.xlsx
@@ -464,7 +464,7 @@
     <xf borderId="1" fillId="5" fontId="5" numFmtId="0"/>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="91">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -551,15 +551,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="20" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -583,6 +577,26 @@
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="22" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="21" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="7" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -646,12 +660,6 @@
     </xf>
     <xf applyAlignment="1" borderId="5" fillId="21" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="22" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="21" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -25441,62 +25449,62 @@
   <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="37" width="19"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="37" width="12.33203125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="35" width="19"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="35" width="12.33203125"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="49" t="inlineStr">
         <is>
           <t>Test_Name</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="49" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="49" t="inlineStr">
         <is>
           <t>HOT</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="49" t="inlineStr">
         <is>
           <t>COLD</t>
         </is>
       </c>
-      <c r="F1" s="24" t="inlineStr">
+      <c r="F1" s="49" t="inlineStr">
         <is>
           <t>Samsung Spec</t>
         </is>
       </c>
-      <c r="G1" s="24" t="inlineStr">
+      <c r="G1" s="49" t="inlineStr">
         <is>
           <t>D1MP</t>
         </is>
       </c>
-      <c r="H1" s="33" t="inlineStr">
+      <c r="H1" s="51" t="inlineStr">
         <is>
           <t>D2MP</t>
         </is>
       </c>
-      <c r="I1" s="33" t="inlineStr">
+      <c r="I1" s="51" t="inlineStr">
         <is>
           <t>D1LP</t>
         </is>
       </c>
-      <c r="J1" s="33" t="inlineStr">
+      <c r="J1" s="51" t="inlineStr">
         <is>
           <t>D2LP</t>
         </is>
       </c>
-      <c r="K1" s="33" t="inlineStr">
+      <c r="K1" s="51" t="inlineStr">
         <is>
           <t>D3HP</t>
         </is>
@@ -25518,23 +25526,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="24" t="inlineStr">
         <is>
           <t>PCIEA Reset</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="24" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="24" t="n">
         <v>110</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="24" t="n">
         <v>-40</v>
       </c>
-      <c r="F2" s="24" t="inlineStr">
+      <c r="F2" s="49" t="inlineStr">
         <is>
           <t>VDBL</t>
         </is>
@@ -25542,13 +25550,13 @@
       <c r="G2" s="24" t="n">
         <v>19.43</v>
       </c>
-      <c r="H2" s="33" t="n">
+      <c r="H2" s="25" t="n">
         <v>18.284</v>
       </c>
-      <c r="I2" s="33" t="n">
+      <c r="I2" s="25" t="n">
         <v>23.344</v>
       </c>
-      <c r="J2" s="33" t="n">
+      <c r="J2" s="25" t="n">
         <v>22.335</v>
       </c>
       <c r="K2" s="24" t="n">
@@ -25565,23 +25573,23 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="24" t="inlineStr">
         <is>
           <t>PCIEA SPEED CHANGE</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="24" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="24" t="n">
         <v>110</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="24" t="n">
         <v>-40</v>
       </c>
-      <c r="F3" s="24" t="inlineStr">
+      <c r="F3" s="49" t="inlineStr">
         <is>
           <t>TILO</t>
         </is>
@@ -25608,31 +25616,31 @@
       <c r="Y3" s="24" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="24" t="inlineStr">
         <is>
           <t>PCIEB Reset</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="24" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="24" t="n">
         <v>110</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="24" t="n">
         <v>-40</v>
       </c>
-      <c r="F4" s="24" t="inlineStr">
+      <c r="F4" s="49" t="inlineStr">
         <is>
           <t>TILO2</t>
         </is>
       </c>
       <c r="G4" s="24" t="n"/>
-      <c r="H4" s="33" t="n"/>
-      <c r="I4" s="33" t="n"/>
-      <c r="J4" s="33" t="n"/>
+      <c r="H4" s="25" t="n"/>
+      <c r="I4" s="25" t="n"/>
+      <c r="J4" s="25" t="n"/>
       <c r="K4" s="24" t="n"/>
       <c r="W4" s="24" t="n">
         <v>7.2797</v>
@@ -25645,31 +25653,31 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="24" t="inlineStr">
         <is>
           <t>PCIEB SPEED CHANGE</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="24" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="24" t="n">
         <v>110</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="24" t="n">
         <v>-40</v>
       </c>
-      <c r="F5" s="24" t="inlineStr">
+      <c r="F5" s="49" t="inlineStr">
         <is>
           <t>LUT12</t>
         </is>
       </c>
       <c r="G5" s="24" t="n"/>
-      <c r="H5" s="33" t="n"/>
-      <c r="I5" s="33" t="n"/>
-      <c r="J5" s="33" t="n"/>
+      <c r="H5" s="25" t="n"/>
+      <c r="I5" s="25" t="n"/>
+      <c r="J5" s="25" t="n"/>
       <c r="K5" s="24" t="n"/>
       <c r="W5" s="24" t="n">
         <v>7.2548</v>
@@ -25682,23 +25690,23 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="24" t="inlineStr">
         <is>
           <t>PCIEA MCAP</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="24" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="24" t="n">
         <v>110</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="24" t="n">
         <v>-40</v>
       </c>
-      <c r="F6" s="24" t="inlineStr">
+      <c r="F6" s="49" t="inlineStr">
         <is>
           <t>GCLK</t>
         </is>
@@ -25706,13 +25714,13 @@
       <c r="G6" s="24" t="n">
         <v>4.564</v>
       </c>
-      <c r="H6" s="33" t="n">
+      <c r="H6" s="25" t="n">
         <v>4.341</v>
       </c>
-      <c r="I6" s="33" t="n">
+      <c r="I6" s="25" t="n">
         <v>4.564</v>
       </c>
-      <c r="J6" s="33" t="n">
+      <c r="J6" s="25" t="n">
         <v>4.378</v>
       </c>
       <c r="K6" s="24" t="n"/>
@@ -25727,20 +25735,20 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="24" t="inlineStr">
         <is>
           <t>PCIEA_Bridge</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="24" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="24" t="n">
         <v>110</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="24" t="n">
         <v>-40</v>
       </c>
       <c r="W7" s="24" t="n">
@@ -25750,20 +25758,20 @@
       <c r="Y7" s="24" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="24" t="inlineStr">
         <is>
           <t>PCIEA_XDMA</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="24" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="24" t="n">
         <v>110</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="24" t="n">
         <v>-40</v>
       </c>
       <c r="W8" s="24" t="n">
@@ -25777,20 +25785,20 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="24" t="inlineStr">
         <is>
           <t>PCIEB_BMD</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="24" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="24" t="n">
         <v>110</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="24" t="n">
         <v>-40</v>
       </c>
       <c r="W9" s="24" t="n">
@@ -25804,7 +25812,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="F10" t="inlineStr">
+      <c r="A10" s="24" t="n"/>
+      <c r="B10" s="24" t="n"/>
+      <c r="C10" s="24" t="n"/>
+      <c r="D10" s="24" t="n"/>
+      <c r="F10" s="52" t="inlineStr">
         <is>
           <t>Spec Line</t>
         </is>
@@ -25820,7 +25832,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="F11" s="24" t="inlineStr">
+      <c r="A11" s="24" t="n"/>
+      <c r="B11" s="24" t="n"/>
+      <c r="C11" s="24" t="n"/>
+      <c r="D11" s="24" t="n"/>
+      <c r="F11" s="49" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
@@ -25842,7 +25858,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="F12" s="24" t="n"/>
+      <c r="A12" s="24" t="n"/>
+      <c r="B12" s="24" t="n"/>
+      <c r="C12" s="24" t="n"/>
+      <c r="D12" s="24" t="n"/>
+      <c r="F12" s="49" t="n"/>
       <c r="G12" s="24" t="n">
         <v>15</v>
       </c>
@@ -25860,7 +25880,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="F13" s="24" t="inlineStr">
+      <c r="A13" s="24" t="n"/>
+      <c r="B13" s="24" t="n"/>
+      <c r="C13" s="24" t="n"/>
+      <c r="D13" s="24" t="n"/>
+      <c r="F13" s="49" t="inlineStr">
         <is>
           <t>MP</t>
         </is>
@@ -25880,23 +25904,23 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="24" t="inlineStr">
         <is>
           <t>PCIEA_EDR25G</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="24" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="24" t="n">
         <v>110</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="24" t="n">
         <v>-40</v>
       </c>
-      <c r="F14" s="24" t="n"/>
+      <c r="F14" s="49" t="n"/>
       <c r="G14" s="24" t="n"/>
       <c r="H14" s="24" t="n">
         <v>0.775</v>
@@ -25908,23 +25932,23 @@
       <c r="Y14" s="24" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="24" t="inlineStr">
         <is>
           <t>PCIEA_EDR20G</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="24" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="24" t="n">
         <v>110</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="24" t="n">
         <v>-40</v>
       </c>
-      <c r="F15" s="24" t="inlineStr">
+      <c r="F15" s="49" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
@@ -25944,23 +25968,23 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="24" t="inlineStr">
         <is>
           <t>PCIEA_BIFURCATION</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="24" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="24" t="n">
         <v>110</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="24" t="n">
         <v>-40</v>
       </c>
-      <c r="F16" s="24" t="n"/>
+      <c r="F16" s="49" t="n"/>
       <c r="G16" s="24" t="n"/>
       <c r="H16" s="24" t="n">
         <v>0.854</v>
@@ -25976,26 +26000,21 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="24" t="inlineStr">
         <is>
           <t>PCIEA_QDMA_LP</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="24" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="24" t="n">
         <v>110</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="24" t="n">
         <v>-40</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
       </c>
       <c r="W17" s="24" t="n">
         <v>6.3198</v>
@@ -26008,6 +26027,10 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" s="24" t="n"/>
+      <c r="B18" s="24" t="n"/>
+      <c r="C18" s="24" t="n"/>
+      <c r="D18" s="24" t="n"/>
       <c r="W18" s="24" t="n">
         <v>9.177</v>
       </c>
@@ -26015,7 +26038,11 @@
       <c r="Y18" s="24" t="n"/>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
+      <c r="A19" s="24" t="n"/>
+      <c r="B19" s="24" t="n"/>
+      <c r="C19" s="24" t="n"/>
+      <c r="D19" s="24" t="n"/>
+      <c r="F19" s="52" t="inlineStr">
         <is>
           <t>Dash Line</t>
         </is>
@@ -26027,15 +26054,19 @@
       <c r="Y19" s="24" t="n"/>
     </row>
     <row r="20">
-      <c r="F20" s="36" t="inlineStr">
+      <c r="A20" s="24" t="n"/>
+      <c r="B20" s="24" t="n"/>
+      <c r="C20" s="24" t="n"/>
+      <c r="D20" s="24" t="n"/>
+      <c r="F20" s="54" t="inlineStr">
         <is>
           <t>D1LP</t>
         </is>
       </c>
-      <c r="G20" s="35" t="n">
+      <c r="G20" s="34" t="n">
         <v>8.67</v>
       </c>
-      <c r="H20" s="36" t="n">
+      <c r="H20" s="33" t="n">
         <v>0</v>
       </c>
       <c r="W20" s="24" t="n">
@@ -26045,11 +26076,15 @@
       <c r="Y20" s="24" t="n"/>
     </row>
     <row r="21">
-      <c r="F21" s="36" t="n"/>
-      <c r="G21" s="35" t="n">
+      <c r="A21" s="24" t="n"/>
+      <c r="B21" s="24" t="n"/>
+      <c r="C21" s="24" t="n"/>
+      <c r="D21" s="24" t="n"/>
+      <c r="F21" s="54" t="n"/>
+      <c r="G21" s="34" t="n">
         <v>8.67</v>
       </c>
-      <c r="H21" s="36" t="n">
+      <c r="H21" s="33" t="n">
         <v>1</v>
       </c>
       <c r="W21" s="24" t="n">
@@ -26063,15 +26098,19 @@
       </c>
     </row>
     <row r="22">
-      <c r="F22" s="36" t="inlineStr">
+      <c r="A22" s="24" t="n"/>
+      <c r="B22" s="24" t="n"/>
+      <c r="C22" s="24" t="n"/>
+      <c r="D22" s="24" t="n"/>
+      <c r="F22" s="54" t="inlineStr">
         <is>
           <t>D2LP</t>
         </is>
       </c>
-      <c r="G22" s="35" t="n">
+      <c r="G22" s="34" t="n">
         <v>8.266999999999999</v>
       </c>
-      <c r="H22" s="36" t="n"/>
+      <c r="H22" s="33" t="n"/>
       <c r="W22" s="24" t="n">
         <v>6.1017</v>
       </c>
@@ -26083,11 +26122,15 @@
       </c>
     </row>
     <row r="23">
-      <c r="F23" s="36" t="n"/>
-      <c r="G23" s="35" t="n">
+      <c r="A23" s="24" t="n"/>
+      <c r="B23" s="24" t="n"/>
+      <c r="C23" s="24" t="n"/>
+      <c r="D23" s="24" t="n"/>
+      <c r="F23" s="54" t="n"/>
+      <c r="G23" s="34" t="n">
         <v>8.266999999999999</v>
       </c>
-      <c r="H23" s="36" t="n"/>
+      <c r="H23" s="33" t="n"/>
       <c r="W23" s="24" t="n">
         <v>6.0512</v>
       </c>
@@ -26095,73 +26138,93 @@
       <c r="Y23" s="24" t="n"/>
     </row>
     <row r="24">
-      <c r="F24" s="36" t="inlineStr">
+      <c r="A24" s="24" t="n"/>
+      <c r="B24" s="24" t="n"/>
+      <c r="C24" s="24" t="n"/>
+      <c r="D24" s="24" t="n"/>
+      <c r="F24" s="54" t="inlineStr">
         <is>
           <t>D1MP</t>
         </is>
       </c>
-      <c r="G24" s="35" t="n">
+      <c r="G24" s="34" t="n">
         <v>6.976</v>
       </c>
-      <c r="H24" s="36" t="n"/>
+      <c r="H24" s="33" t="n"/>
       <c r="W24" s="24" t="n"/>
       <c r="X24" s="24" t="n"/>
       <c r="Y24" s="24" t="n"/>
     </row>
     <row r="25">
-      <c r="F25" s="36" t="n"/>
-      <c r="G25" s="35" t="n">
+      <c r="A25" s="24" t="n"/>
+      <c r="B25" s="24" t="n"/>
+      <c r="C25" s="24" t="n"/>
+      <c r="D25" s="24" t="n"/>
+      <c r="F25" s="54" t="n"/>
+      <c r="G25" s="34" t="n">
         <v>6.976</v>
       </c>
-      <c r="H25" s="36" t="n"/>
+      <c r="H25" s="33" t="n"/>
       <c r="W25" s="24" t="n"/>
       <c r="X25" s="24" t="n"/>
       <c r="Y25" s="24" t="n"/>
     </row>
     <row r="26">
-      <c r="F26" s="36" t="inlineStr">
+      <c r="A26" s="24" t="n"/>
+      <c r="B26" s="24" t="n"/>
+      <c r="C26" s="24" t="n"/>
+      <c r="D26" s="24" t="n"/>
+      <c r="F26" s="54" t="inlineStr">
         <is>
           <t>D2MP</t>
         </is>
       </c>
-      <c r="G26" s="35" t="n">
+      <c r="G26" s="34" t="n">
         <v>6.52</v>
       </c>
-      <c r="H26" s="36" t="n"/>
+      <c r="H26" s="33" t="n"/>
       <c r="W26" s="24" t="n"/>
       <c r="X26" s="24" t="n"/>
       <c r="Y26" s="24" t="n"/>
     </row>
     <row r="27">
-      <c r="F27" s="36" t="n"/>
-      <c r="G27" s="35" t="n">
+      <c r="A27" s="24" t="n"/>
+      <c r="B27" s="24" t="n"/>
+      <c r="C27" s="24" t="n"/>
+      <c r="D27" s="24" t="n"/>
+      <c r="F27" s="54" t="n"/>
+      <c r="G27" s="34" t="n">
         <v>6.52</v>
       </c>
-      <c r="H27" s="36" t="n"/>
+      <c r="H27" s="33" t="n"/>
       <c r="W27" s="24" t="n"/>
       <c r="X27" s="24" t="n"/>
       <c r="Y27" s="24" t="n"/>
     </row>
     <row r="28">
-      <c r="F28" s="36" t="inlineStr">
+      <c r="A28" s="24" t="n"/>
+      <c r="B28" s="24" t="n"/>
+      <c r="C28" s="24" t="n"/>
+      <c r="D28" s="24" t="n"/>
+      <c r="F28" s="54" t="inlineStr">
         <is>
           <t>D3HP</t>
         </is>
       </c>
-      <c r="G28" s="36" t="n">
+      <c r="G28" s="33" t="n">
         <v>5.817</v>
       </c>
-      <c r="H28" s="36" t="n"/>
+      <c r="H28" s="33" t="n"/>
       <c r="W28" s="24" t="n"/>
       <c r="X28" s="24" t="n"/>
       <c r="Y28" s="24" t="n"/>
     </row>
     <row r="29">
-      <c r="F29" s="36" t="n"/>
-      <c r="G29" s="36" t="n">
+      <c r="F29" s="54" t="n"/>
+      <c r="G29" s="33" t="n">
         <v>5.817</v>
       </c>
-      <c r="H29" s="36" t="n"/>
+      <c r="H29" s="33" t="n"/>
       <c r="W29" s="24" t="n"/>
       <c r="X29" s="24" t="n"/>
       <c r="Y29" s="24" t="n"/>
@@ -26246,12 +26309,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="86" t="inlineStr">
+      <c r="A2" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
       </c>
-      <c r="L2" s="86" t="inlineStr">
+      <c r="L2" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
@@ -26417,12 +26480,12 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="86" t="inlineStr">
+      <c r="A20" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
       </c>
-      <c r="L20" s="86" t="inlineStr">
+      <c r="L20" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
@@ -26533,12 +26596,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="86" t="inlineStr">
+      <c r="A2" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
       </c>
-      <c r="L2" s="86" t="inlineStr">
+      <c r="L2" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
@@ -26688,12 +26751,12 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="86" t="inlineStr">
+      <c r="A20" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
       </c>
-      <c r="L20" s="86" t="inlineStr">
+      <c r="L20" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
@@ -26817,225 +26880,225 @@
       <c r="Y1" s="1" t="n"/>
       <c r="AA1" s="1" t="n"/>
     </row>
-    <row customHeight="1" ht="14.4" r="2" s="37">
+    <row customHeight="1" ht="14.4" r="2" s="35">
       <c r="E2" s="1" t="n"/>
       <c r="F2" s="1" t="n"/>
       <c r="G2" s="1" t="n"/>
       <c r="H2" s="1" t="n"/>
       <c r="I2" s="1" t="n"/>
       <c r="J2" s="1" t="n"/>
-      <c r="K2" s="49" t="inlineStr">
+      <c r="K2" s="55" t="inlineStr">
         <is>
           <t>PCIEA Reset</t>
         </is>
       </c>
-      <c r="L2" s="72" t="n"/>
-      <c r="M2" s="72" t="n"/>
-      <c r="N2" s="73" t="n"/>
-      <c r="O2" s="49" t="inlineStr">
+      <c r="L2" s="76" t="n"/>
+      <c r="M2" s="76" t="n"/>
+      <c r="N2" s="77" t="n"/>
+      <c r="O2" s="55" t="inlineStr">
         <is>
           <t>PCIEA SPEED CHANGE</t>
         </is>
       </c>
-      <c r="P2" s="72" t="n"/>
-      <c r="Q2" s="72" t="n"/>
-      <c r="R2" s="73" t="n"/>
-      <c r="S2" s="49" t="inlineStr">
+      <c r="P2" s="76" t="n"/>
+      <c r="Q2" s="76" t="n"/>
+      <c r="R2" s="77" t="n"/>
+      <c r="S2" s="55" t="inlineStr">
         <is>
           <t>PCIEB Reset</t>
         </is>
       </c>
-      <c r="T2" s="72" t="n"/>
-      <c r="U2" s="72" t="n"/>
-      <c r="V2" s="73" t="n"/>
-      <c r="W2" s="49" t="inlineStr">
+      <c r="T2" s="76" t="n"/>
+      <c r="U2" s="76" t="n"/>
+      <c r="V2" s="77" t="n"/>
+      <c r="W2" s="55" t="inlineStr">
         <is>
           <t>PCIEB SPEED CHANGE</t>
         </is>
       </c>
-      <c r="X2" s="72" t="n"/>
-      <c r="Y2" s="72" t="n"/>
-      <c r="Z2" s="73" t="n"/>
-      <c r="AA2" s="49" t="inlineStr">
+      <c r="X2" s="76" t="n"/>
+      <c r="Y2" s="76" t="n"/>
+      <c r="Z2" s="77" t="n"/>
+      <c r="AA2" s="55" t="inlineStr">
         <is>
           <t>PCIEA MCAP</t>
         </is>
       </c>
-      <c r="AB2" s="72" t="n"/>
-      <c r="AC2" s="72" t="n"/>
-      <c r="AD2" s="73" t="n"/>
-      <c r="AE2" s="49" t="inlineStr">
+      <c r="AB2" s="76" t="n"/>
+      <c r="AC2" s="76" t="n"/>
+      <c r="AD2" s="77" t="n"/>
+      <c r="AE2" s="55" t="inlineStr">
         <is>
           <t>PCIEA_Bridge</t>
         </is>
       </c>
-      <c r="AF2" s="73" t="n"/>
-      <c r="AG2" s="49" t="inlineStr">
+      <c r="AF2" s="77" t="n"/>
+      <c r="AG2" s="55" t="inlineStr">
         <is>
           <t>PCIEA_XDMA</t>
         </is>
       </c>
-      <c r="AH2" s="73" t="n"/>
-      <c r="AI2" s="49" t="inlineStr">
+      <c r="AH2" s="77" t="n"/>
+      <c r="AI2" s="55" t="inlineStr">
         <is>
           <t>PCIEB_BMD</t>
         </is>
       </c>
-      <c r="AJ2" s="72" t="n"/>
-      <c r="AK2" s="72" t="n"/>
-      <c r="AL2" s="73" t="n"/>
-      <c r="AM2" s="49" t="inlineStr">
+      <c r="AJ2" s="76" t="n"/>
+      <c r="AK2" s="76" t="n"/>
+      <c r="AL2" s="77" t="n"/>
+      <c r="AM2" s="55" t="inlineStr">
         <is>
           <t>PCIEA_EDR25G</t>
         </is>
       </c>
-      <c r="AN2" s="72" t="n"/>
-      <c r="AO2" s="72" t="n"/>
-      <c r="AP2" s="73" t="n"/>
-      <c r="AQ2" s="49" t="inlineStr">
+      <c r="AN2" s="76" t="n"/>
+      <c r="AO2" s="76" t="n"/>
+      <c r="AP2" s="77" t="n"/>
+      <c r="AQ2" s="55" t="inlineStr">
         <is>
           <t>PCIEA_EDR20G</t>
         </is>
       </c>
-      <c r="AR2" s="72" t="n"/>
-      <c r="AS2" s="72" t="n"/>
-      <c r="AT2" s="73" t="n"/>
-      <c r="AU2" s="49" t="n"/>
-      <c r="AV2" s="73" t="n"/>
-      <c r="AW2" s="49" t="n"/>
-      <c r="AX2" s="73" t="n"/>
+      <c r="AR2" s="76" t="n"/>
+      <c r="AS2" s="76" t="n"/>
+      <c r="AT2" s="77" t="n"/>
+      <c r="AU2" s="55" t="n"/>
+      <c r="AV2" s="77" t="n"/>
+      <c r="AW2" s="55" t="n"/>
+      <c r="AX2" s="77" t="n"/>
     </row>
     <row r="3">
-      <c r="E3" s="55" t="inlineStr">
+      <c r="E3" s="61" t="inlineStr">
         <is>
           <t>TILO - 0.854VCCINT</t>
         </is>
       </c>
-      <c r="F3" s="73" t="n"/>
-      <c r="G3" s="74" t="inlineStr">
+      <c r="F3" s="77" t="n"/>
+      <c r="G3" s="78" t="inlineStr">
         <is>
           <t>TILO - 0.775VCCINT</t>
         </is>
       </c>
-      <c r="H3" s="73" t="n"/>
-      <c r="I3" s="55" t="inlineStr">
+      <c r="H3" s="77" t="n"/>
+      <c r="I3" s="61" t="inlineStr">
         <is>
           <t>TILO - 0.676VCCINT</t>
         </is>
       </c>
-      <c r="J3" s="73" t="n"/>
-      <c r="K3" s="52" t="inlineStr">
+      <c r="J3" s="77" t="n"/>
+      <c r="K3" s="58" t="inlineStr">
         <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="L3" s="73" t="n"/>
-      <c r="M3" s="75" t="inlineStr">
+      <c r="L3" s="77" t="n"/>
+      <c r="M3" s="79" t="inlineStr">
         <is>
           <t>EP</t>
         </is>
       </c>
-      <c r="N3" s="73" t="n"/>
-      <c r="O3" s="52" t="inlineStr">
+      <c r="N3" s="77" t="n"/>
+      <c r="O3" s="58" t="inlineStr">
         <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="P3" s="73" t="n"/>
-      <c r="Q3" s="75" t="inlineStr">
+      <c r="P3" s="77" t="n"/>
+      <c r="Q3" s="79" t="inlineStr">
         <is>
           <t>EP</t>
         </is>
       </c>
-      <c r="R3" s="73" t="n"/>
-      <c r="S3" s="52" t="inlineStr">
+      <c r="R3" s="77" t="n"/>
+      <c r="S3" s="58" t="inlineStr">
         <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="T3" s="73" t="n"/>
-      <c r="U3" s="75" t="inlineStr">
+      <c r="T3" s="77" t="n"/>
+      <c r="U3" s="79" t="inlineStr">
         <is>
           <t>EP</t>
         </is>
       </c>
-      <c r="V3" s="73" t="n"/>
-      <c r="W3" s="52" t="inlineStr">
+      <c r="V3" s="77" t="n"/>
+      <c r="W3" s="58" t="inlineStr">
         <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="X3" s="73" t="n"/>
-      <c r="Y3" s="75" t="inlineStr">
+      <c r="X3" s="77" t="n"/>
+      <c r="Y3" s="79" t="inlineStr">
         <is>
           <t>EP</t>
         </is>
       </c>
-      <c r="Z3" s="73" t="n"/>
-      <c r="AA3" s="52" t="inlineStr">
+      <c r="Z3" s="77" t="n"/>
+      <c r="AA3" s="58" t="inlineStr">
         <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="AB3" s="73" t="n"/>
-      <c r="AC3" s="75" t="inlineStr">
+      <c r="AB3" s="77" t="n"/>
+      <c r="AC3" s="79" t="inlineStr">
         <is>
           <t>EP</t>
         </is>
       </c>
-      <c r="AD3" s="73" t="n"/>
-      <c r="AE3" s="52" t="inlineStr">
+      <c r="AD3" s="77" t="n"/>
+      <c r="AE3" s="58" t="inlineStr">
         <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="AF3" s="73" t="n"/>
-      <c r="AG3" s="75" t="inlineStr">
+      <c r="AF3" s="77" t="n"/>
+      <c r="AG3" s="79" t="inlineStr">
         <is>
           <t>EP</t>
         </is>
       </c>
-      <c r="AH3" s="73" t="n"/>
-      <c r="AI3" s="52" t="inlineStr">
+      <c r="AH3" s="77" t="n"/>
+      <c r="AI3" s="58" t="inlineStr">
         <is>
           <t>EP Gen3x16</t>
         </is>
       </c>
-      <c r="AJ3" s="73" t="n"/>
-      <c r="AK3" s="75" t="inlineStr">
+      <c r="AJ3" s="77" t="n"/>
+      <c r="AK3" s="79" t="inlineStr">
         <is>
           <t>EP Gen4x8</t>
         </is>
       </c>
-      <c r="AL3" s="73" t="n"/>
-      <c r="AM3" s="52" t="inlineStr">
+      <c r="AL3" s="77" t="n"/>
+      <c r="AM3" s="58" t="inlineStr">
         <is>
           <t>RP</t>
         </is>
       </c>
-      <c r="AN3" s="73" t="n"/>
-      <c r="AO3" s="75" t="inlineStr">
+      <c r="AN3" s="77" t="n"/>
+      <c r="AO3" s="79" t="inlineStr">
         <is>
           <t>EP</t>
         </is>
       </c>
-      <c r="AP3" s="73" t="n"/>
-      <c r="AQ3" s="52" t="inlineStr">
+      <c r="AP3" s="77" t="n"/>
+      <c r="AQ3" s="58" t="inlineStr">
         <is>
           <t>RP</t>
         </is>
       </c>
-      <c r="AR3" s="73" t="n"/>
-      <c r="AS3" s="75" t="inlineStr">
+      <c r="AR3" s="77" t="n"/>
+      <c r="AS3" s="79" t="inlineStr">
         <is>
           <t>EP</t>
         </is>
       </c>
-      <c r="AT3" s="73" t="n"/>
-      <c r="AU3" s="75" t="n"/>
-      <c r="AV3" s="73" t="n"/>
-      <c r="AW3" s="75" t="n"/>
-      <c r="AX3" s="73" t="n"/>
+      <c r="AT3" s="77" t="n"/>
+      <c r="AU3" s="79" t="n"/>
+      <c r="AV3" s="77" t="n"/>
+      <c r="AW3" s="79" t="n"/>
+      <c r="AX3" s="77" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n"/>
@@ -28414,7 +28477,7 @@
       <c r="AW13" s="9" t="n"/>
       <c r="AX13" s="9" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="14" s="37" thickBot="1">
+    <row customHeight="1" ht="15" r="14" s="35" thickBot="1">
       <c r="B14" s="6" t="n">
         <v>10</v>
       </c>
@@ -28525,7 +28588,7 @@
       <c r="AW14" s="9" t="n"/>
       <c r="AX14" s="9" t="n"/>
     </row>
-    <row customHeight="1" ht="15.6" r="15" s="37" thickBot="1" thickTop="1">
+    <row customHeight="1" ht="15.6" r="15" s="35" thickBot="1" thickTop="1">
       <c r="B15" s="6" t="n">
         <v>11</v>
       </c>
@@ -28656,7 +28719,7 @@
       <c r="AW15" s="9" t="n"/>
       <c r="AX15" s="13" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="16" s="37" thickTop="1">
+    <row customHeight="1" ht="15" r="16" s="35" thickTop="1">
       <c r="B16" s="6" t="n">
         <v>12</v>
       </c>
@@ -30671,7 +30734,7 @@
       <c r="AW40" s="9" t="n"/>
       <c r="AX40" s="9" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="41" s="37" thickBot="1">
+    <row customHeight="1" ht="15" r="41" s="35" thickBot="1">
       <c r="E41" s="1" t="n"/>
       <c r="F41" s="1" t="n"/>
       <c r="G41" s="1" t="n"/>
@@ -30795,7 +30858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="42" s="37" thickTop="1"/>
+    <row customHeight="1" ht="15" r="42" s="35" thickTop="1"/>
   </sheetData>
   <mergeCells count="35">
     <mergeCell ref="AU3:AV3"/>
@@ -30860,1635 +30923,1635 @@
       <pane activePane="bottomRight" state="frozen" topLeftCell="B6" xSplit="1" ySplit="5"/>
       <selection activeCell="B1" pane="topRight" sqref="B1"/>
       <selection activeCell="A6" pane="bottomLeft" sqref="A6"/>
-      <selection activeCell="E16" pane="bottomRight" sqref="E16"/>
+      <selection activeCell="B2" pane="bottomRight" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="37" width="26.77734375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="37" width="13.21875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="37" width="10.6640625"/>
-    <col customWidth="1" max="10" min="5" style="37" width="12.77734375"/>
+    <col customWidth="1" max="2" min="2" style="35" width="26.77734375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="35" width="13.21875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="35" width="10.6640625"/>
+    <col customWidth="1" max="10" min="5" style="35" width="12.77734375"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="25.8" r="2" s="37">
-      <c r="B2" s="61" t="inlineStr">
+    <row customHeight="1" ht="25.8" r="2" s="35">
+      <c r="B2" s="67" t="inlineStr">
         <is>
           <t>Versal VC1902 ES2 PCIE Final Report</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="76" t="inlineStr">
+      <c r="B4" s="80" t="inlineStr">
         <is>
           <t>Pattern Name</t>
         </is>
       </c>
-      <c r="C4" s="77" t="inlineStr">
+      <c r="C4" s="81" t="inlineStr">
         <is>
           <t>Temperature</t>
         </is>
       </c>
-      <c r="D4" s="77" t="inlineStr">
+      <c r="D4" s="81" t="inlineStr">
         <is>
           <t>Vmin Spec</t>
         </is>
       </c>
-      <c r="E4" s="70" t="inlineStr">
+      <c r="E4" s="47" t="inlineStr">
         <is>
           <t>Dash-1</t>
         </is>
       </c>
-      <c r="F4" s="73" t="n"/>
-      <c r="G4" s="71" t="inlineStr">
+      <c r="F4" s="77" t="n"/>
+      <c r="G4" s="48" t="inlineStr">
         <is>
           <t>Dash-2</t>
         </is>
       </c>
-      <c r="H4" s="73" t="n"/>
-      <c r="I4" s="70" t="inlineStr">
+      <c r="H4" s="77" t="n"/>
+      <c r="I4" s="47" t="inlineStr">
         <is>
           <t>Dash-3</t>
         </is>
       </c>
-      <c r="J4" s="73" t="n"/>
+      <c r="J4" s="77" t="n"/>
     </row>
     <row r="5">
-      <c r="B5" s="78" t="n"/>
-      <c r="C5" s="78" t="n"/>
-      <c r="D5" s="78" t="n"/>
-      <c r="E5" s="70" t="inlineStr">
+      <c r="B5" s="82" t="n"/>
+      <c r="C5" s="82" t="n"/>
+      <c r="D5" s="82" t="n"/>
+      <c r="E5" s="47" t="inlineStr">
         <is>
           <t>Margin (mv)</t>
         </is>
       </c>
-      <c r="F5" s="70" t="inlineStr">
+      <c r="F5" s="47" t="inlineStr">
         <is>
           <t>Margin (%)</t>
         </is>
       </c>
-      <c r="G5" s="71" t="inlineStr">
+      <c r="G5" s="48" t="inlineStr">
         <is>
           <t>Margin (mv)</t>
         </is>
       </c>
-      <c r="H5" s="71" t="inlineStr">
+      <c r="H5" s="48" t="inlineStr">
         <is>
           <t>Margin  (%)</t>
         </is>
       </c>
-      <c r="I5" s="70" t="inlineStr">
+      <c r="I5" s="47" t="inlineStr">
         <is>
           <t>Margin (mv)</t>
         </is>
       </c>
-      <c r="J5" s="70" t="inlineStr">
+      <c r="J5" s="47" t="inlineStr">
         <is>
           <t>Margin (%)</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="45" t="inlineStr">
+      <c r="B6" s="43" t="inlineStr">
         <is>
           <t>PCIEA Reset RC</t>
         </is>
       </c>
-      <c r="C6" s="44" t="n">
+      <c r="C6" s="42" t="n">
         <v>110</v>
       </c>
-      <c r="D6" s="44" t="inlineStr">
+      <c r="D6" s="42" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E6" s="42" t="n">
+      <c r="E6" s="40" t="n">
         <v>2.805139066879736</v>
       </c>
-      <c r="F6" s="43" t="n">
+      <c r="F6" s="41" t="n">
         <v>0.004149614004259964</v>
       </c>
-      <c r="G6" s="42" t="n">
+      <c r="G6" s="40" t="n">
         <v>5.444943831116267</v>
       </c>
-      <c r="H6" s="43" t="n">
+      <c r="H6" s="41" t="n">
         <v>0.008054650637745957</v>
       </c>
-      <c r="I6" s="42" t="n"/>
-      <c r="J6" s="43" t="n"/>
+      <c r="I6" s="40" t="n"/>
+      <c r="J6" s="41" t="n"/>
     </row>
     <row r="7">
-      <c r="B7" s="78" t="n"/>
-      <c r="C7" s="79" t="n">
+      <c r="B7" s="82" t="n"/>
+      <c r="C7" s="83" t="n">
         <v>-40</v>
       </c>
-      <c r="D7" s="79" t="inlineStr">
+      <c r="D7" s="83" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E7" s="80" t="n">
+      <c r="E7" s="84" t="n">
         <v>-13.28808233433987</v>
       </c>
-      <c r="F7" s="81" t="n">
+      <c r="F7" s="85" t="n">
         <v>-0.01965692653008856</v>
       </c>
-      <c r="G7" s="80" t="n">
+      <c r="G7" s="84" t="n">
         <v>-0.1466572636549257</v>
       </c>
-      <c r="H7" s="81" t="n">
+      <c r="H7" s="85" t="n">
         <v>-0.0002169486148741504</v>
       </c>
-      <c r="I7" s="82" t="n"/>
-      <c r="J7" s="83" t="n"/>
+      <c r="I7" s="86" t="n"/>
+      <c r="J7" s="87" t="n"/>
     </row>
     <row r="8">
-      <c r="B8" s="45" t="inlineStr">
+      <c r="B8" s="43" t="inlineStr">
         <is>
           <t>PCIEA Reset EP</t>
         </is>
       </c>
-      <c r="C8" s="44" t="n">
+      <c r="C8" s="42" t="n">
         <v>110</v>
       </c>
-      <c r="D8" s="44" t="inlineStr">
+      <c r="D8" s="42" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E8" s="84" t="n">
+      <c r="E8" s="88" t="n">
         <v>-0.8650995545205209</v>
       </c>
-      <c r="F8" s="85" t="n">
+      <c r="F8" s="89" t="n">
         <v>-0.001279733068817338</v>
       </c>
-      <c r="G8" s="42" t="n">
+      <c r="G8" s="40" t="n">
         <v>1.616403884382889</v>
       </c>
-      <c r="H8" s="43" t="n">
+      <c r="H8" s="41" t="n">
         <v>0.002391130006483563</v>
       </c>
-      <c r="I8" s="42" t="n"/>
-      <c r="J8" s="43" t="n"/>
+      <c r="I8" s="40" t="n"/>
+      <c r="J8" s="41" t="n"/>
     </row>
     <row r="9">
-      <c r="B9" s="78" t="n"/>
-      <c r="C9" s="79" t="n">
+      <c r="B9" s="82" t="n"/>
+      <c r="C9" s="83" t="n">
         <v>-40</v>
       </c>
-      <c r="D9" s="79" t="inlineStr">
+      <c r="D9" s="83" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E9" s="82" t="n">
+      <c r="E9" s="86" t="n">
         <v>6.817997329459979</v>
       </c>
-      <c r="F9" s="83" t="n">
+      <c r="F9" s="87" t="n">
         <v>0.01008579486606506</v>
       </c>
-      <c r="G9" s="82" t="n">
+      <c r="G9" s="86" t="n">
         <v>18.85055675106273</v>
       </c>
-      <c r="H9" s="83" t="n">
+      <c r="H9" s="87" t="n">
         <v>0.02788543898086203</v>
       </c>
-      <c r="I9" s="82" t="n"/>
-      <c r="J9" s="83" t="n"/>
+      <c r="I9" s="86" t="n"/>
+      <c r="J9" s="87" t="n"/>
     </row>
     <row r="10">
-      <c r="B10" s="45" t="inlineStr">
+      <c r="B10" s="43" t="inlineStr">
         <is>
           <t>PCIEA SPEED CHANGE RC</t>
         </is>
       </c>
-      <c r="C10" s="44" t="n">
+      <c r="C10" s="42" t="n">
         <v>110</v>
       </c>
-      <c r="D10" s="44" t="inlineStr">
+      <c r="D10" s="42" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E10" s="42" t="n">
+      <c r="E10" s="40" t="n">
         <v>2.805139066879736</v>
       </c>
-      <c r="F10" s="43" t="n">
+      <c r="F10" s="41" t="n">
         <v>0.004149614004259964</v>
       </c>
-      <c r="G10" s="42" t="n">
+      <c r="G10" s="40" t="n">
         <v>5.444943831116267</v>
       </c>
-      <c r="H10" s="43" t="n">
+      <c r="H10" s="41" t="n">
         <v>0.008054650637745957</v>
       </c>
-      <c r="I10" s="42" t="n"/>
-      <c r="J10" s="43" t="n"/>
+      <c r="I10" s="40" t="n"/>
+      <c r="J10" s="41" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" s="78" t="n"/>
-      <c r="C11" s="79" t="n">
+      <c r="B11" s="82" t="n"/>
+      <c r="C11" s="83" t="n">
         <v>-40</v>
       </c>
-      <c r="D11" s="79" t="inlineStr">
+      <c r="D11" s="83" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E11" s="80" t="n">
+      <c r="E11" s="84" t="n">
         <v>-13.28808233433987</v>
       </c>
-      <c r="F11" s="81" t="n">
+      <c r="F11" s="85" t="n">
         <v>-0.01965692653008856</v>
       </c>
-      <c r="G11" s="80" t="n">
+      <c r="G11" s="84" t="n">
         <v>-0.1466572636549257</v>
       </c>
-      <c r="H11" s="81" t="n">
+      <c r="H11" s="85" t="n">
         <v>-0.0002169486148741504</v>
       </c>
-      <c r="I11" s="82" t="n"/>
-      <c r="J11" s="83" t="n"/>
+      <c r="I11" s="86" t="n"/>
+      <c r="J11" s="87" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" s="45" t="inlineStr">
+      <c r="B12" s="43" t="inlineStr">
         <is>
           <t>PCIEA SPEED CHANGE EP</t>
         </is>
       </c>
-      <c r="C12" s="44" t="n">
+      <c r="C12" s="42" t="n">
         <v>110</v>
       </c>
-      <c r="D12" s="44" t="inlineStr">
+      <c r="D12" s="42" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E12" s="84" t="n">
+      <c r="E12" s="88" t="n">
         <v>-0.8650995545205209</v>
       </c>
-      <c r="F12" s="85" t="n">
+      <c r="F12" s="89" t="n">
         <v>-0.001279733068817338</v>
       </c>
-      <c r="G12" s="42" t="n">
+      <c r="G12" s="40" t="n">
         <v>1.616403884382889</v>
       </c>
-      <c r="H12" s="43" t="n">
+      <c r="H12" s="41" t="n">
         <v>0.002391130006483563</v>
       </c>
-      <c r="I12" s="42" t="n"/>
-      <c r="J12" s="43" t="n"/>
+      <c r="I12" s="40" t="n"/>
+      <c r="J12" s="41" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" s="78" t="n"/>
-      <c r="C13" s="79" t="n">
+      <c r="B13" s="82" t="n"/>
+      <c r="C13" s="83" t="n">
         <v>-40</v>
       </c>
-      <c r="D13" s="79" t="inlineStr">
+      <c r="D13" s="83" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E13" s="82" t="n">
+      <c r="E13" s="86" t="n">
         <v>6.817997329459979</v>
       </c>
-      <c r="F13" s="83" t="n">
+      <c r="F13" s="87" t="n">
         <v>0.01008579486606506</v>
       </c>
-      <c r="G13" s="82" t="n">
+      <c r="G13" s="86" t="n">
         <v>18.85055675106273</v>
       </c>
-      <c r="H13" s="83" t="n">
+      <c r="H13" s="87" t="n">
         <v>0.02788543898086203</v>
       </c>
-      <c r="I13" s="82" t="n"/>
-      <c r="J13" s="83" t="n"/>
+      <c r="I13" s="86" t="n"/>
+      <c r="J13" s="87" t="n"/>
     </row>
     <row r="14">
-      <c r="B14" s="45" t="inlineStr">
+      <c r="B14" s="43" t="inlineStr">
         <is>
           <t>PCIEB Reset RC</t>
         </is>
       </c>
-      <c r="C14" s="44" t="n">
+      <c r="C14" s="42" t="n">
         <v>110</v>
       </c>
-      <c r="D14" s="44" t="inlineStr">
+      <c r="D14" s="42" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E14" s="84" t="n">
+      <c r="E14" s="88" t="n">
         <v>-62.20125982797531</v>
       </c>
-      <c r="F14" s="85" t="n">
+      <c r="F14" s="89" t="n">
         <v>-0.09201369797037767</v>
       </c>
-      <c r="G14" s="84" t="n">
+      <c r="G14" s="88" t="n">
         <v>-43.86867065502009</v>
       </c>
-      <c r="H14" s="85" t="n">
+      <c r="H14" s="89" t="n">
         <v>-0.06489448321748534</v>
       </c>
-      <c r="I14" s="42" t="n"/>
-      <c r="J14" s="43" t="n"/>
+      <c r="I14" s="40" t="n"/>
+      <c r="J14" s="41" t="n"/>
     </row>
     <row r="15">
-      <c r="B15" s="78" t="n"/>
-      <c r="C15" s="79" t="n">
+      <c r="B15" s="82" t="n"/>
+      <c r="C15" s="83" t="n">
         <v>-40</v>
       </c>
-      <c r="D15" s="79" t="inlineStr">
+      <c r="D15" s="83" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E15" s="80" t="n">
+      <c r="E15" s="84" t="n">
         <v>-35.50269857761889</v>
       </c>
-      <c r="F15" s="81" t="n">
+      <c r="F15" s="85" t="n">
         <v>-0.05251878487813446</v>
       </c>
-      <c r="G15" s="80" t="n">
+      <c r="G15" s="84" t="n">
         <v>-18.9978858841604</v>
       </c>
-      <c r="H15" s="81" t="n">
+      <c r="H15" s="85" t="n">
         <v>-0.02810338148544438</v>
       </c>
-      <c r="I15" s="82" t="n"/>
-      <c r="J15" s="83" t="n"/>
+      <c r="I15" s="86" t="n"/>
+      <c r="J15" s="87" t="n"/>
     </row>
     <row r="16">
-      <c r="B16" s="45" t="inlineStr">
+      <c r="B16" s="43" t="inlineStr">
         <is>
           <t>PCIEB Reset EP</t>
         </is>
       </c>
-      <c r="C16" s="44" t="n">
+      <c r="C16" s="42" t="n">
         <v>110</v>
       </c>
-      <c r="D16" s="44" t="inlineStr">
+      <c r="D16" s="42" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E16" s="42" t="n">
+      <c r="E16" s="40" t="n">
         <v>54.55460304444338</v>
       </c>
-      <c r="F16" s="43" t="n">
+      <c r="F16" s="41" t="n">
         <v>0.08070207550953161</v>
       </c>
-      <c r="G16" s="42" t="n">
+      <c r="G16" s="40" t="n">
         <v>69.22775620279032</v>
       </c>
-      <c r="H16" s="43" t="n">
+      <c r="H16" s="41" t="n">
         <v>0.1024079233769087</v>
       </c>
-      <c r="I16" s="42" t="n"/>
-      <c r="J16" s="43" t="n"/>
+      <c r="I16" s="40" t="n"/>
+      <c r="J16" s="41" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" s="78" t="n"/>
-      <c r="C17" s="79" t="n">
+      <c r="B17" s="82" t="n"/>
+      <c r="C17" s="83" t="n">
         <v>-40</v>
       </c>
-      <c r="D17" s="79" t="inlineStr">
+      <c r="D17" s="83" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E17" s="80" t="n">
+      <c r="E17" s="84" t="n">
         <v>-9.882437317600745</v>
       </c>
-      <c r="F17" s="81" t="n">
+      <c r="F17" s="85" t="n">
         <v>-0.014618990114794</v>
       </c>
-      <c r="G17" s="82" t="n">
+      <c r="G17" s="86" t="n">
         <v>4.331748329893026</v>
       </c>
-      <c r="H17" s="83" t="n">
+      <c r="H17" s="87" t="n">
         <v>0.006407911730610985</v>
       </c>
-      <c r="I17" s="82" t="n"/>
-      <c r="J17" s="83" t="n"/>
+      <c r="I17" s="86" t="n"/>
+      <c r="J17" s="87" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="45" t="inlineStr">
+      <c r="B18" s="43" t="inlineStr">
         <is>
           <t>PCIEB SPEED CHANGE RC</t>
         </is>
       </c>
-      <c r="C18" s="44" t="n">
+      <c r="C18" s="42" t="n">
         <v>110</v>
       </c>
-      <c r="D18" s="44" t="inlineStr">
+      <c r="D18" s="42" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E18" s="84" t="n">
+      <c r="E18" s="88" t="n">
         <v>-62.20125982797531</v>
       </c>
-      <c r="F18" s="85" t="n">
+      <c r="F18" s="89" t="n">
         <v>-0.09201369797037767</v>
       </c>
-      <c r="G18" s="84" t="n">
+      <c r="G18" s="88" t="n">
         <v>-43.86867065502009</v>
       </c>
-      <c r="H18" s="85" t="n">
+      <c r="H18" s="89" t="n">
         <v>-0.06489448321748534</v>
       </c>
-      <c r="I18" s="42" t="n"/>
-      <c r="J18" s="43" t="n"/>
+      <c r="I18" s="40" t="n"/>
+      <c r="J18" s="41" t="n"/>
     </row>
     <row r="19">
-      <c r="B19" s="78" t="n"/>
-      <c r="C19" s="79" t="n">
+      <c r="B19" s="82" t="n"/>
+      <c r="C19" s="83" t="n">
         <v>-40</v>
       </c>
-      <c r="D19" s="79" t="inlineStr">
+      <c r="D19" s="83" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E19" s="80" t="n">
+      <c r="E19" s="84" t="n">
         <v>-118.9649449860479</v>
       </c>
-      <c r="F19" s="81" t="n">
+      <c r="F19" s="85" t="n">
         <v>-0.175983646429065</v>
       </c>
-      <c r="G19" s="80" t="n">
+      <c r="G19" s="84" t="n">
         <v>-97.6002259388391</v>
       </c>
-      <c r="H19" s="81" t="n">
+      <c r="H19" s="85" t="n">
         <v>-0.144379032453904</v>
       </c>
-      <c r="I19" s="82" t="n"/>
-      <c r="J19" s="83" t="n"/>
+      <c r="I19" s="86" t="n"/>
+      <c r="J19" s="87" t="n"/>
     </row>
     <row r="20">
-      <c r="B20" s="45" t="inlineStr">
+      <c r="B20" s="43" t="inlineStr">
         <is>
           <t>PCIEB SPEED CHANGE EP</t>
         </is>
       </c>
-      <c r="C20" s="44" t="n">
+      <c r="C20" s="42" t="n">
         <v>110</v>
       </c>
-      <c r="D20" s="44" t="inlineStr">
+      <c r="D20" s="42" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E20" s="42" t="n">
+      <c r="E20" s="40" t="n">
         <v>45.98159283384218</v>
       </c>
-      <c r="F20" s="43" t="n">
+      <c r="F20" s="41" t="n">
         <v>0.06802010774237008</v>
       </c>
-      <c r="G20" s="42" t="n">
+      <c r="G20" s="40" t="n">
         <v>60.8371859081569</v>
       </c>
-      <c r="H20" s="43" t="n">
+      <c r="H20" s="41" t="n">
         <v>0.08999583714224393</v>
       </c>
-      <c r="I20" s="42" t="n"/>
-      <c r="J20" s="43" t="n"/>
+      <c r="I20" s="40" t="n"/>
+      <c r="J20" s="41" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" s="78" t="n"/>
-      <c r="C21" s="79" t="n">
+      <c r="B21" s="82" t="n"/>
+      <c r="C21" s="83" t="n">
         <v>-40</v>
       </c>
-      <c r="D21" s="79" t="inlineStr">
+      <c r="D21" s="83" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E21" s="80" t="n">
+      <c r="E21" s="84" t="n">
         <v>-15.21196718433182</v>
       </c>
-      <c r="F21" s="81" t="n">
+      <c r="F21" s="85" t="n">
         <v>-0.02250291003599382</v>
       </c>
-      <c r="G21" s="80" t="n">
+      <c r="G21" s="84" t="n">
         <v>-0.9062421031647006</v>
       </c>
-      <c r="H21" s="81" t="n">
+      <c r="H21" s="85" t="n">
         <v>-0.001340594827166717</v>
       </c>
-      <c r="I21" s="82" t="n"/>
-      <c r="J21" s="83" t="n"/>
+      <c r="I21" s="86" t="n"/>
+      <c r="J21" s="87" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="45" t="inlineStr">
+      <c r="B22" s="43" t="inlineStr">
         <is>
           <t>PCIEA MCAP RC</t>
         </is>
       </c>
-      <c r="C22" s="44" t="n">
+      <c r="C22" s="42" t="n">
         <v>110</v>
       </c>
-      <c r="D22" s="44" t="inlineStr">
+      <c r="D22" s="42" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E22" s="84" t="n">
+      <c r="E22" s="88" t="n">
         <v>-6.0289033301969</v>
       </c>
-      <c r="F22" s="85" t="n">
+      <c r="F22" s="89" t="n">
         <v>-0.00891849605058713</v>
       </c>
-      <c r="G22" s="84" t="n">
+      <c r="G22" s="88" t="n">
         <v>-3.060062741891523</v>
       </c>
-      <c r="H22" s="85" t="n">
+      <c r="H22" s="89" t="n">
         <v>-0.004526720032383909</v>
       </c>
-      <c r="I22" s="42" t="n"/>
-      <c r="J22" s="43" t="n"/>
+      <c r="I22" s="40" t="n"/>
+      <c r="J22" s="41" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="78" t="n"/>
-      <c r="C23" s="79" t="n">
+      <c r="B23" s="82" t="n"/>
+      <c r="C23" s="83" t="n">
         <v>-40</v>
       </c>
-      <c r="D23" s="79" t="inlineStr">
+      <c r="D23" s="83" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E23" s="82" t="n">
+      <c r="E23" s="86" t="n">
         <v>4.403009718587203</v>
       </c>
-      <c r="F23" s="83" t="n">
+      <c r="F23" s="87" t="n">
         <v>0.006513327986075744</v>
       </c>
-      <c r="G23" s="82" t="n">
+      <c r="G23" s="86" t="n">
         <v>15.33809700888078</v>
       </c>
-      <c r="H23" s="83" t="n">
+      <c r="H23" s="87" t="n">
         <v>0.02268949261668754</v>
       </c>
-      <c r="I23" s="82" t="n"/>
-      <c r="J23" s="83" t="n"/>
+      <c r="I23" s="86" t="n"/>
+      <c r="J23" s="87" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="45" t="inlineStr">
+      <c r="B24" s="43" t="inlineStr">
         <is>
           <t>PCIEA_Bridge RC</t>
         </is>
       </c>
-      <c r="C24" s="44" t="n">
+      <c r="C24" s="42" t="n">
         <v>110</v>
       </c>
-      <c r="D24" s="44" t="inlineStr">
+      <c r="D24" s="42" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="E24" s="42" t="n"/>
-      <c r="F24" s="43" t="n"/>
-      <c r="G24" s="42" t="n"/>
-      <c r="H24" s="43" t="n"/>
-      <c r="I24" s="42" t="n">
+      <c r="E24" s="40" t="n"/>
+      <c r="F24" s="41" t="n"/>
+      <c r="G24" s="40" t="n"/>
+      <c r="H24" s="41" t="n"/>
+      <c r="I24" s="40" t="n">
         <v>127.2134348899894</v>
       </c>
-      <c r="J24" s="43" t="n">
+      <c r="J24" s="41" t="n">
         <v>0.1489618675526808</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="78" t="n"/>
-      <c r="C25" s="79" t="n">
+      <c r="B25" s="82" t="n"/>
+      <c r="C25" s="83" t="n">
         <v>-40</v>
       </c>
-      <c r="D25" s="79" t="inlineStr">
+      <c r="D25" s="83" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="E25" s="82" t="n"/>
-      <c r="F25" s="83" t="n"/>
-      <c r="G25" s="82" t="n"/>
-      <c r="H25" s="83" t="n"/>
-      <c r="I25" s="82" t="n">
+      <c r="E25" s="86" t="n"/>
+      <c r="F25" s="87" t="n"/>
+      <c r="G25" s="86" t="n"/>
+      <c r="H25" s="87" t="n"/>
+      <c r="I25" s="86" t="n">
         <v>24.97680174665928</v>
       </c>
-      <c r="J25" s="83" t="n">
+      <c r="J25" s="87" t="n">
         <v>0.02924684045276263</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="45" t="inlineStr">
+      <c r="B26" s="43" t="inlineStr">
         <is>
           <t>PCIEA_Bridge EP</t>
         </is>
       </c>
-      <c r="C26" s="44" t="n">
+      <c r="C26" s="42" t="n">
         <v>110</v>
       </c>
-      <c r="D26" s="44" t="inlineStr">
+      <c r="D26" s="42" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="E26" s="42" t="n"/>
-      <c r="F26" s="43" t="n"/>
-      <c r="G26" s="42" t="n"/>
-      <c r="H26" s="43" t="n"/>
-      <c r="I26" s="42" t="n">
+      <c r="E26" s="40" t="n"/>
+      <c r="F26" s="41" t="n"/>
+      <c r="G26" s="40" t="n"/>
+      <c r="H26" s="41" t="n"/>
+      <c r="I26" s="40" t="n">
         <v>120.3743107560622</v>
       </c>
-      <c r="J26" s="43" t="n">
+      <c r="J26" s="41" t="n">
         <v>0.1409535254754827</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="78" t="n"/>
-      <c r="C27" s="79" t="n">
+      <c r="B27" s="82" t="n"/>
+      <c r="C27" s="83" t="n">
         <v>-40</v>
       </c>
-      <c r="D27" s="79" t="inlineStr">
+      <c r="D27" s="83" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="E27" s="82" t="n"/>
-      <c r="F27" s="83" t="n"/>
-      <c r="G27" s="82" t="n"/>
-      <c r="H27" s="83" t="n"/>
-      <c r="I27" s="82" t="n">
+      <c r="E27" s="86" t="n"/>
+      <c r="F27" s="87" t="n"/>
+      <c r="G27" s="86" t="n"/>
+      <c r="H27" s="87" t="n"/>
+      <c r="I27" s="86" t="n">
         <v>14.81803795764414</v>
       </c>
-      <c r="J27" s="83" t="n">
+      <c r="J27" s="87" t="n">
         <v>0.01735133250309618</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="45" t="inlineStr">
+      <c r="B28" s="43" t="inlineStr">
         <is>
           <t>PCIEA_XDMA EP Gen3x16</t>
         </is>
       </c>
-      <c r="C28" s="44" t="n">
+      <c r="C28" s="42" t="n">
         <v>110</v>
       </c>
-      <c r="D28" s="44" t="inlineStr">
+      <c r="D28" s="42" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="E28" s="42" t="n"/>
-      <c r="F28" s="43" t="n"/>
-      <c r="G28" s="42" t="n"/>
-      <c r="H28" s="43" t="n"/>
-      <c r="I28" s="42" t="n">
+      <c r="E28" s="40" t="n"/>
+      <c r="F28" s="41" t="n"/>
+      <c r="G28" s="40" t="n"/>
+      <c r="H28" s="41" t="n"/>
+      <c r="I28" s="40" t="n">
         <v>234.5861377594333</v>
       </c>
-      <c r="J28" s="43" t="n">
+      <c r="J28" s="41" t="n">
         <v>0.2746910278213504</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="78" t="n"/>
-      <c r="C29" s="79" t="n">
+      <c r="B29" s="82" t="n"/>
+      <c r="C29" s="83" t="n">
         <v>-40</v>
       </c>
-      <c r="D29" s="79" t="inlineStr">
+      <c r="D29" s="83" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="E29" s="82" t="n"/>
-      <c r="F29" s="83" t="n"/>
-      <c r="G29" s="82" t="n"/>
-      <c r="H29" s="83" t="n"/>
-      <c r="I29" s="82" t="n">
+      <c r="E29" s="86" t="n"/>
+      <c r="F29" s="87" t="n"/>
+      <c r="G29" s="86" t="n"/>
+      <c r="H29" s="87" t="n"/>
+      <c r="I29" s="86" t="n">
         <v>187.5506455627229</v>
       </c>
-      <c r="J29" s="83" t="n">
+      <c r="J29" s="87" t="n">
         <v>0.2196143390664203</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="45" t="inlineStr">
+      <c r="B30" s="43" t="inlineStr">
         <is>
           <t>PCIEA_XDMA EP Gen4x8</t>
         </is>
       </c>
-      <c r="C30" s="44" t="n">
+      <c r="C30" s="42" t="n">
         <v>110</v>
       </c>
-      <c r="D30" s="44" t="inlineStr">
+      <c r="D30" s="42" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="E30" s="42" t="n"/>
-      <c r="F30" s="43" t="n"/>
-      <c r="G30" s="42" t="n"/>
-      <c r="H30" s="43" t="n"/>
-      <c r="I30" s="42" t="n">
+      <c r="E30" s="40" t="n"/>
+      <c r="F30" s="41" t="n"/>
+      <c r="G30" s="40" t="n"/>
+      <c r="H30" s="41" t="n"/>
+      <c r="I30" s="40" t="n">
         <v>232.4869178327621</v>
       </c>
-      <c r="J30" s="43" t="n">
+      <c r="J30" s="41" t="n">
         <v>0.2722329248627191</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="78" t="n"/>
-      <c r="C31" s="79" t="n">
+      <c r="B31" s="82" t="n"/>
+      <c r="C31" s="83" t="n">
         <v>-40</v>
       </c>
-      <c r="D31" s="79" t="inlineStr">
+      <c r="D31" s="83" t="inlineStr">
         <is>
           <t>HP</t>
         </is>
       </c>
-      <c r="E31" s="82" t="n"/>
-      <c r="F31" s="83" t="n"/>
-      <c r="G31" s="82" t="n"/>
-      <c r="H31" s="83" t="n"/>
-      <c r="I31" s="82" t="n">
+      <c r="E31" s="86" t="n"/>
+      <c r="F31" s="87" t="n"/>
+      <c r="G31" s="86" t="n"/>
+      <c r="H31" s="87" t="n"/>
+      <c r="I31" s="86" t="n">
         <v>175.9263981730731</v>
       </c>
-      <c r="J31" s="83" t="n">
+      <c r="J31" s="87" t="n">
         <v>0.206002808165191</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="45" t="inlineStr">
+      <c r="B32" s="43" t="inlineStr">
         <is>
           <t>PCIEB_BMD RP</t>
         </is>
       </c>
-      <c r="C32" s="44" t="n">
+      <c r="C32" s="42" t="n">
         <v>110</v>
       </c>
-      <c r="D32" s="44" t="inlineStr">
+      <c r="D32" s="42" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E32" s="84" t="n">
+      <c r="E32" s="88" t="n">
         <v>-124.2271001223475</v>
       </c>
-      <c r="F32" s="85" t="n">
+      <c r="F32" s="89" t="n">
         <v>-0.1837678995892714</v>
       </c>
-      <c r="G32" s="84" t="n">
+      <c r="G32" s="88" t="n">
         <v>-106.4677665007687</v>
       </c>
-      <c r="H32" s="85" t="n">
+      <c r="H32" s="89" t="n">
         <v>-0.1574966960070543</v>
       </c>
-      <c r="I32" s="42" t="n"/>
-      <c r="J32" s="43" t="n"/>
+      <c r="I32" s="40" t="n"/>
+      <c r="J32" s="41" t="n"/>
     </row>
     <row r="33">
-      <c r="B33" s="78" t="n"/>
-      <c r="C33" s="79" t="n">
+      <c r="B33" s="82" t="n"/>
+      <c r="C33" s="83" t="n">
         <v>-40</v>
       </c>
-      <c r="D33" s="79" t="inlineStr">
+      <c r="D33" s="83" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E33" s="80" t="n">
+      <c r="E33" s="84" t="n">
         <v>-194.1500766938916</v>
       </c>
-      <c r="F33" s="81" t="n">
+      <c r="F33" s="85" t="n">
         <v>-0.2872042554643367</v>
       </c>
-      <c r="G33" s="80" t="n">
+      <c r="G33" s="84" t="n">
         <v>-183.6180900585213</v>
       </c>
-      <c r="H33" s="81" t="n">
+      <c r="H33" s="85" t="n">
         <v>-0.2716243935776941</v>
       </c>
-      <c r="I33" s="82" t="n"/>
-      <c r="J33" s="83" t="n"/>
+      <c r="I33" s="86" t="n"/>
+      <c r="J33" s="87" t="n"/>
     </row>
     <row r="34">
-      <c r="B34" s="45" t="inlineStr">
+      <c r="B34" s="43" t="inlineStr">
         <is>
           <t>PCIEB_BMD EP</t>
         </is>
       </c>
-      <c r="C34" s="44" t="n">
+      <c r="C34" s="42" t="n">
         <v>110</v>
       </c>
-      <c r="D34" s="44" t="inlineStr">
+      <c r="D34" s="42" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E34" s="84" t="n">
+      <c r="E34" s="88" t="n">
         <v>-97.71651263847947</v>
       </c>
-      <c r="F34" s="85" t="n">
+      <c r="F34" s="89" t="n">
         <v>-0.1445510541989341</v>
       </c>
-      <c r="G34" s="84" t="n">
+      <c r="G34" s="88" t="n">
         <v>-81.91957253442183</v>
       </c>
-      <c r="H34" s="85" t="n">
+      <c r="H34" s="89" t="n">
         <v>-0.1211827996071329</v>
       </c>
-      <c r="I34" s="42" t="n"/>
-      <c r="J34" s="43" t="n"/>
+      <c r="I34" s="40" t="n"/>
+      <c r="J34" s="41" t="n"/>
     </row>
     <row r="35">
-      <c r="B35" s="78" t="n"/>
-      <c r="C35" s="79" t="n">
+      <c r="B35" s="82" t="n"/>
+      <c r="C35" s="83" t="n">
         <v>-40</v>
       </c>
-      <c r="D35" s="79" t="inlineStr">
+      <c r="D35" s="83" t="inlineStr">
         <is>
           <t>LP</t>
         </is>
       </c>
-      <c r="E35" s="80" t="n">
+      <c r="E35" s="84" t="n">
         <v>-173.4097266096892</v>
       </c>
-      <c r="F35" s="81" t="n">
+      <c r="F35" s="85" t="n">
         <v>-0.2565232642155166</v>
       </c>
-      <c r="G35" s="80" t="n">
+      <c r="G35" s="84" t="n">
         <v>-161.5442516408498</v>
       </c>
-      <c r="H35" s="81" t="n">
+      <c r="H35" s="85" t="n">
         <v>-0.2389707864509613</v>
       </c>
-      <c r="I35" s="82" t="n"/>
-      <c r="J35" s="83" t="n"/>
+      <c r="I35" s="86" t="n"/>
+      <c r="J35" s="87" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" s="45" t="n"/>
-      <c r="C36" s="44" t="n"/>
-      <c r="D36" s="44" t="n"/>
-      <c r="E36" s="42" t="n"/>
-      <c r="F36" s="43" t="n"/>
-      <c r="G36" s="42" t="n"/>
-      <c r="H36" s="43" t="n"/>
-      <c r="I36" s="42" t="n"/>
-      <c r="J36" s="43" t="n"/>
+      <c r="B36" s="43" t="n"/>
+      <c r="C36" s="42" t="n"/>
+      <c r="D36" s="42" t="n"/>
+      <c r="E36" s="40" t="n"/>
+      <c r="F36" s="41" t="n"/>
+      <c r="G36" s="40" t="n"/>
+      <c r="H36" s="41" t="n"/>
+      <c r="I36" s="40" t="n"/>
+      <c r="J36" s="41" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="45" t="n"/>
-      <c r="C37" s="44" t="n"/>
-      <c r="D37" s="44" t="n"/>
-      <c r="E37" s="42" t="n"/>
-      <c r="F37" s="43" t="n"/>
-      <c r="G37" s="42" t="n"/>
-      <c r="H37" s="43" t="n"/>
-      <c r="I37" s="42" t="n"/>
-      <c r="J37" s="43" t="n"/>
+      <c r="B37" s="43" t="n"/>
+      <c r="C37" s="42" t="n"/>
+      <c r="D37" s="42" t="n"/>
+      <c r="E37" s="40" t="n"/>
+      <c r="F37" s="41" t="n"/>
+      <c r="G37" s="40" t="n"/>
+      <c r="H37" s="41" t="n"/>
+      <c r="I37" s="40" t="n"/>
+      <c r="J37" s="41" t="n"/>
     </row>
     <row r="38">
-      <c r="B38" s="45" t="n"/>
-      <c r="C38" s="44" t="n"/>
-      <c r="D38" s="44" t="n"/>
-      <c r="E38" s="42" t="n"/>
-      <c r="F38" s="43" t="n"/>
-      <c r="G38" s="42" t="n"/>
-      <c r="H38" s="43" t="n"/>
-      <c r="I38" s="42" t="n"/>
-      <c r="J38" s="43" t="n"/>
+      <c r="B38" s="43" t="n"/>
+      <c r="C38" s="42" t="n"/>
+      <c r="D38" s="42" t="n"/>
+      <c r="E38" s="40" t="n"/>
+      <c r="F38" s="41" t="n"/>
+      <c r="G38" s="40" t="n"/>
+      <c r="H38" s="41" t="n"/>
+      <c r="I38" s="40" t="n"/>
+      <c r="J38" s="41" t="n"/>
     </row>
     <row r="39">
-      <c r="B39" s="45" t="n"/>
-      <c r="C39" s="44" t="n"/>
-      <c r="D39" s="44" t="n"/>
-      <c r="E39" s="42" t="n"/>
-      <c r="F39" s="43" t="n"/>
-      <c r="G39" s="42" t="n"/>
-      <c r="H39" s="43" t="n"/>
-      <c r="I39" s="42" t="n"/>
-      <c r="J39" s="43" t="n"/>
+      <c r="B39" s="43" t="n"/>
+      <c r="C39" s="42" t="n"/>
+      <c r="D39" s="42" t="n"/>
+      <c r="E39" s="40" t="n"/>
+      <c r="F39" s="41" t="n"/>
+      <c r="G39" s="40" t="n"/>
+      <c r="H39" s="41" t="n"/>
+      <c r="I39" s="40" t="n"/>
+      <c r="J39" s="41" t="n"/>
     </row>
     <row r="40">
-      <c r="B40" s="45" t="n"/>
-      <c r="C40" s="44" t="n"/>
-      <c r="D40" s="44" t="n"/>
-      <c r="E40" s="42" t="n"/>
-      <c r="F40" s="43" t="n"/>
-      <c r="G40" s="42" t="n"/>
-      <c r="H40" s="43" t="n"/>
-      <c r="I40" s="42" t="n"/>
-      <c r="J40" s="43" t="n"/>
+      <c r="B40" s="43" t="n"/>
+      <c r="C40" s="42" t="n"/>
+      <c r="D40" s="42" t="n"/>
+      <c r="E40" s="40" t="n"/>
+      <c r="F40" s="41" t="n"/>
+      <c r="G40" s="40" t="n"/>
+      <c r="H40" s="41" t="n"/>
+      <c r="I40" s="40" t="n"/>
+      <c r="J40" s="41" t="n"/>
     </row>
     <row r="41">
-      <c r="B41" s="45" t="n"/>
-      <c r="C41" s="44" t="n"/>
-      <c r="D41" s="44" t="n"/>
-      <c r="E41" s="42" t="n"/>
-      <c r="F41" s="43" t="n"/>
-      <c r="G41" s="42" t="n"/>
-      <c r="H41" s="43" t="n"/>
-      <c r="I41" s="42" t="n"/>
-      <c r="J41" s="43" t="n"/>
+      <c r="B41" s="43" t="n"/>
+      <c r="C41" s="42" t="n"/>
+      <c r="D41" s="42" t="n"/>
+      <c r="E41" s="40" t="n"/>
+      <c r="F41" s="41" t="n"/>
+      <c r="G41" s="40" t="n"/>
+      <c r="H41" s="41" t="n"/>
+      <c r="I41" s="40" t="n"/>
+      <c r="J41" s="41" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="45" t="n"/>
-      <c r="C42" s="44" t="n"/>
-      <c r="D42" s="44" t="n"/>
-      <c r="E42" s="42" t="n"/>
-      <c r="F42" s="43" t="n"/>
-      <c r="G42" s="42" t="n"/>
-      <c r="H42" s="43" t="n"/>
-      <c r="I42" s="42" t="n"/>
-      <c r="J42" s="43" t="n"/>
+      <c r="B42" s="43" t="n"/>
+      <c r="C42" s="42" t="n"/>
+      <c r="D42" s="42" t="n"/>
+      <c r="E42" s="40" t="n"/>
+      <c r="F42" s="41" t="n"/>
+      <c r="G42" s="40" t="n"/>
+      <c r="H42" s="41" t="n"/>
+      <c r="I42" s="40" t="n"/>
+      <c r="J42" s="41" t="n"/>
     </row>
     <row r="43">
-      <c r="B43" s="45" t="n"/>
-      <c r="C43" s="44" t="n"/>
-      <c r="D43" s="44" t="n"/>
-      <c r="E43" s="42" t="n"/>
-      <c r="F43" s="43" t="n"/>
-      <c r="G43" s="42" t="n"/>
-      <c r="H43" s="43" t="n"/>
-      <c r="I43" s="42" t="n"/>
-      <c r="J43" s="43" t="n"/>
+      <c r="B43" s="43" t="n"/>
+      <c r="C43" s="42" t="n"/>
+      <c r="D43" s="42" t="n"/>
+      <c r="E43" s="40" t="n"/>
+      <c r="F43" s="41" t="n"/>
+      <c r="G43" s="40" t="n"/>
+      <c r="H43" s="41" t="n"/>
+      <c r="I43" s="40" t="n"/>
+      <c r="J43" s="41" t="n"/>
     </row>
     <row r="44">
-      <c r="B44" s="45" t="n"/>
-      <c r="C44" s="44" t="n"/>
-      <c r="D44" s="44" t="n"/>
-      <c r="E44" s="42" t="n"/>
-      <c r="F44" s="43" t="n"/>
-      <c r="G44" s="42" t="n"/>
-      <c r="H44" s="43" t="n"/>
-      <c r="I44" s="42" t="n"/>
-      <c r="J44" s="43" t="n"/>
+      <c r="B44" s="43" t="n"/>
+      <c r="C44" s="42" t="n"/>
+      <c r="D44" s="42" t="n"/>
+      <c r="E44" s="40" t="n"/>
+      <c r="F44" s="41" t="n"/>
+      <c r="G44" s="40" t="n"/>
+      <c r="H44" s="41" t="n"/>
+      <c r="I44" s="40" t="n"/>
+      <c r="J44" s="41" t="n"/>
     </row>
     <row r="45">
-      <c r="B45" s="45" t="n"/>
-      <c r="C45" s="44" t="n"/>
-      <c r="D45" s="44" t="n"/>
-      <c r="E45" s="42" t="n"/>
-      <c r="F45" s="43" t="n"/>
-      <c r="G45" s="42" t="n"/>
-      <c r="H45" s="43" t="n"/>
-      <c r="I45" s="42" t="n"/>
-      <c r="J45" s="43" t="n"/>
+      <c r="B45" s="43" t="n"/>
+      <c r="C45" s="42" t="n"/>
+      <c r="D45" s="42" t="n"/>
+      <c r="E45" s="40" t="n"/>
+      <c r="F45" s="41" t="n"/>
+      <c r="G45" s="40" t="n"/>
+      <c r="H45" s="41" t="n"/>
+      <c r="I45" s="40" t="n"/>
+      <c r="J45" s="41" t="n"/>
     </row>
     <row r="46">
-      <c r="B46" s="45" t="n"/>
-      <c r="C46" s="44" t="n"/>
-      <c r="D46" s="44" t="n"/>
-      <c r="E46" s="42" t="n"/>
-      <c r="F46" s="43" t="n"/>
-      <c r="G46" s="42" t="n"/>
-      <c r="H46" s="43" t="n"/>
-      <c r="I46" s="42" t="n"/>
-      <c r="J46" s="43" t="n"/>
+      <c r="B46" s="43" t="n"/>
+      <c r="C46" s="42" t="n"/>
+      <c r="D46" s="42" t="n"/>
+      <c r="E46" s="40" t="n"/>
+      <c r="F46" s="41" t="n"/>
+      <c r="G46" s="40" t="n"/>
+      <c r="H46" s="41" t="n"/>
+      <c r="I46" s="40" t="n"/>
+      <c r="J46" s="41" t="n"/>
     </row>
     <row r="47">
-      <c r="B47" s="45" t="n"/>
-      <c r="C47" s="44" t="n"/>
-      <c r="D47" s="44" t="n"/>
-      <c r="E47" s="42" t="n"/>
-      <c r="F47" s="43" t="n"/>
-      <c r="G47" s="42" t="n"/>
-      <c r="H47" s="43" t="n"/>
-      <c r="I47" s="42" t="n"/>
-      <c r="J47" s="43" t="n"/>
+      <c r="B47" s="43" t="n"/>
+      <c r="C47" s="42" t="n"/>
+      <c r="D47" s="42" t="n"/>
+      <c r="E47" s="40" t="n"/>
+      <c r="F47" s="41" t="n"/>
+      <c r="G47" s="40" t="n"/>
+      <c r="H47" s="41" t="n"/>
+      <c r="I47" s="40" t="n"/>
+      <c r="J47" s="41" t="n"/>
     </row>
     <row r="48">
-      <c r="B48" s="45" t="n"/>
-      <c r="C48" s="44" t="n"/>
-      <c r="D48" s="44" t="n"/>
-      <c r="E48" s="42" t="n"/>
-      <c r="F48" s="43" t="n"/>
-      <c r="G48" s="42" t="n"/>
-      <c r="H48" s="43" t="n"/>
-      <c r="I48" s="42" t="n"/>
-      <c r="J48" s="43" t="n"/>
+      <c r="B48" s="43" t="n"/>
+      <c r="C48" s="42" t="n"/>
+      <c r="D48" s="42" t="n"/>
+      <c r="E48" s="40" t="n"/>
+      <c r="F48" s="41" t="n"/>
+      <c r="G48" s="40" t="n"/>
+      <c r="H48" s="41" t="n"/>
+      <c r="I48" s="40" t="n"/>
+      <c r="J48" s="41" t="n"/>
     </row>
     <row r="49">
-      <c r="B49" s="45" t="n"/>
-      <c r="C49" s="44" t="n"/>
-      <c r="D49" s="44" t="n"/>
-      <c r="E49" s="42" t="n"/>
-      <c r="F49" s="43" t="n"/>
-      <c r="G49" s="42" t="n"/>
-      <c r="H49" s="43" t="n"/>
-      <c r="I49" s="42" t="n"/>
-      <c r="J49" s="43" t="n"/>
+      <c r="B49" s="43" t="n"/>
+      <c r="C49" s="42" t="n"/>
+      <c r="D49" s="42" t="n"/>
+      <c r="E49" s="40" t="n"/>
+      <c r="F49" s="41" t="n"/>
+      <c r="G49" s="40" t="n"/>
+      <c r="H49" s="41" t="n"/>
+      <c r="I49" s="40" t="n"/>
+      <c r="J49" s="41" t="n"/>
     </row>
     <row r="50">
-      <c r="B50" s="45" t="n"/>
-      <c r="C50" s="44" t="n"/>
-      <c r="D50" s="44" t="n"/>
-      <c r="E50" s="42" t="n"/>
-      <c r="F50" s="43" t="n"/>
-      <c r="G50" s="42" t="n"/>
-      <c r="H50" s="43" t="n"/>
-      <c r="I50" s="42" t="n"/>
-      <c r="J50" s="43" t="n"/>
+      <c r="B50" s="43" t="n"/>
+      <c r="C50" s="42" t="n"/>
+      <c r="D50" s="42" t="n"/>
+      <c r="E50" s="40" t="n"/>
+      <c r="F50" s="41" t="n"/>
+      <c r="G50" s="40" t="n"/>
+      <c r="H50" s="41" t="n"/>
+      <c r="I50" s="40" t="n"/>
+      <c r="J50" s="41" t="n"/>
     </row>
     <row r="51">
-      <c r="B51" s="45" t="n"/>
-      <c r="C51" s="44" t="n"/>
-      <c r="D51" s="44" t="n"/>
-      <c r="E51" s="42" t="n"/>
-      <c r="F51" s="43" t="n"/>
-      <c r="G51" s="42" t="n"/>
-      <c r="H51" s="43" t="n"/>
-      <c r="I51" s="42" t="n"/>
-      <c r="J51" s="43" t="n"/>
+      <c r="B51" s="43" t="n"/>
+      <c r="C51" s="42" t="n"/>
+      <c r="D51" s="42" t="n"/>
+      <c r="E51" s="40" t="n"/>
+      <c r="F51" s="41" t="n"/>
+      <c r="G51" s="40" t="n"/>
+      <c r="H51" s="41" t="n"/>
+      <c r="I51" s="40" t="n"/>
+      <c r="J51" s="41" t="n"/>
     </row>
     <row r="52">
-      <c r="B52" s="45" t="n"/>
-      <c r="C52" s="44" t="n"/>
-      <c r="D52" s="44" t="n"/>
-      <c r="E52" s="42" t="n"/>
-      <c r="F52" s="43" t="n"/>
-      <c r="G52" s="42" t="n"/>
-      <c r="H52" s="43" t="n"/>
-      <c r="I52" s="42" t="n"/>
-      <c r="J52" s="43" t="n"/>
+      <c r="B52" s="43" t="n"/>
+      <c r="C52" s="42" t="n"/>
+      <c r="D52" s="42" t="n"/>
+      <c r="E52" s="40" t="n"/>
+      <c r="F52" s="41" t="n"/>
+      <c r="G52" s="40" t="n"/>
+      <c r="H52" s="41" t="n"/>
+      <c r="I52" s="40" t="n"/>
+      <c r="J52" s="41" t="n"/>
     </row>
     <row r="53">
-      <c r="B53" s="45" t="n"/>
-      <c r="C53" s="44" t="n"/>
-      <c r="D53" s="44" t="n"/>
-      <c r="E53" s="42" t="n"/>
-      <c r="F53" s="43" t="n"/>
-      <c r="G53" s="42" t="n"/>
-      <c r="H53" s="43" t="n"/>
-      <c r="I53" s="42" t="n"/>
-      <c r="J53" s="43" t="n"/>
+      <c r="B53" s="43" t="n"/>
+      <c r="C53" s="42" t="n"/>
+      <c r="D53" s="42" t="n"/>
+      <c r="E53" s="40" t="n"/>
+      <c r="F53" s="41" t="n"/>
+      <c r="G53" s="40" t="n"/>
+      <c r="H53" s="41" t="n"/>
+      <c r="I53" s="40" t="n"/>
+      <c r="J53" s="41" t="n"/>
     </row>
     <row r="54">
-      <c r="B54" s="45" t="n"/>
-      <c r="C54" s="44" t="n"/>
-      <c r="D54" s="44" t="n"/>
-      <c r="E54" s="42" t="n"/>
-      <c r="F54" s="43" t="n"/>
-      <c r="G54" s="42" t="n"/>
-      <c r="H54" s="43" t="n"/>
-      <c r="I54" s="42" t="n"/>
-      <c r="J54" s="43" t="n"/>
+      <c r="B54" s="43" t="n"/>
+      <c r="C54" s="42" t="n"/>
+      <c r="D54" s="42" t="n"/>
+      <c r="E54" s="40" t="n"/>
+      <c r="F54" s="41" t="n"/>
+      <c r="G54" s="40" t="n"/>
+      <c r="H54" s="41" t="n"/>
+      <c r="I54" s="40" t="n"/>
+      <c r="J54" s="41" t="n"/>
     </row>
     <row r="55">
-      <c r="B55" s="45" t="n"/>
-      <c r="C55" s="44" t="n"/>
-      <c r="D55" s="44" t="n"/>
-      <c r="E55" s="42" t="n"/>
-      <c r="F55" s="43" t="n"/>
-      <c r="G55" s="42" t="n"/>
-      <c r="H55" s="43" t="n"/>
-      <c r="I55" s="42" t="n"/>
-      <c r="J55" s="43" t="n"/>
+      <c r="B55" s="43" t="n"/>
+      <c r="C55" s="42" t="n"/>
+      <c r="D55" s="42" t="n"/>
+      <c r="E55" s="40" t="n"/>
+      <c r="F55" s="41" t="n"/>
+      <c r="G55" s="40" t="n"/>
+      <c r="H55" s="41" t="n"/>
+      <c r="I55" s="40" t="n"/>
+      <c r="J55" s="41" t="n"/>
     </row>
     <row r="56">
-      <c r="B56" s="45" t="n"/>
-      <c r="C56" s="44" t="n"/>
-      <c r="D56" s="44" t="n"/>
-      <c r="E56" s="42" t="n"/>
-      <c r="F56" s="43" t="n"/>
-      <c r="G56" s="42" t="n"/>
-      <c r="H56" s="43" t="n"/>
-      <c r="I56" s="42" t="n"/>
-      <c r="J56" s="43" t="n"/>
+      <c r="B56" s="43" t="n"/>
+      <c r="C56" s="42" t="n"/>
+      <c r="D56" s="42" t="n"/>
+      <c r="E56" s="40" t="n"/>
+      <c r="F56" s="41" t="n"/>
+      <c r="G56" s="40" t="n"/>
+      <c r="H56" s="41" t="n"/>
+      <c r="I56" s="40" t="n"/>
+      <c r="J56" s="41" t="n"/>
     </row>
     <row r="57">
-      <c r="B57" s="45" t="n"/>
-      <c r="C57" s="44" t="n"/>
-      <c r="D57" s="44" t="n"/>
-      <c r="E57" s="42" t="n"/>
-      <c r="F57" s="43" t="n"/>
-      <c r="G57" s="42" t="n"/>
-      <c r="H57" s="43" t="n"/>
-      <c r="I57" s="42" t="n"/>
-      <c r="J57" s="43" t="n"/>
+      <c r="B57" s="43" t="n"/>
+      <c r="C57" s="42" t="n"/>
+      <c r="D57" s="42" t="n"/>
+      <c r="E57" s="40" t="n"/>
+      <c r="F57" s="41" t="n"/>
+      <c r="G57" s="40" t="n"/>
+      <c r="H57" s="41" t="n"/>
+      <c r="I57" s="40" t="n"/>
+      <c r="J57" s="41" t="n"/>
     </row>
     <row r="58">
-      <c r="B58" s="45" t="n"/>
-      <c r="C58" s="44" t="n"/>
-      <c r="D58" s="44" t="n"/>
-      <c r="E58" s="42" t="n"/>
-      <c r="F58" s="43" t="n"/>
-      <c r="G58" s="42" t="n"/>
-      <c r="H58" s="43" t="n"/>
-      <c r="I58" s="42" t="n"/>
-      <c r="J58" s="43" t="n"/>
+      <c r="B58" s="43" t="n"/>
+      <c r="C58" s="42" t="n"/>
+      <c r="D58" s="42" t="n"/>
+      <c r="E58" s="40" t="n"/>
+      <c r="F58" s="41" t="n"/>
+      <c r="G58" s="40" t="n"/>
+      <c r="H58" s="41" t="n"/>
+      <c r="I58" s="40" t="n"/>
+      <c r="J58" s="41" t="n"/>
     </row>
     <row r="59">
-      <c r="B59" s="45" t="n"/>
-      <c r="C59" s="44" t="n"/>
-      <c r="D59" s="44" t="n"/>
-      <c r="E59" s="42" t="n"/>
-      <c r="F59" s="43" t="n"/>
-      <c r="G59" s="42" t="n"/>
-      <c r="H59" s="43" t="n"/>
-      <c r="I59" s="42" t="n"/>
-      <c r="J59" s="43" t="n"/>
+      <c r="B59" s="43" t="n"/>
+      <c r="C59" s="42" t="n"/>
+      <c r="D59" s="42" t="n"/>
+      <c r="E59" s="40" t="n"/>
+      <c r="F59" s="41" t="n"/>
+      <c r="G59" s="40" t="n"/>
+      <c r="H59" s="41" t="n"/>
+      <c r="I59" s="40" t="n"/>
+      <c r="J59" s="41" t="n"/>
     </row>
     <row r="60">
-      <c r="B60" s="46" t="n"/>
-      <c r="C60" s="33" t="n"/>
-      <c r="D60" s="33" t="n"/>
-      <c r="E60" s="38" t="n"/>
-      <c r="F60" s="39" t="n"/>
-      <c r="G60" s="38" t="n"/>
-      <c r="H60" s="39" t="n"/>
-      <c r="I60" s="38" t="n"/>
-      <c r="J60" s="39" t="n"/>
+      <c r="B60" s="44" t="n"/>
+      <c r="C60" s="25" t="n"/>
+      <c r="D60" s="25" t="n"/>
+      <c r="E60" s="36" t="n"/>
+      <c r="F60" s="37" t="n"/>
+      <c r="G60" s="36" t="n"/>
+      <c r="H60" s="37" t="n"/>
+      <c r="I60" s="36" t="n"/>
+      <c r="J60" s="37" t="n"/>
     </row>
     <row r="61">
-      <c r="B61" s="46" t="n"/>
-      <c r="C61" s="33" t="n"/>
-      <c r="D61" s="33" t="n"/>
-      <c r="E61" s="38" t="n"/>
-      <c r="F61" s="39" t="n"/>
-      <c r="G61" s="38" t="n"/>
-      <c r="H61" s="39" t="n"/>
-      <c r="I61" s="38" t="n"/>
-      <c r="J61" s="39" t="n"/>
+      <c r="B61" s="44" t="n"/>
+      <c r="C61" s="25" t="n"/>
+      <c r="D61" s="25" t="n"/>
+      <c r="E61" s="36" t="n"/>
+      <c r="F61" s="37" t="n"/>
+      <c r="G61" s="36" t="n"/>
+      <c r="H61" s="37" t="n"/>
+      <c r="I61" s="36" t="n"/>
+      <c r="J61" s="37" t="n"/>
     </row>
     <row r="62">
-      <c r="B62" s="46" t="n"/>
-      <c r="C62" s="33" t="n"/>
-      <c r="D62" s="33" t="n"/>
-      <c r="E62" s="38" t="n"/>
-      <c r="F62" s="39" t="n"/>
-      <c r="G62" s="38" t="n"/>
-      <c r="H62" s="39" t="n"/>
-      <c r="I62" s="38" t="n"/>
-      <c r="J62" s="39" t="n"/>
+      <c r="B62" s="44" t="n"/>
+      <c r="C62" s="25" t="n"/>
+      <c r="D62" s="25" t="n"/>
+      <c r="E62" s="36" t="n"/>
+      <c r="F62" s="37" t="n"/>
+      <c r="G62" s="36" t="n"/>
+      <c r="H62" s="37" t="n"/>
+      <c r="I62" s="36" t="n"/>
+      <c r="J62" s="37" t="n"/>
     </row>
     <row r="63">
-      <c r="B63" s="46" t="n"/>
-      <c r="C63" s="33" t="n"/>
-      <c r="D63" s="33" t="n"/>
-      <c r="E63" s="38" t="n"/>
-      <c r="F63" s="39" t="n"/>
-      <c r="G63" s="38" t="n"/>
-      <c r="H63" s="39" t="n"/>
-      <c r="I63" s="38" t="n"/>
-      <c r="J63" s="39" t="n"/>
+      <c r="B63" s="44" t="n"/>
+      <c r="C63" s="25" t="n"/>
+      <c r="D63" s="25" t="n"/>
+      <c r="E63" s="36" t="n"/>
+      <c r="F63" s="37" t="n"/>
+      <c r="G63" s="36" t="n"/>
+      <c r="H63" s="37" t="n"/>
+      <c r="I63" s="36" t="n"/>
+      <c r="J63" s="37" t="n"/>
     </row>
     <row r="64">
-      <c r="B64" s="46" t="n"/>
-      <c r="C64" s="33" t="n"/>
-      <c r="D64" s="33" t="n"/>
-      <c r="E64" s="38" t="n"/>
-      <c r="F64" s="39" t="n"/>
-      <c r="G64" s="38" t="n"/>
-      <c r="H64" s="39" t="n"/>
-      <c r="I64" s="38" t="n"/>
-      <c r="J64" s="39" t="n"/>
+      <c r="B64" s="44" t="n"/>
+      <c r="C64" s="25" t="n"/>
+      <c r="D64" s="25" t="n"/>
+      <c r="E64" s="36" t="n"/>
+      <c r="F64" s="37" t="n"/>
+      <c r="G64" s="36" t="n"/>
+      <c r="H64" s="37" t="n"/>
+      <c r="I64" s="36" t="n"/>
+      <c r="J64" s="37" t="n"/>
     </row>
     <row r="65">
-      <c r="B65" s="46" t="n"/>
-      <c r="C65" s="33" t="n"/>
-      <c r="D65" s="33" t="n"/>
-      <c r="E65" s="38" t="n"/>
-      <c r="F65" s="39" t="n"/>
-      <c r="G65" s="38" t="n"/>
-      <c r="H65" s="39" t="n"/>
-      <c r="I65" s="38" t="n"/>
-      <c r="J65" s="39" t="n"/>
+      <c r="B65" s="44" t="n"/>
+      <c r="C65" s="25" t="n"/>
+      <c r="D65" s="25" t="n"/>
+      <c r="E65" s="36" t="n"/>
+      <c r="F65" s="37" t="n"/>
+      <c r="G65" s="36" t="n"/>
+      <c r="H65" s="37" t="n"/>
+      <c r="I65" s="36" t="n"/>
+      <c r="J65" s="37" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="46" t="n"/>
-      <c r="C66" s="33" t="n"/>
-      <c r="D66" s="33" t="n"/>
-      <c r="E66" s="38" t="n"/>
-      <c r="F66" s="39" t="n"/>
-      <c r="G66" s="38" t="n"/>
-      <c r="H66" s="39" t="n"/>
-      <c r="I66" s="38" t="n"/>
-      <c r="J66" s="39" t="n"/>
+      <c r="B66" s="44" t="n"/>
+      <c r="C66" s="25" t="n"/>
+      <c r="D66" s="25" t="n"/>
+      <c r="E66" s="36" t="n"/>
+      <c r="F66" s="37" t="n"/>
+      <c r="G66" s="36" t="n"/>
+      <c r="H66" s="37" t="n"/>
+      <c r="I66" s="36" t="n"/>
+      <c r="J66" s="37" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="46" t="n"/>
-      <c r="C67" s="33" t="n"/>
-      <c r="D67" s="33" t="n"/>
-      <c r="E67" s="38" t="n"/>
-      <c r="F67" s="39" t="n"/>
-      <c r="G67" s="38" t="n"/>
-      <c r="H67" s="39" t="n"/>
-      <c r="I67" s="38" t="n"/>
-      <c r="J67" s="39" t="n"/>
+      <c r="B67" s="44" t="n"/>
+      <c r="C67" s="25" t="n"/>
+      <c r="D67" s="25" t="n"/>
+      <c r="E67" s="36" t="n"/>
+      <c r="F67" s="37" t="n"/>
+      <c r="G67" s="36" t="n"/>
+      <c r="H67" s="37" t="n"/>
+      <c r="I67" s="36" t="n"/>
+      <c r="J67" s="37" t="n"/>
     </row>
     <row r="68">
-      <c r="B68" s="46" t="n"/>
-      <c r="C68" s="33" t="n"/>
-      <c r="D68" s="33" t="n"/>
-      <c r="E68" s="38" t="n"/>
-      <c r="F68" s="39" t="n"/>
-      <c r="G68" s="38" t="n"/>
-      <c r="H68" s="39" t="n"/>
-      <c r="I68" s="38" t="n"/>
-      <c r="J68" s="39" t="n"/>
+      <c r="B68" s="44" t="n"/>
+      <c r="C68" s="25" t="n"/>
+      <c r="D68" s="25" t="n"/>
+      <c r="E68" s="36" t="n"/>
+      <c r="F68" s="37" t="n"/>
+      <c r="G68" s="36" t="n"/>
+      <c r="H68" s="37" t="n"/>
+      <c r="I68" s="36" t="n"/>
+      <c r="J68" s="37" t="n"/>
     </row>
     <row r="69">
-      <c r="B69" s="46" t="n"/>
-      <c r="C69" s="33" t="n"/>
-      <c r="D69" s="33" t="n"/>
-      <c r="E69" s="38" t="n"/>
-      <c r="F69" s="39" t="n"/>
-      <c r="G69" s="38" t="n"/>
-      <c r="H69" s="39" t="n"/>
-      <c r="I69" s="38" t="n"/>
-      <c r="J69" s="39" t="n"/>
+      <c r="B69" s="44" t="n"/>
+      <c r="C69" s="25" t="n"/>
+      <c r="D69" s="25" t="n"/>
+      <c r="E69" s="36" t="n"/>
+      <c r="F69" s="37" t="n"/>
+      <c r="G69" s="36" t="n"/>
+      <c r="H69" s="37" t="n"/>
+      <c r="I69" s="36" t="n"/>
+      <c r="J69" s="37" t="n"/>
     </row>
     <row r="70">
-      <c r="B70" s="46" t="n"/>
-      <c r="C70" s="33" t="n"/>
-      <c r="D70" s="33" t="n"/>
-      <c r="E70" s="38" t="n"/>
-      <c r="F70" s="39" t="n"/>
-      <c r="G70" s="38" t="n"/>
-      <c r="H70" s="39" t="n"/>
-      <c r="I70" s="38" t="n"/>
-      <c r="J70" s="39" t="n"/>
+      <c r="B70" s="44" t="n"/>
+      <c r="C70" s="25" t="n"/>
+      <c r="D70" s="25" t="n"/>
+      <c r="E70" s="36" t="n"/>
+      <c r="F70" s="37" t="n"/>
+      <c r="G70" s="36" t="n"/>
+      <c r="H70" s="37" t="n"/>
+      <c r="I70" s="36" t="n"/>
+      <c r="J70" s="37" t="n"/>
     </row>
     <row r="71">
-      <c r="B71" s="46" t="n"/>
-      <c r="C71" s="33" t="n"/>
-      <c r="D71" s="33" t="n"/>
-      <c r="E71" s="38" t="n"/>
-      <c r="F71" s="39" t="n"/>
-      <c r="G71" s="38" t="n"/>
-      <c r="H71" s="39" t="n"/>
-      <c r="I71" s="38" t="n"/>
-      <c r="J71" s="39" t="n"/>
+      <c r="B71" s="44" t="n"/>
+      <c r="C71" s="25" t="n"/>
+      <c r="D71" s="25" t="n"/>
+      <c r="E71" s="36" t="n"/>
+      <c r="F71" s="37" t="n"/>
+      <c r="G71" s="36" t="n"/>
+      <c r="H71" s="37" t="n"/>
+      <c r="I71" s="36" t="n"/>
+      <c r="J71" s="37" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" s="46" t="n"/>
-      <c r="C72" s="33" t="n"/>
-      <c r="D72" s="33" t="n"/>
-      <c r="E72" s="38" t="n"/>
-      <c r="F72" s="39" t="n"/>
-      <c r="G72" s="38" t="n"/>
-      <c r="H72" s="39" t="n"/>
-      <c r="I72" s="38" t="n"/>
-      <c r="J72" s="39" t="n"/>
+      <c r="B72" s="44" t="n"/>
+      <c r="C72" s="25" t="n"/>
+      <c r="D72" s="25" t="n"/>
+      <c r="E72" s="36" t="n"/>
+      <c r="F72" s="37" t="n"/>
+      <c r="G72" s="36" t="n"/>
+      <c r="H72" s="37" t="n"/>
+      <c r="I72" s="36" t="n"/>
+      <c r="J72" s="37" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" s="46" t="n"/>
-      <c r="C73" s="33" t="n"/>
-      <c r="D73" s="33" t="n"/>
-      <c r="E73" s="38" t="n"/>
-      <c r="F73" s="39" t="n"/>
-      <c r="G73" s="38" t="n"/>
-      <c r="H73" s="39" t="n"/>
-      <c r="I73" s="38" t="n"/>
-      <c r="J73" s="39" t="n"/>
+      <c r="B73" s="44" t="n"/>
+      <c r="C73" s="25" t="n"/>
+      <c r="D73" s="25" t="n"/>
+      <c r="E73" s="36" t="n"/>
+      <c r="F73" s="37" t="n"/>
+      <c r="G73" s="36" t="n"/>
+      <c r="H73" s="37" t="n"/>
+      <c r="I73" s="36" t="n"/>
+      <c r="J73" s="37" t="n"/>
     </row>
     <row r="74">
-      <c r="B74" s="46" t="n"/>
-      <c r="C74" s="33" t="n"/>
-      <c r="D74" s="33" t="n"/>
-      <c r="E74" s="38" t="n"/>
-      <c r="F74" s="39" t="n"/>
-      <c r="G74" s="38" t="n"/>
-      <c r="H74" s="39" t="n"/>
-      <c r="I74" s="38" t="n"/>
-      <c r="J74" s="39" t="n"/>
+      <c r="B74" s="44" t="n"/>
+      <c r="C74" s="25" t="n"/>
+      <c r="D74" s="25" t="n"/>
+      <c r="E74" s="36" t="n"/>
+      <c r="F74" s="37" t="n"/>
+      <c r="G74" s="36" t="n"/>
+      <c r="H74" s="37" t="n"/>
+      <c r="I74" s="36" t="n"/>
+      <c r="J74" s="37" t="n"/>
     </row>
     <row r="75">
-      <c r="B75" s="46" t="n"/>
-      <c r="C75" s="33" t="n"/>
-      <c r="D75" s="33" t="n"/>
-      <c r="E75" s="38" t="n"/>
-      <c r="F75" s="39" t="n"/>
-      <c r="G75" s="38" t="n"/>
-      <c r="H75" s="39" t="n"/>
-      <c r="I75" s="38" t="n"/>
-      <c r="J75" s="39" t="n"/>
+      <c r="B75" s="44" t="n"/>
+      <c r="C75" s="25" t="n"/>
+      <c r="D75" s="25" t="n"/>
+      <c r="E75" s="36" t="n"/>
+      <c r="F75" s="37" t="n"/>
+      <c r="G75" s="36" t="n"/>
+      <c r="H75" s="37" t="n"/>
+      <c r="I75" s="36" t="n"/>
+      <c r="J75" s="37" t="n"/>
     </row>
     <row r="76">
-      <c r="B76" s="46" t="n"/>
-      <c r="C76" s="33" t="n"/>
-      <c r="D76" s="33" t="n"/>
-      <c r="E76" s="38" t="n"/>
-      <c r="F76" s="39" t="n"/>
-      <c r="G76" s="38" t="n"/>
-      <c r="H76" s="39" t="n"/>
-      <c r="I76" s="38" t="n"/>
-      <c r="J76" s="39" t="n"/>
+      <c r="B76" s="44" t="n"/>
+      <c r="C76" s="25" t="n"/>
+      <c r="D76" s="25" t="n"/>
+      <c r="E76" s="36" t="n"/>
+      <c r="F76" s="37" t="n"/>
+      <c r="G76" s="36" t="n"/>
+      <c r="H76" s="37" t="n"/>
+      <c r="I76" s="36" t="n"/>
+      <c r="J76" s="37" t="n"/>
     </row>
     <row r="77">
-      <c r="B77" s="46" t="n"/>
-      <c r="C77" s="33" t="n"/>
-      <c r="D77" s="33" t="n"/>
-      <c r="E77" s="38" t="n"/>
-      <c r="F77" s="39" t="n"/>
-      <c r="G77" s="38" t="n"/>
-      <c r="H77" s="39" t="n"/>
-      <c r="I77" s="38" t="n"/>
-      <c r="J77" s="39" t="n"/>
+      <c r="B77" s="44" t="n"/>
+      <c r="C77" s="25" t="n"/>
+      <c r="D77" s="25" t="n"/>
+      <c r="E77" s="36" t="n"/>
+      <c r="F77" s="37" t="n"/>
+      <c r="G77" s="36" t="n"/>
+      <c r="H77" s="37" t="n"/>
+      <c r="I77" s="36" t="n"/>
+      <c r="J77" s="37" t="n"/>
     </row>
     <row r="78">
-      <c r="B78" s="46" t="n"/>
-      <c r="C78" s="33" t="n"/>
-      <c r="D78" s="33" t="n"/>
-      <c r="E78" s="38" t="n"/>
-      <c r="F78" s="39" t="n"/>
-      <c r="G78" s="38" t="n"/>
-      <c r="H78" s="39" t="n"/>
-      <c r="I78" s="38" t="n"/>
-      <c r="J78" s="39" t="n"/>
+      <c r="B78" s="44" t="n"/>
+      <c r="C78" s="25" t="n"/>
+      <c r="D78" s="25" t="n"/>
+      <c r="E78" s="36" t="n"/>
+      <c r="F78" s="37" t="n"/>
+      <c r="G78" s="36" t="n"/>
+      <c r="H78" s="37" t="n"/>
+      <c r="I78" s="36" t="n"/>
+      <c r="J78" s="37" t="n"/>
     </row>
     <row r="79">
-      <c r="B79" s="46" t="n"/>
-      <c r="C79" s="33" t="n"/>
-      <c r="D79" s="33" t="n"/>
-      <c r="E79" s="38" t="n"/>
-      <c r="F79" s="39" t="n"/>
-      <c r="G79" s="38" t="n"/>
-      <c r="H79" s="39" t="n"/>
-      <c r="I79" s="38" t="n"/>
-      <c r="J79" s="39" t="n"/>
+      <c r="B79" s="44" t="n"/>
+      <c r="C79" s="25" t="n"/>
+      <c r="D79" s="25" t="n"/>
+      <c r="E79" s="36" t="n"/>
+      <c r="F79" s="37" t="n"/>
+      <c r="G79" s="36" t="n"/>
+      <c r="H79" s="37" t="n"/>
+      <c r="I79" s="36" t="n"/>
+      <c r="J79" s="37" t="n"/>
     </row>
     <row r="80">
-      <c r="B80" s="46" t="n"/>
-      <c r="C80" s="33" t="n"/>
-      <c r="D80" s="33" t="n"/>
-      <c r="E80" s="38" t="n"/>
-      <c r="F80" s="39" t="n"/>
-      <c r="G80" s="38" t="n"/>
-      <c r="H80" s="39" t="n"/>
-      <c r="I80" s="38" t="n"/>
-      <c r="J80" s="39" t="n"/>
+      <c r="B80" s="44" t="n"/>
+      <c r="C80" s="25" t="n"/>
+      <c r="D80" s="25" t="n"/>
+      <c r="E80" s="36" t="n"/>
+      <c r="F80" s="37" t="n"/>
+      <c r="G80" s="36" t="n"/>
+      <c r="H80" s="37" t="n"/>
+      <c r="I80" s="36" t="n"/>
+      <c r="J80" s="37" t="n"/>
     </row>
     <row r="81">
-      <c r="B81" s="46" t="n"/>
-      <c r="C81" s="33" t="n"/>
-      <c r="D81" s="33" t="n"/>
-      <c r="E81" s="38" t="n"/>
-      <c r="F81" s="39" t="n"/>
-      <c r="G81" s="38" t="n"/>
-      <c r="H81" s="39" t="n"/>
-      <c r="I81" s="38" t="n"/>
-      <c r="J81" s="39" t="n"/>
+      <c r="B81" s="44" t="n"/>
+      <c r="C81" s="25" t="n"/>
+      <c r="D81" s="25" t="n"/>
+      <c r="E81" s="36" t="n"/>
+      <c r="F81" s="37" t="n"/>
+      <c r="G81" s="36" t="n"/>
+      <c r="H81" s="37" t="n"/>
+      <c r="I81" s="36" t="n"/>
+      <c r="J81" s="37" t="n"/>
     </row>
     <row r="82">
-      <c r="B82" s="46" t="n"/>
-      <c r="C82" s="33" t="n"/>
-      <c r="D82" s="33" t="n"/>
-      <c r="E82" s="38" t="n"/>
-      <c r="F82" s="39" t="n"/>
-      <c r="G82" s="38" t="n"/>
-      <c r="H82" s="39" t="n"/>
-      <c r="I82" s="38" t="n"/>
-      <c r="J82" s="39" t="n"/>
+      <c r="B82" s="44" t="n"/>
+      <c r="C82" s="25" t="n"/>
+      <c r="D82" s="25" t="n"/>
+      <c r="E82" s="36" t="n"/>
+      <c r="F82" s="37" t="n"/>
+      <c r="G82" s="36" t="n"/>
+      <c r="H82" s="37" t="n"/>
+      <c r="I82" s="36" t="n"/>
+      <c r="J82" s="37" t="n"/>
     </row>
     <row r="83">
-      <c r="B83" s="46" t="n"/>
-      <c r="C83" s="33" t="n"/>
-      <c r="D83" s="33" t="n"/>
-      <c r="E83" s="38" t="n"/>
-      <c r="F83" s="39" t="n"/>
-      <c r="G83" s="38" t="n"/>
-      <c r="H83" s="39" t="n"/>
-      <c r="I83" s="38" t="n"/>
-      <c r="J83" s="39" t="n"/>
+      <c r="B83" s="44" t="n"/>
+      <c r="C83" s="25" t="n"/>
+      <c r="D83" s="25" t="n"/>
+      <c r="E83" s="36" t="n"/>
+      <c r="F83" s="37" t="n"/>
+      <c r="G83" s="36" t="n"/>
+      <c r="H83" s="37" t="n"/>
+      <c r="I83" s="36" t="n"/>
+      <c r="J83" s="37" t="n"/>
     </row>
     <row r="84">
-      <c r="B84" s="46" t="n"/>
-      <c r="C84" s="33" t="n"/>
-      <c r="D84" s="33" t="n"/>
-      <c r="E84" s="38" t="n"/>
-      <c r="F84" s="39" t="n"/>
-      <c r="G84" s="38" t="n"/>
-      <c r="H84" s="39" t="n"/>
-      <c r="I84" s="38" t="n"/>
-      <c r="J84" s="39" t="n"/>
+      <c r="B84" s="44" t="n"/>
+      <c r="C84" s="25" t="n"/>
+      <c r="D84" s="25" t="n"/>
+      <c r="E84" s="36" t="n"/>
+      <c r="F84" s="37" t="n"/>
+      <c r="G84" s="36" t="n"/>
+      <c r="H84" s="37" t="n"/>
+      <c r="I84" s="36" t="n"/>
+      <c r="J84" s="37" t="n"/>
     </row>
     <row r="85">
-      <c r="B85" s="46" t="n"/>
-      <c r="C85" s="33" t="n"/>
-      <c r="D85" s="33" t="n"/>
-      <c r="E85" s="38" t="n"/>
-      <c r="F85" s="39" t="n"/>
-      <c r="G85" s="38" t="n"/>
-      <c r="H85" s="39" t="n"/>
-      <c r="I85" s="38" t="n"/>
-      <c r="J85" s="39" t="n"/>
+      <c r="B85" s="44" t="n"/>
+      <c r="C85" s="25" t="n"/>
+      <c r="D85" s="25" t="n"/>
+      <c r="E85" s="36" t="n"/>
+      <c r="F85" s="37" t="n"/>
+      <c r="G85" s="36" t="n"/>
+      <c r="H85" s="37" t="n"/>
+      <c r="I85" s="36" t="n"/>
+      <c r="J85" s="37" t="n"/>
     </row>
     <row r="86">
-      <c r="B86" s="46" t="n"/>
-      <c r="C86" s="33" t="n"/>
-      <c r="D86" s="33" t="n"/>
-      <c r="E86" s="38" t="n"/>
-      <c r="F86" s="39" t="n"/>
-      <c r="G86" s="38" t="n"/>
-      <c r="H86" s="39" t="n"/>
-      <c r="I86" s="38" t="n"/>
-      <c r="J86" s="39" t="n"/>
+      <c r="B86" s="44" t="n"/>
+      <c r="C86" s="25" t="n"/>
+      <c r="D86" s="25" t="n"/>
+      <c r="E86" s="36" t="n"/>
+      <c r="F86" s="37" t="n"/>
+      <c r="G86" s="36" t="n"/>
+      <c r="H86" s="37" t="n"/>
+      <c r="I86" s="36" t="n"/>
+      <c r="J86" s="37" t="n"/>
     </row>
     <row r="87">
-      <c r="B87" s="46" t="n"/>
-      <c r="C87" s="33" t="n"/>
-      <c r="D87" s="33" t="n"/>
-      <c r="E87" s="38" t="n"/>
-      <c r="F87" s="39" t="n"/>
-      <c r="G87" s="38" t="n"/>
-      <c r="H87" s="39" t="n"/>
-      <c r="I87" s="38" t="n"/>
-      <c r="J87" s="39" t="n"/>
+      <c r="B87" s="44" t="n"/>
+      <c r="C87" s="25" t="n"/>
+      <c r="D87" s="25" t="n"/>
+      <c r="E87" s="36" t="n"/>
+      <c r="F87" s="37" t="n"/>
+      <c r="G87" s="36" t="n"/>
+      <c r="H87" s="37" t="n"/>
+      <c r="I87" s="36" t="n"/>
+      <c r="J87" s="37" t="n"/>
     </row>
     <row r="88">
-      <c r="B88" s="46" t="n"/>
-      <c r="C88" s="33" t="n"/>
-      <c r="D88" s="33" t="n"/>
-      <c r="E88" s="38" t="n"/>
-      <c r="F88" s="39" t="n"/>
-      <c r="G88" s="38" t="n"/>
-      <c r="H88" s="39" t="n"/>
-      <c r="I88" s="38" t="n"/>
-      <c r="J88" s="39" t="n"/>
+      <c r="B88" s="44" t="n"/>
+      <c r="C88" s="25" t="n"/>
+      <c r="D88" s="25" t="n"/>
+      <c r="E88" s="36" t="n"/>
+      <c r="F88" s="37" t="n"/>
+      <c r="G88" s="36" t="n"/>
+      <c r="H88" s="37" t="n"/>
+      <c r="I88" s="36" t="n"/>
+      <c r="J88" s="37" t="n"/>
     </row>
     <row r="89">
-      <c r="B89" s="46" t="n"/>
-      <c r="C89" s="33" t="n"/>
-      <c r="D89" s="33" t="n"/>
-      <c r="E89" s="38" t="n"/>
-      <c r="F89" s="39" t="n"/>
-      <c r="G89" s="38" t="n"/>
-      <c r="H89" s="39" t="n"/>
-      <c r="I89" s="38" t="n"/>
-      <c r="J89" s="39" t="n"/>
+      <c r="B89" s="44" t="n"/>
+      <c r="C89" s="25" t="n"/>
+      <c r="D89" s="25" t="n"/>
+      <c r="E89" s="36" t="n"/>
+      <c r="F89" s="37" t="n"/>
+      <c r="G89" s="36" t="n"/>
+      <c r="H89" s="37" t="n"/>
+      <c r="I89" s="36" t="n"/>
+      <c r="J89" s="37" t="n"/>
     </row>
     <row r="90">
-      <c r="B90" s="46" t="n"/>
-      <c r="C90" s="33" t="n"/>
-      <c r="D90" s="33" t="n"/>
-      <c r="E90" s="38" t="n"/>
-      <c r="F90" s="39" t="n"/>
-      <c r="G90" s="38" t="n"/>
-      <c r="H90" s="39" t="n"/>
-      <c r="I90" s="38" t="n"/>
-      <c r="J90" s="39" t="n"/>
+      <c r="B90" s="44" t="n"/>
+      <c r="C90" s="25" t="n"/>
+      <c r="D90" s="25" t="n"/>
+      <c r="E90" s="36" t="n"/>
+      <c r="F90" s="37" t="n"/>
+      <c r="G90" s="36" t="n"/>
+      <c r="H90" s="37" t="n"/>
+      <c r="I90" s="36" t="n"/>
+      <c r="J90" s="37" t="n"/>
     </row>
     <row r="91">
-      <c r="B91" s="46" t="n"/>
-      <c r="C91" s="33" t="n"/>
-      <c r="D91" s="33" t="n"/>
-      <c r="E91" s="38" t="n"/>
-      <c r="F91" s="39" t="n"/>
-      <c r="G91" s="38" t="n"/>
-      <c r="H91" s="39" t="n"/>
-      <c r="I91" s="38" t="n"/>
-      <c r="J91" s="39" t="n"/>
+      <c r="B91" s="44" t="n"/>
+      <c r="C91" s="25" t="n"/>
+      <c r="D91" s="25" t="n"/>
+      <c r="E91" s="36" t="n"/>
+      <c r="F91" s="37" t="n"/>
+      <c r="G91" s="36" t="n"/>
+      <c r="H91" s="37" t="n"/>
+      <c r="I91" s="36" t="n"/>
+      <c r="J91" s="37" t="n"/>
     </row>
     <row r="92">
-      <c r="B92" s="46" t="n"/>
-      <c r="C92" s="33" t="n"/>
-      <c r="D92" s="33" t="n"/>
-      <c r="E92" s="38" t="n"/>
-      <c r="F92" s="39" t="n"/>
-      <c r="G92" s="38" t="n"/>
-      <c r="H92" s="39" t="n"/>
-      <c r="I92" s="38" t="n"/>
-      <c r="J92" s="39" t="n"/>
+      <c r="B92" s="44" t="n"/>
+      <c r="C92" s="25" t="n"/>
+      <c r="D92" s="25" t="n"/>
+      <c r="E92" s="36" t="n"/>
+      <c r="F92" s="37" t="n"/>
+      <c r="G92" s="36" t="n"/>
+      <c r="H92" s="37" t="n"/>
+      <c r="I92" s="36" t="n"/>
+      <c r="J92" s="37" t="n"/>
     </row>
     <row r="93">
-      <c r="B93" s="46" t="n"/>
-      <c r="C93" s="33" t="n"/>
-      <c r="D93" s="33" t="n"/>
-      <c r="E93" s="38" t="n"/>
-      <c r="F93" s="39" t="n"/>
-      <c r="G93" s="38" t="n"/>
-      <c r="H93" s="39" t="n"/>
-      <c r="I93" s="38" t="n"/>
-      <c r="J93" s="39" t="n"/>
+      <c r="B93" s="44" t="n"/>
+      <c r="C93" s="25" t="n"/>
+      <c r="D93" s="25" t="n"/>
+      <c r="E93" s="36" t="n"/>
+      <c r="F93" s="37" t="n"/>
+      <c r="G93" s="36" t="n"/>
+      <c r="H93" s="37" t="n"/>
+      <c r="I93" s="36" t="n"/>
+      <c r="J93" s="37" t="n"/>
     </row>
     <row r="94">
-      <c r="B94" s="46" t="n"/>
-      <c r="C94" s="33" t="n"/>
-      <c r="D94" s="33" t="n"/>
-      <c r="E94" s="38" t="n"/>
-      <c r="F94" s="39" t="n"/>
-      <c r="G94" s="38" t="n"/>
-      <c r="H94" s="39" t="n"/>
-      <c r="I94" s="38" t="n"/>
-      <c r="J94" s="39" t="n"/>
+      <c r="B94" s="44" t="n"/>
+      <c r="C94" s="25" t="n"/>
+      <c r="D94" s="25" t="n"/>
+      <c r="E94" s="36" t="n"/>
+      <c r="F94" s="37" t="n"/>
+      <c r="G94" s="36" t="n"/>
+      <c r="H94" s="37" t="n"/>
+      <c r="I94" s="36" t="n"/>
+      <c r="J94" s="37" t="n"/>
     </row>
     <row r="95">
-      <c r="B95" s="46" t="n"/>
-      <c r="C95" s="33" t="n"/>
-      <c r="D95" s="33" t="n"/>
-      <c r="E95" s="38" t="n"/>
-      <c r="F95" s="39" t="n"/>
-      <c r="G95" s="38" t="n"/>
-      <c r="H95" s="39" t="n"/>
-      <c r="I95" s="38" t="n"/>
-      <c r="J95" s="39" t="n"/>
+      <c r="B95" s="44" t="n"/>
+      <c r="C95" s="25" t="n"/>
+      <c r="D95" s="25" t="n"/>
+      <c r="E95" s="36" t="n"/>
+      <c r="F95" s="37" t="n"/>
+      <c r="G95" s="36" t="n"/>
+      <c r="H95" s="37" t="n"/>
+      <c r="I95" s="36" t="n"/>
+      <c r="J95" s="37" t="n"/>
     </row>
     <row r="96">
-      <c r="B96" s="46" t="n"/>
-      <c r="C96" s="33" t="n"/>
-      <c r="D96" s="33" t="n"/>
-      <c r="E96" s="38" t="n"/>
-      <c r="F96" s="39" t="n"/>
-      <c r="G96" s="38" t="n"/>
-      <c r="H96" s="39" t="n"/>
-      <c r="I96" s="38" t="n"/>
-      <c r="J96" s="39" t="n"/>
+      <c r="B96" s="44" t="n"/>
+      <c r="C96" s="25" t="n"/>
+      <c r="D96" s="25" t="n"/>
+      <c r="E96" s="36" t="n"/>
+      <c r="F96" s="37" t="n"/>
+      <c r="G96" s="36" t="n"/>
+      <c r="H96" s="37" t="n"/>
+      <c r="I96" s="36" t="n"/>
+      <c r="J96" s="37" t="n"/>
     </row>
     <row r="97">
-      <c r="B97" s="46" t="n"/>
-      <c r="C97" s="33" t="n"/>
-      <c r="D97" s="33" t="n"/>
-      <c r="E97" s="38" t="n"/>
-      <c r="F97" s="39" t="n"/>
-      <c r="G97" s="38" t="n"/>
-      <c r="H97" s="39" t="n"/>
-      <c r="I97" s="38" t="n"/>
-      <c r="J97" s="39" t="n"/>
+      <c r="B97" s="44" t="n"/>
+      <c r="C97" s="25" t="n"/>
+      <c r="D97" s="25" t="n"/>
+      <c r="E97" s="36" t="n"/>
+      <c r="F97" s="37" t="n"/>
+      <c r="G97" s="36" t="n"/>
+      <c r="H97" s="37" t="n"/>
+      <c r="I97" s="36" t="n"/>
+      <c r="J97" s="37" t="n"/>
     </row>
     <row r="98">
-      <c r="B98" s="46" t="n"/>
-      <c r="C98" s="33" t="n"/>
-      <c r="D98" s="33" t="n"/>
-      <c r="E98" s="38" t="n"/>
-      <c r="F98" s="39" t="n"/>
-      <c r="G98" s="38" t="n"/>
-      <c r="H98" s="39" t="n"/>
-      <c r="I98" s="38" t="n"/>
-      <c r="J98" s="39" t="n"/>
+      <c r="B98" s="44" t="n"/>
+      <c r="C98" s="25" t="n"/>
+      <c r="D98" s="25" t="n"/>
+      <c r="E98" s="36" t="n"/>
+      <c r="F98" s="37" t="n"/>
+      <c r="G98" s="36" t="n"/>
+      <c r="H98" s="37" t="n"/>
+      <c r="I98" s="36" t="n"/>
+      <c r="J98" s="37" t="n"/>
     </row>
     <row r="99">
-      <c r="B99" s="46" t="n"/>
-      <c r="C99" s="33" t="n"/>
-      <c r="D99" s="33" t="n"/>
-      <c r="E99" s="38" t="n"/>
-      <c r="F99" s="39" t="n"/>
-      <c r="G99" s="38" t="n"/>
-      <c r="H99" s="39" t="n"/>
-      <c r="I99" s="38" t="n"/>
-      <c r="J99" s="39" t="n"/>
+      <c r="B99" s="44" t="n"/>
+      <c r="C99" s="25" t="n"/>
+      <c r="D99" s="25" t="n"/>
+      <c r="E99" s="36" t="n"/>
+      <c r="F99" s="37" t="n"/>
+      <c r="G99" s="36" t="n"/>
+      <c r="H99" s="37" t="n"/>
+      <c r="I99" s="36" t="n"/>
+      <c r="J99" s="37" t="n"/>
     </row>
     <row r="100">
-      <c r="B100" s="47" t="n"/>
+      <c r="B100" s="45" t="n"/>
     </row>
     <row r="101">
-      <c r="B101" s="47" t="n"/>
+      <c r="B101" s="45" t="n"/>
     </row>
     <row r="102">
-      <c r="B102" s="47" t="n"/>
+      <c r="B102" s="45" t="n"/>
     </row>
     <row r="103">
-      <c r="B103" s="47" t="n"/>
+      <c r="B103" s="45" t="n"/>
     </row>
     <row r="104">
-      <c r="B104" s="47" t="n"/>
+      <c r="B104" s="45" t="n"/>
     </row>
     <row r="105">
-      <c r="B105" s="47" t="n"/>
+      <c r="B105" s="45" t="n"/>
     </row>
     <row r="106">
-      <c r="B106" s="47" t="n"/>
+      <c r="B106" s="45" t="n"/>
     </row>
     <row r="107">
-      <c r="B107" s="47" t="n"/>
+      <c r="B107" s="45" t="n"/>
     </row>
     <row r="108">
-      <c r="B108" s="47" t="n"/>
+      <c r="B108" s="45" t="n"/>
     </row>
     <row r="109">
-      <c r="B109" s="47" t="n"/>
+      <c r="B109" s="45" t="n"/>
     </row>
     <row r="110">
-      <c r="B110" s="47" t="n"/>
+      <c r="B110" s="45" t="n"/>
     </row>
     <row r="111">
-      <c r="B111" s="47" t="n"/>
+      <c r="B111" s="45" t="n"/>
     </row>
     <row r="112">
-      <c r="B112" s="47" t="n"/>
+      <c r="B112" s="45" t="n"/>
     </row>
     <row r="113">
-      <c r="B113" s="47" t="n"/>
+      <c r="B113" s="45" t="n"/>
     </row>
     <row r="114">
-      <c r="B114" s="47" t="n"/>
+      <c r="B114" s="45" t="n"/>
     </row>
     <row r="115">
-      <c r="B115" s="48" t="n"/>
+      <c r="B115" s="46" t="n"/>
     </row>
     <row r="116">
-      <c r="B116" s="48" t="n"/>
+      <c r="B116" s="46" t="n"/>
     </row>
     <row r="117">
-      <c r="B117" s="48" t="n"/>
+      <c r="B117" s="46" t="n"/>
     </row>
     <row r="118">
-      <c r="B118" s="48" t="n"/>
+      <c r="B118" s="46" t="n"/>
     </row>
     <row r="119">
-      <c r="B119" s="48" t="n"/>
+      <c r="B119" s="46" t="n"/>
     </row>
     <row r="120">
       <c r="B120" s="1" t="n"/>
@@ -32564,12 +32627,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="86" t="inlineStr">
+      <c r="A2" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
       </c>
-      <c r="L2" s="86" t="inlineStr">
+      <c r="L2" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
@@ -32777,12 +32840,12 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="86" t="inlineStr">
+      <c r="A20" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
       </c>
-      <c r="L20" s="86" t="inlineStr">
+      <c r="L20" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
@@ -32873,12 +32936,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="86" t="inlineStr">
+      <c r="A2" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
       </c>
-      <c r="L2" s="86" t="inlineStr">
+      <c r="L2" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
@@ -33086,12 +33149,12 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="86" t="inlineStr">
+      <c r="A20" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
       </c>
-      <c r="L20" s="86" t="inlineStr">
+      <c r="L20" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
@@ -33182,12 +33245,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="86" t="inlineStr">
+      <c r="A2" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
       </c>
-      <c r="L2" s="86" t="inlineStr">
+      <c r="L2" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
@@ -33395,12 +33458,12 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="86" t="inlineStr">
+      <c r="A20" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
       </c>
-      <c r="L20" s="86" t="inlineStr">
+      <c r="L20" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
@@ -33495,12 +33558,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="86" t="inlineStr">
+      <c r="A2" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
       </c>
-      <c r="L2" s="86" t="inlineStr">
+      <c r="L2" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
@@ -33711,12 +33774,12 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="86" t="inlineStr">
+      <c r="A20" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
       </c>
-      <c r="L20" s="86" t="inlineStr">
+      <c r="L20" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
@@ -33811,7 +33874,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="86" t="inlineStr">
+      <c r="A2" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
@@ -33935,7 +33998,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="86" t="inlineStr">
+      <c r="A20" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
@@ -34006,12 +34069,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="86" t="inlineStr">
+      <c r="A2" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
       </c>
-      <c r="L2" s="86" t="inlineStr">
+      <c r="L2" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
@@ -34163,12 +34226,12 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="86" t="inlineStr">
+      <c r="A20" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
       </c>
-      <c r="L20" s="86" t="inlineStr">
+      <c r="L20" s="90" t="inlineStr">
         <is>
           <t>Report</t>
         </is>
